--- a/data/hotels_by_city/Dallas/Dallas_shard_75.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_75.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1011">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Linda P</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I was a single woman traveling alone. Thought this would be a great place to stay at. There was construction outside on the road, the hotel needed to be upgraded badly like ASAP. The web page I booked it said they had airport transportation. Well they did but only 9 - 5. I slept in my clothes because the room looked awful. I did complain and got the $25.00 I paid for a taxi. I had pre-paid for two nights but did not want to go back there, even with the explanation to them they still charged me for the 2nd night. This is hard to write as I have never had to do it before, giving a bad revue makes me sad.More</t>
   </si>
   <si>
+    <t>BusinessTraveler87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r534121811-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Kelly K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r513876464-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>This hotel is small and easy to access off the main road. The curtains don't cover the window fully so a lot of light filters into the room starting from sunrise along with the road sound if you're on the front of the building. The room was comfortable besides the excessive light.I requested a late check out of 12pm upon check in. We would be getting in after 2am and had a long drive so we wanted to sleep in. This was approved and we went on our merry way. Somewhere between 8:30am &amp; 9:30am we were woken by house keeping knocking on our door. They left. Around 11am they come knocking again and then proceeded to yell back and forth to each other outside our door when I said no. A few minutes later...the room phone rings. I was asked if I wanted to extend my stay to which I explained we'd been told we could stay until noon. After a small back and forth about this it turned out they'd forgotten to note that on our room. We decided it wasn't worth it to try to sleep any longer as we'd been woken up three times and packed our stuff and left immediately after hanging up with the front desk.Based off these events we probably won't stay here again. Too many negatives just add up.More</t>
   </si>
   <si>
+    <t>Mike D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r496674317-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>MrsHairLover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r496039896-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Don't trust the photos! This place was a DUMP! Our room was musty, the sheets had STAINS on them... and so did our towels! And our bed was hard as a rock! I don't know how this place got such good reviews... we saw the original listing on an app called "booking.com", and everyone had nothing but good things to say so I figured it was safe... not so much! And when I returned to be app, AFTER we checked out, my account was locked and I was no longer allowed to review my stay... apparently the review feature is only available while you are there... this hotel appears to be modern and upscale based on the photos, but take this as a warning, ITS NOT! I wouldn't recommend anyone stay here! Especially for $130 a night! What a jokeMore</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r492034606-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>I was on a Business trip &amp; was upgraded to a Suite as the room booked was not available for some reason .Very spacious ,clean &amp; good breakfast in the morning too .Very very very courteous &amp; helpful staff . Chris GMore</t>
   </si>
   <si>
+    <t>Al H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r485153183-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>The hotel and room were very clean.  Good hot breakfast.  I just needed a room for one night.  Why pay more ?  Nothing fancy, but wasn't looking for that on this trip.  Anyone looking for an economical short-term stay, this is it !!!More</t>
   </si>
   <si>
+    <t>Beverly F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r460722811-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>We spent a week here in late January. It was an older place, but was pleasant. Their greatest asset is their staff. They were extremely friendly and helpful. The breakfast was really good and you had a lot of variety to choose from. The hotel itself was extremely clean --they did an excellent job of keeping it clean.   I would recommend this hotel for any of my friends and family.  It is small, but mighty! They made our trip a delight.More</t>
   </si>
   <si>
+    <t>1donnapipes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r448380150-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>First Comfort Inn with a not-so-good review.  Supposed to be non-smoking, but when I walked in my room, I smelled a lingering odor of cigarettes.  Not knowing the location of our room upon check-in, it was 3rd floor, close to the freeway and on New Year's Eve... that would have been the last place I would allow a client to spend the night.  So much highway noise, it was unacceptable!  The lighting was out dated and the coffee took too long to make.  However, the bed pillows were comfy and the frig was working well.  The breakfast was served b/t 6:30-10:30 but at 9:00, there was no regular coffee, what was left of the eggs were not good, 2 remaining biscuits, and no gravy.  Sorry Comfort Inn, but when you book clientel on a holiday weekend or anytime really, it would be a good idea to stock the pantry of breakfast items because it's clearly advertised breakfast is served b/t 6:30-10:30.  I was disappointed and will not be visiting this particular location again.  I should have been more careful and read the reviews a little more closely.More</t>
   </si>
   <si>
+    <t>mng1987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r447218825-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -399,6 +429,9 @@
     <t>This was not my first choice! It's not a name brand I am comfortable with so ending up here was a bit of an unwelcomed surprise. From check in to check out- I had to keep reminding myself that I was not at my customary fav hotels and this was half of the price AND CLEANER AND MORE COMFORTABLE. The front desk peeps were top notch and the free breakfast was HEALTHY, NO CORNERS CUT, FRESH, AND DELICIOUS. My bed was COMFORTABLE, ROOM MODERNIZED, and CLEAN. I will be back. WELL DONE!!More</t>
   </si>
   <si>
+    <t>Christina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r443892647-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -423,6 +456,9 @@
     <t>I checked into the hotel on December 8, 2016. I was checked in room 223 (a two bed room). Not long after I started seeing bedbugs crawling on the pillows on the other bed. The manager on duty came up to the room and confirmed the bugs. I don't know how long thy have been infected but it was bad enough there was several visible bugs crawling on the bed. He was very nice and was able to reserve a room at another hotel for me. I appreciate him covering the expense of the Quality Inn that evening but I at least expected to receive a phone call from the hotel manager/owner. If you choose to stay here please make sure you check your room before taking your luggage in. Trying to make sure I did not transport these critters home was one of the worst experiences I have been thorough.More</t>
   </si>
   <si>
+    <t>Jill D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r438515993-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -450,6 +486,9 @@
     <t>The rooms are dated and need some TLC. The air conditioner went bizerk a few times and was really loud. The location is semi ghetto, I was packing, but didn't ever feel unsafe. There really isn't a lot of parking either. Now to the good... The breakfast was typical hotel fare, can't complain for 'included" in the price. The beds were clean and firm, a tad firm for my taste but I slept well. I had a heard of elephants above me so the walls seen paper thin. The layout of the floors is awkward but it is what it is. There are a lot of pillows on the bed which is great. I was here business and the Wi-Fi was quick. I did appreciate the really tall ceilings in the room, no claustrophobic feeling. The staff is super friendly and the hotel is actually really clean. I'd stay here again despite the iffy rating and oddities written.More</t>
   </si>
   <si>
+    <t>k97mb03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r437048501-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -474,6 +513,9 @@
     <t>We stayed here one night in order to stay at a hotel with a shuttle for an early morning flight out of Love Field. Upon check in we were told the shuttle driver didn't arrive until 6am. The hotel room was run down, with high slanted ceiling and cobwebs. There were strange holes in the walls up high. The bathroom was minimally clean with remnants of questionable origins on the walls. The hotel is approximately 6 inches off the highway and without regard to insulation.At 6am we were in the lobby, as was the shuttle driver and our shuttle mate. However, he didn't see fit to leave the hotel until 6:20am.We are in Dallas fairly often, but there is now way I would stay here again. More</t>
   </si>
   <si>
+    <t>tx10thirtytwo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r436423680-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -492,6 +534,9 @@
     <t>It goes without saying that rooms facing a 3-lane highway will be noisy. The desk manager was very accommodating when I asked to switch to a room on the less noisy side of the hotel.The entire room and bathroom were clean and sanitary. The king bed was comfortable. I had no problems with the Wi-Fi. The fridge was working, but I did not use it or the coffee maker.The lobby smelled like it was just sprayed with air freshener. The place did not smell like feet or BO.  First morning's breakfast, I had a biscuit with white cream gravy, scrambled eggs, sausage patty, milk, OJ, a little cereal. Next day was same, but had a bagel, no cereal.  There was a lot to choose from, everything looked good &amp; fresh.At night, the parking lot was well lit.  There were no shady characters hanging around.I have stayed at a few Comfort Inn / Sleep Inn locations and all have been quite satisfactory.More</t>
   </si>
   <si>
+    <t>Alexandra C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r434057258-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -513,6 +558,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Jeff R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r429694334-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -528,6 +576,9 @@
     <t>Nice couple of nights stay here while I attended the State Fair of Texas.  Rooms were clean and bed was comfortable.  I really like the fact that they provided 5 pillows of varying firmness.  Good idea!  I'd stay here again although it's showing some age.  Didn't try the breakfast but the wi-fi worked just fine.  Location is not bad, right off I-3.</t>
   </si>
   <si>
+    <t>Nikki W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r428561444-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,6 +606,9 @@
     <t>We stayed here with another family. The rooms are large, clean, and very up to date. The couch actually pulls out to a bed - a bonus over what is listed online. The front desk staff were all SO nice. They were professional and seemed to take pride in their job and the hotel itself. I would highly recommend this as an overnight before/after flying out of Love Field. I will definitely be staying here again. More</t>
   </si>
   <si>
+    <t>Barbara L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r421525311-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -573,6 +627,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Michael J. P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r420584904-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -582,6 +639,9 @@
     <t>09/20/2016</t>
   </si>
   <si>
+    <t>807joyw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r403526715-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -600,6 +660,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>BomMomMB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r401496694-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -618,6 +681,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>MSLuv2travel10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r399800007-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -633,6 +699,9 @@
     <t xml:space="preserve">We only spent 5 hours here as a pit stop for an early morning flight but we found the location perfect for Love Airport! It took around 10 minutes to get to the airport. The rooms were clean and comfortable. The staff was helpful and polite. Parking was adequate. </t>
   </si>
   <si>
+    <t>Carly F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r392489127-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,6 +726,9 @@
     <t>I checked in on Monday and had no problems. Wifi was great, bed was super comfy, staff was very friendly. Wednesday, as I was getting ready to go to bed, I noticed a bug flying around but figured a rogue mosquito had gotten in or something. As I got in bed, I had another bug crawl on my arm. They were more like ants or termites or something (I'm not a big expert). No other hotels in the area had vacancies, and the front desk was able to find me another room. I switched to a room a couple doors down. The bed wasn't soft, the outlets by the bed didn't work, and there were cracks in the walls in the bathroom. Had it not been for the bugs, this hotel would have gotten a better rating, but because the second bed was not comfy at all and the bugs, I will probably rethink staying here next visit.More</t>
   </si>
   <si>
+    <t>Angela W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r384134229-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -678,6 +750,9 @@
     <t>The room was clean and tidy.  It was quiet and comfortable. The rates were competitive and the staff were helpful and friendly.  The location is just a short walk to the bus stop which gives you access to the Dart rail network.  There is also a fast food chain nearby.  The shuttle to Dallas Love field airport was great.More</t>
   </si>
   <si>
+    <t>Tony T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r383012823-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -696,6 +771,9 @@
     <t>We used our points as Choice Privilege Members. No complaints about this stay. Room was clean, everything worked, breakfast was great, staff was friendly, and it was close to the hospital district, which is why we were in Dallas. I would recommend this hotel for anyone. One of the top hotels in the chain.More</t>
   </si>
   <si>
+    <t>David W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r371953295-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -717,6 +795,9 @@
     <t>First time staying here and the place is well kept for what appears to be a older facility. Room was nice, bed was comfortable, and the breakfast was good quality. Also close to downtown and on the flip side of traffic patterns into and out if there.More</t>
   </si>
   <si>
+    <t>Dc4321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r365689171-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -738,6 +819,9 @@
     <t>We stayed at this property for 4 nights.  It got off to a rocky start--they had cancelled our reservation w/o telling us--but were able to put us in a king suite to make up for it.  The property is fine--not a lot of bells and whistles--but the room was good quality and there was breakfast every morning.  We had read the reviews suggesting to ask for a room away from the freeway--that is a good call, but with the A/C unit going, we didn't hear much noise anyways. Also worth noting that the location is convenient--easy to get downtown, to Love Field, Park Cities, etc.  Jeffrey, the front desk manager, seems like the hardest working man in show business--he was at the counter almost every time we came and went and showed up at 6am one morning to drive the shuttle for a group.  If you're looking for a budget-friendly choice, this is worth considering.More</t>
   </si>
   <si>
+    <t>scooby-BTR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r340790848-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -765,6 +849,9 @@
     <t>Room was OK, bed was comfy.. very close to airport.  But, i think they are remolding....  not sure.  Felt the check in was a bit cumbersome as communication with clerk was a bit ..... well, just communication i guess.  was supposed to use points and pay some, but somehow he just used my points.More</t>
   </si>
   <si>
+    <t>Jessica Marie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r337243321-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -789,6 +876,9 @@
     <t>I booked this hotel for a music festival for NYE. I called the customer service number to let them know i would be checking in 30 minutes later than 6pm. They told me it was fine and everything was set. I get to the hotel at 6:11pm... THEY GAVE MY ROOM AWAY!. No phone call. No email. NOTHING! Just completely gave it away! and they were sold out of other rooms. Thankfully I was able to get a room at the Crown Plaza(WAYYYY BETTER HOTEL) Next door!. Worst part.... The Manager had the worst attitude! and didn't seem to care that it was their screw up here. SAVE your money! DO NOT STAY HERE.More</t>
   </si>
   <si>
+    <t>Worldtravenut</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r336400608-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -810,6 +900,9 @@
     <t>Hotel comfortable and good value for money. Although right by highway, noise wasn't really a problem, breakfast fine too.Appreciate that the shuttle to Dallas Love Field didn`t run at weekends, however to advertise it operating 6am to 6pm and then to find that the driver had gone home before when I wanted to go to the airport wasn't very good especially after the morning reception staff noted my request accordingly.More</t>
   </si>
   <si>
+    <t>Brandon J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r336388194-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -825,6 +918,9 @@
     <t>Ok so I booked a room with the advanced pay option.  somehow the day that was booked was 2 days before I was to arrive in Dallas.  I understand with the advance pay that their is no cancellation.  I call choice hotels to see if they could simply change the day to the right day, they stated that they would have the manager call me.  after a couple of days I called back as I have not received a call.  again I was told that the manager would call me.  a couple days later again I called back and was told that it was marked in the computer that the manager had contacted me and that the issue was resolve, and the matter was closed and I was just stuck with a room and date that I could not use and thank you sir for the money.  I am not a business man but this is not how I would do business, not only would I have accommodated my client who uses me a lot  by not cancelling the hotel but putting it on the right date which was no different on the charge and would have been a much less busy night for the hotel, but I would not be rude and would not say I did something I did not do,  as a choice hotel user for many years this process has brought me to the point of...Ok so I booked a room with the advanced pay option.  somehow the day that was booked was 2 days before I was to arrive in Dallas.  I understand with the advance pay that their is no cancellation.  I call choice hotels to see if they could simply change the day to the right day, they stated that they would have the manager call me.  after a couple of days I called back as I have not received a call.  again I was told that the manager would call me.  a couple days later again I called back and was told that it was marked in the computer that the manager had contacted me and that the issue was resolve, and the matter was closed and I was just stuck with a room and date that I could not use and thank you sir for the money.  I am not a business man but this is not how I would do business, not only would I have accommodated my client who uses me a lot  by not cancelling the hotel but putting it on the right date which was no different on the charge and would have been a much less busy night for the hotel, but I would not be rude and would not say I did something I did not do,  as a choice hotel user for many years this process has brought me to the point of looking for another chain to use.More</t>
   </si>
   <si>
+    <t>vmart0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r329933382-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -849,6 +945,9 @@
     <t>When I checked in the front desk lady was so rude, she never once smiled or asked how could I help you, seemed as if I was interrupting her from the computer. When I got to my room it had a really bad smell to it, almost like wet carpet. The room just felt really dirty. The next morning I took my family down for breakfast. The food was ok the eggs were cold and the milk was warm.(sad). I never got room service the three nights I was there. I just asked for towels witch by the by had stains on them. Talk about being clean!?!  The worse part about this stay was at checkout, my family and I had a 8 hour drive back home so we had to be up early or plain was to leave at 3 am so we come down and I inform the lady at the front desk we are checking out, she said her name was Mary but I am not sure because she didn't have a name tag. I told her we had a 100 cash deposit witch is refundable as long as the room is clean and nothing is missing. She said you have to come back at 8 to get your money back that's when housekeepers will be here to check. I could not believe this! I work in the hotel business and this is not how things work....When I checked in the front desk lady was so rude, she never once smiled or asked how could I help you, seemed as if I was interrupting her from the computer. When I got to my room it had a really bad smell to it, almost like wet carpet. The room just felt really dirty. The next morning I took my family down for breakfast. The food was ok the eggs were cold and the milk was warm.(sad). I never got room service the three nights I was there. I just asked for towels witch by the by had stains on them. Talk about being clean!?!  The worse part about this stay was at checkout, my family and I had a 8 hour drive back home so we had to be up early or plain was to leave at 3 am so we come down and I inform the lady at the front desk we are checking out, she said her name was Mary but I am not sure because she didn't have a name tag. I told her we had a 100 cash deposit witch is refundable as long as the room is clean and nothing is missing. She said you have to come back at 8 to get your money back that's when housekeepers will be here to check. I could not believe this! I work in the hotel business and this is not how things work. She was by far the most difficult person I have ever met. She was rude and highly disrespectful. If I give a hotel that is open 24 hours of the day there should not be any reason why if I give 100 at check in that no matter what time I checkout that I would not get it back. I had my 7 year old child in the lobby  at 330am waiting for this lady to take 1 min out of her time to check the room and see that it was ok to give me my money back. She really showed that she did not care. I don't understand why people work in the hospitality if they can really care less about the customers that they serve. After calling the police and an hour later she finally went to check the room and she finally gave me my money back. I will never stay at this hotel again.  The crown plaza is right next door nice place to stay there! More</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r326131692-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -873,6 +972,9 @@
     <t>This is a very nice property.  As of this writing they are doing some outside construction.  Convenient to the freeway.  No restaurants within walking distance.  Room was modern, clean, and very nice.  I will stay here again.  A good value.More</t>
   </si>
   <si>
+    <t>LORETTA S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r317195755-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -894,6 +996,9 @@
     <t>This was a terrible hotel, old, broken down, bad area of town, no place to eat.  Guests were questionable.  Only good thing was the check-in person and the check-out person.  The rest of the place was what I would call a RAT HOLE.  We arrived late from airport and had terrible time finding hotel.  Their SHUTTLE was in for repairs from the airport for over a month and was still not working when we landed.  Very disappointed.  Everything was a facade.  The front lobby had a beautiful chandelier.  That was the highlight of the decor.  They did recognize me as an elite gold member and offered me a free bottle of water.  No place to dine near by.  Keep going and stay away from here.  No one spoke English.More</t>
   </si>
   <si>
+    <t>CajunLady01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r316357396-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1020,9 @@
     <t>This was the best Comfort Inn I have ever stayed in.  Top notch from the friendly, courteous and accommodating desk staff to the efficient host at the breakfast buffet.  The modern and well designed king suite was immaculate and well appointed.  Although the hotel was full for our 2 nights, it was so quiet we never heard anything outside of our room.  This may not bea 5 star luxory hotel, it was right up there because of the staff and cleanliness.  It is also conveniently located to Love Field and the Market Center and not far from downtown Dallas.More</t>
   </si>
   <si>
+    <t>Trudymacey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r314429769-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1050,9 @@
     <t>Shabby old building right next to a freeway,didn"t sleep because of the noise dreadful!! Two places to eat within walking distance  ..... a cheap burger bar or VERY expensive Hotel ( Crowne Plaza ) next door!! 7 miles from Dealey Plaza which was where we wanted to be,again a $20 taxi ride!!! although the staff were pleasant /helpful enough,we had to wait over an hour the 2nd day for a taxi....they dont book by name so another guest took our taxi which had been ordered!!! Breakfast was o.k.Room o.k. nothing special.More</t>
   </si>
   <si>
+    <t>maithri k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r312629656-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1074,9 @@
     <t>Close to downtown, free wifi, free breakfast, clean rooms, good service, good bed, what else do you need for a night stay! No complaints, used choicehotels points to redeem a free stay too. Thumbs up!More</t>
   </si>
   <si>
+    <t>Rocky M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r312043156-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1095,9 @@
     <t>Great Place good people behind the counter. Nice place for extended stay. New remodeled excilent location.Mr Tiwari is awsome and thanks for your hospitality. Close to freeway and i checked-in after midnight and night lady was great and very welcomming. thank will be back if i am in Dallas.More</t>
   </si>
   <si>
+    <t>Vision293</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r307014545-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1116,9 @@
     <t>So in one of my most recent reviews, remember I spoke on the cleaning agents that will make or break a persons feelings? I thought that the staff was very nice and accommodating, the food was pretty good, had a bit better. The room was ok, however whatever is being used for cleaning supplies left a not so inviting odor that made you feel like you were in a motel and not a motel. The rooms were updated to a degree,. nice bathroom fixtures and updates, even though toilet kept running off and on throughout the day. For the most part if you need access to something right off the expressway, overnight, quick stay friendly staff this was a descent stay. Also eateries are not in the vicinity you will have to drive along the frontage roads at least 5-10 minutes unless you are just looking for a hamburger or something. Not the best, but definitely not the worst.More</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r304933443-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1143,9 @@
     <t>I enjoyed how nice and updated the room was here. I would suggest that you choose if possible a higher number room as well as a odd number room to stay away from the I-35 traffic noise outside. Breakfast was good too. More</t>
   </si>
   <si>
+    <t>mellumac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r302606351-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1164,9 @@
     <t>We were there 10 days while my daughter was on bed rest, had a baby by c-section, and moved with her husband and newborn to a new location and new job.  The daughter stayed with us and her husband was in and out as he moved stuff and started his new job. Everyone, especially a lady at the front desk named Jasmine was very kind.  My pregnant daughter enjoyed the waffles and sausage I would bring her.  Thanks againMore</t>
   </si>
   <si>
+    <t>182jaya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r281711607-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1194,9 @@
     <t>Great place.  Minutes from Love Field airport, 5 minuets from all downtown attractions, terrific staff, room meticulously cleaned and restocked daily.  Great breakfast. Small but very well equipped fitness room.More</t>
   </si>
   <si>
+    <t>tripqueenOklahoma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r281262298-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1221,9 @@
     <t>This hotel was clean but the rooms were smaller than average. The parking lot was small also. The breakfast was good and had many choices. There is no pool and it is a bit noisy being right beside the interstate.More</t>
   </si>
   <si>
+    <t>traveler65432</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r262008021-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1251,9 @@
     <t>After staying here, I'm convinced that any previous positive reviews came from ownership or management.  This hotel is easily one of the worst I've ever stayed in.  First, it wasn't very clean-there was a huge hair left in our sink for one thing....the air conditioner didn't work right, but worst of all the place smelled horrible...Like a dingy mixture of dogs and smoke.  It knocked you out when you entered the room.  We sprayed the room with lysol but it didn't help.  We asked the front desk about a different room or a refund, and couldn't get either one. The curtains didn't block the outside lighting, walls were super thin, and the cheap mattress was horrible.  We ended up leaving before daylight because we couldn't sleep here.  Traffic noise was bad also, especially since the wall a/c unit wouldn't stay on long enough to drown it out. And we could hear people talking all night in the parking area outide. This one hotel stay damaged what was otherwise a perfect family trip.  There are better hotels in this price range nearby.  Don't waste your money on this one. It's definitely not worth trying to save a couple bucks.  Basically it's a stinky, deteriorating facility.More</t>
   </si>
   <si>
+    <t>JetsetMom4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r254357173-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1278,9 @@
     <t>The hotel exceeded my expectations. It's much better looking than its online pictures. About 10 mins from airport. Customer service was great. Did not try the breakfast during my stay. Clean room and bathroom. Quiet first floor room. The hotel has a small, convenient little store for midnight snacks.More</t>
   </si>
   <si>
+    <t>Douglas L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r240108129-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1302,9 @@
     <t>I tried to find an inexpensive hotel near the airport.  Next time I should pay attention to the poor reviews.  The linens were dirty and needed to be changed prior to staying in the room.  We received a discount of 20% but didn't take away the poor experience.  Foreign Owned and operated, not pleased with the service or attitude.   I won't return...More</t>
   </si>
   <si>
+    <t>JCDWinfrey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r238530835-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1329,9 @@
     <t>The front desk &amp; housekeeping was friendly, Courteous &amp; accomodating.  My room was nice and clean and the bed was heavenly.  The breakfast is free and quite good with an assortment of pastries, fruit, sausage, eggs, cereal, bagel, yogurt, boiled eggs and a waffle maker.  I signed up for choice points &amp; looking forward to earning free days. I enjoyed a very pleasant &amp; quiet stay and will patronage this establishment on any future trips to the city of Dallas. J DavisMore</t>
   </si>
   <si>
+    <t>Tunnus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r236365566-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1350,9 @@
     <t>We had our Church meeting over the weekend and some rooms as well . The staff was very accommodating &amp; took care of our basic needs for the meeting . The maid services were very satisfactory ! Our group is considering this hotel for our regular monthly church meetings.More</t>
   </si>
   <si>
+    <t>kevin p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r233688190-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1377,9 @@
     <t>I stayed here  to attend a medical conference &amp; this facility is the one of the cleanest I've ever stayed . It is well kept by the innkeeper &amp; staff is very humble &amp; helping .The power was not available for some time but no issues . All went well ! More</t>
   </si>
   <si>
+    <t>Brenda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r233310850-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1248,6 +1398,9 @@
     <t>We chose this place for the price and name that I have trusted in the past. I was not happy with the room because there was no bathroom fan in the bathroom. The room was average, and the television channels where minimal. One day the elevator was out of order, and it was managed to get it fixed the same day. The breakfast was good, until I saw a moldy bread in the bread container. Parking lot is small, you better be careful where you park your car or some crackhead might take the opportunity to break in to it. Management will not assist with anything regarding parking lot. More</t>
   </si>
   <si>
+    <t>vickybliss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r232357210-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1425,9 @@
     <t>There was a oiler outage shortly after we checked in. 2 hours later we made our way down an unlit hallway (dark exit signs) and unlit stairway to front desk (unmanned). After tracking down staff we were told they didn't know when power would be restored and weren't responsible for an act of nature. We asked about other hotels with power and no help there. Made our own call to the closest Comfort Suites. They had power and booked reservations. Checked out of Market CS before 6pm but was not refunded for night. Not even a discount. More</t>
   </si>
   <si>
+    <t>The8racer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r224785512-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1449,9 @@
     <t>The room has been recently remodeled and was comfortable and clean. The rest of the place is a bit dated and is in a less than desirable location. Access in and out is difficult, a busy one way street is the only way in, the parking lot is small and dark. Groups of people congregate around the front door, not sure if this is ongoing but I saw it twice. The check in person was very friendly. I did not stay for breakfast. Overall this is a place you can stay but surely there are better options.More</t>
   </si>
   <si>
+    <t>christine v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r224455440-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +1479,9 @@
     <t>While traveling, we decided to stop in Dallas. It was late (9pm) and we hoped we could find an available room. I figured we'd get hit with a high rate since we just "stopped in". The night manager was very friendly and very accommodating. He quoted us a very good rate and then gave us a discount because we are Farm Bureau members. The hotel was quiet, very clean and the room was extremely comfortable. They offer hot breakfast, with waffles shaped like Texas, which was a big hit with our kids. My husband used the work out room, which he said was good, especially for a smaller hotel. Overall, we were very pleased with this hotel.More</t>
   </si>
   <si>
+    <t>Niki H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r215545288-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1341,6 +1503,9 @@
     <t>Choice Hotels - This Comfort Inn in particular was a wonderful stay!  The chain has rewards that really add up for free stays all over!  As for this hotel, it was clean, staff was super friendly and the free breakfast was wonderful as always.  The room appeared to be newly remodeled and well appointed.  Only cons -- it is supposed to be a non-smoking hotel but quite often the halls and rooms have smelled of smoke...especially at night!  Very close to Dallas Market Hall for coming and going to show there.More</t>
   </si>
   <si>
+    <t>RiverBirch1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r210685030-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1533,9 @@
     <t>Look folks, this place is a good location, but the badness sucks over that.Breakfast is good, yes.  Rooms are ok.  Beds are terrific.I checked in before my friend arrived.  They asked for NO id.  They said to sign for her and then gave me two keys.  I could have been an axe murderer.  It was under her credit card and yet they insisted I sign.  I did, yes.  I was confused.  I got two keys for this, under absolutely no authorization or checks for my id.  When she arrived, they blatantly lied to her about this.  Straight up lie.  They said I gave my id and credit card.  I did not.  They did not ask, and as I said, I was confused, so I signed.  This is security lacking in the worst.We asked specifically if construction was complete and they said yes.  It wasn't.  Then we asked about DART being close and they said yes.  It wasn't.And then there was the trash bag that sat in the hallway for days.Stay away from this place, if just for your own safety, let alone trash in the hallway.More</t>
   </si>
   <si>
+    <t>SpicyPadThai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r209737652-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +1560,9 @@
     <t>The hotels shows much better from the inside than the outside. Clean rooms with adequate amenities. We had the non-smoking suite on the 2nd floor. Breakfast was adequate. 20 min drive to downtowon Dallas. Staff was friendly and courteous.More</t>
   </si>
   <si>
+    <t>Rick C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r205602207-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1587,9 @@
     <t>Hotel inside is excellent, outside needs a coat of paint but it looks like it's coming.   Neighbourhood is a bit sketchy, mostly industrial, but right on the highways and easy access to downtown and the airport.Excellent hot and cold breakfast.  Limited parking for large vehicles/trailers.More</t>
   </si>
   <si>
+    <t>Travelling_laura</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r203103368-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1437,6 +1611,9 @@
     <t>Myself and my husband stayed here in on 21st October 2013 for 3 nights, as part of our honeymoon road trip. It was our first time in the USA and found this hotel met all our needs perfectly. It was affordable, clean, tidy and room was spacious. We enjoyed our breakfasts each day and loved the Texas shaped waffle iron :) Staff were pleasant and helpful. Nothing to complain about. We enjoyed our stay and would stay again.More</t>
   </si>
   <si>
+    <t>nihongo888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r200424865-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1641,9 @@
     <t>Got a chance to talk with the GM Nitin Tiwari during my stay. He was very polite and had a very pleasant staff. It was nice to stay in a hotel for 5-nights and not have any issues wat-so-ever. I wish them good luck on their renovations. They are already in good standing and will continue to improve. Thanks to everyone for all your kindness during my stay.More</t>
   </si>
   <si>
+    <t>MillionMiles2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r197517281-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1665,9 @@
     <t>I made a reservation here as it is right next door to the Customer I would be working with for the week.  I intended to stay two nights but left as fast as I could after one night.  I should have realized that a bathroom sink lying on the sidewalk when I arrived may have been a preview of things to come.  My experience:  Dirty....even the bedding and that just grossed me out to no end.  There was something black on the pillow case that smelled like burnt hair.  The wall in the bathroom next to the trash can was splattered with some kind of dried up gunk.  Really nasty.  When setting the alarm clock I could see big piles of dust and grime behind the bed stands and around the back of the bed.  Whatever was coming out of the A/C literally made me sick, I'm not sure but suspect mold.  I woke up, after barely sleeping sicker than a dog the next day.   The WiFi was not reliable.  Very weak signal strength meant to internet for me.  I asked for a different room but was told nothing was available.  When I left in the morning they Desk Dude didn't want to give me a receipt.  Said there were printer problems but when I insisted He was able to print it just fine.  It's now three days later and my sinus's are finally starting to clear up.More</t>
   </si>
   <si>
+    <t>Kiryaka V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r197152484-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1692,9 @@
     <t>his was a very nice hotel to stay at. Without really knowing the cowboys area very well, I was happy with how easy it was to get to the hotel &amp; around town from the hotel. The room was very clean and the beds were nice &amp; soft. The breakfast was excellent and so was the service. Could not have been happier with the choice I made.More</t>
   </si>
   <si>
+    <t>FredrickTX976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r197107819-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1713,9 @@
     <t>When I Am in the DFW Metroplex, I usually make my reservations in Addison, but this time I opted to stay somewhere else.  I chose this particular location because people seem to give it bad reviews.  From the moment I walked through the door, I was greeted with one of the most beautiful smiles I had seen by the GSR Acacia, she was very friendly and helpful.  As well as all of the other desk clerks that I came in contact with.  The hotel is under-going a renovation and I can overlook that and from the looks of it everything is looking great.  For this hotel to be located right off of the interstate, I can honestly say that I had one of the most peaceful nights sleeps in my entire 3 nights there. The breakfast was great. I would have to say, that the only problem I had was that my trip ended too soon.  But I have made future reservations for May, so I will be back.More</t>
   </si>
   <si>
+    <t>Orlando G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r191434486-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1548,6 +1737,9 @@
     <t>I needed a room for the trade fair and this was one of the few hotels not sold out and close to the venue. The hotel is undergoing renovations so from the outside it looks somewhat suspect but the lobby, hallways and room was clean and looked new. Because I booked the last room available I was in a smokers room (not great). The desk person was very helpful and arranged for the hotel van to take me to the trade fare saving me cab fare. I would stay there again.More</t>
   </si>
   <si>
+    <t>Armymomof3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r190444216-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1566,6 +1758,9 @@
     <t>Stayed overnight for an early flight.  It was a good stay with very helpful front desk person.  We did not eat breakfast as our flight was too early, but it was a lovely set up and we would stay here again if we were to return to the area.More</t>
   </si>
   <si>
+    <t>RTG-travlin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r189624502-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1584,6 +1779,9 @@
     <t>You will not be disapointed if you stay here, it is really a nice Hotel. I don't know what else I can say. This Hotel is very Comfortable, very Clean, very Modern, Very nice. I am really glad that we choose to stay here on this trip.More</t>
   </si>
   <si>
+    <t>Brian A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r187835492-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +1803,9 @@
     <t>Shortly after arriving the cigarette smoke was coming under our door. So I asked the lady at the desk if there was anything she could do and was told, "Smoking rooms and non smoking rooms are on the same floors." I told her that the smell wasn't going to work for me as it makes me nauseous, is there anyway we could get a refund? We were told No Refunds! We left anyway and stayed at the Crowne Plaza next door without the smell of smoke. Unbelievable that these people aren't smart enough to put smoking on one floor only. STAY AWAY, TERRIBLE CUSTOMER SERVICE, NO REFUNDS FOR ANY PROBLEMSMore</t>
   </si>
   <si>
+    <t>Joe T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r187099050-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1830,9 @@
     <t>On Dec 6 2013 we made a reservation by calling the comfort inn number online. I was connected to expedia to book the room. We made our reservation and proceeded to the hotel. We arrived at the hotel and I approached the desk the lady behind the desk asked for my reservation number and I gave it to her and she right away was rude. I didn't think to much of it at first. My coworker that was with me made the res in his name. She said she would not rent the room to us because it was my credit card. I asked to switch it to my name, she said "no". I asked if I could have expedia change the reservation. I then called expedia to get the reservation  changed. Another customer came in while im trying to fix my reservation and she rudely said to move over. I still was calm but growing increasingly frustrated. We had expedia reservations on my phone and expedia support on her phone to try to fix problem but she just argued with them. after almost two hours of this mess she then said "ok, tell them to cancel reservation and she would make new one and get us a room". I kept expedia on phone while they cancelled reservation waiving their charges for making reservation she now said she had no rooms. I was so upset me and the expedia representative...On Dec 6 2013 we made a reservation by calling the comfort inn number online. I was connected to expedia to book the room. We made our reservation and proceeded to the hotel. We arrived at the hotel and I approached the desk the lady behind the desk asked for my reservation number and I gave it to her and she right away was rude. I didn't think to much of it at first. My coworker that was with me made the res in his name. She said she would not rent the room to us because it was my credit card. I asked to switch it to my name, she said "no". I asked if I could have expedia change the reservation. I then called expedia to get the reservation  changed. Another customer came in while im trying to fix my reservation and she rudely said to move over. I still was calm but growing increasingly frustrated. We had expedia reservations on my phone and expedia support on her phone to try to fix problem but she just argued with them. after almost two hours of this mess she then said "ok, tell them to cancel reservation and she would make new one and get us a room". I kept expedia on phone while they cancelled reservation waiving their charges for making reservation she now said she had no rooms. I was so upset me and the expedia representative  couldn't be believe she did that. I asked her what do I need to do to get a room she then stated she had a room now but she quoted 75.00dep plus double the price of room. I was so upset. During this whole time I was NOT screaming at her or cursing. She then stated she was going to call the police if we didn't leave. This is during the horrible arctic blast that had occurred that weekend the roads were closed and we could not travel. We ended up sleeping in our car.  I you choose to stay here I hope you don't have to deal with this person.More</t>
   </si>
   <si>
+    <t>KenBerry1960</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r185404241-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1647,6 +1851,9 @@
     <t>Have stayed in this hotel every time my son who had a lung transplant at UT Southwestern last year goes back into the hospital. Its a descent little hotel that is clean enough ( don't look to hard at the showers) beds are good and its a good place to lay a tired head down after  day at the hospital. But as I was leaving this morning I was instructed by the morning clerk ( every issue I have ever had was with her) tells me I need anote from tthe hospital to get the rate, the one that I have already spent one night at. Never been done like that before here, and you would think if they pulled me up they would see that I'm there regularly. So today I will be running around the hospital, instead of caring for my son so these cheap owners can get a note. But I will actively campaign people staying at the Holiday Inn express that is much closer, and just a little higher but a nicer hotel. Because daily I speak with multitudes of patients families and I won't be telling them about Comfort InnsMore</t>
   </si>
   <si>
+    <t>milehigh39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r185308542-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1665,6 +1872,9 @@
     <t>I stayed there from nob 11-15 2013The rooms were clean and friendly staffIt is slightly hidden from view from a other hotel and the tall bushes  you really have to slow down I the side road or you could Miss the entranceI would def stay again More</t>
   </si>
   <si>
+    <t>DSergi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r183497116-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1683,6 +1893,9 @@
     <t>I don't usually expect much from a Comfort Inn. However this hotel was a pleasant surprise. The front desk staff was friendly, the rooms were large and spacious. The breakfast was the usual Choice fair. This must have been another more upmarket flag in another life as there was a phone in the bathroom. Other tell take signs exist such as a nice lobby and attractive exterior. Finally the location is very convienient to most of downtown Dallas. More</t>
   </si>
   <si>
+    <t>paulo3003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r177713914-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1923,9 @@
     <t>We wanted a hotel that was convenient to downtown but not terribly expensive.  This hotel met our needs.  The location is good - very close to downtown. Rooms were perfectly clean. Good breakfast. Staff was friendly.  I'd definitely stay here again.   Overall , a very good stay.More</t>
   </si>
   <si>
+    <t>jack c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r177599270-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1734,6 +1950,9 @@
     <t>This is one of the Best, clean, cozy hotel &amp; mind it customer Oriented Hotel we've every stayed ! We were there for  a   2 day stay during September 4-5 &amp; there was  a Big German Speaking Group checking in at the same .We were uncomfortable at first when we walked in the lobby as there were 50-60 peoples, so we decide to get our luggage out and come back. By the time we re back , within 10 minutes all were gone into their rooms . The rooms we were allotted was very clean and cozy . Staff was very nice with Directions to malls and restaurants .  It was right off the Highway for easy access as well. They even had Fresh Raisin Oat cookies freshly baked in that day . Its hard to see in front of the Big hotel next door but Overall, its a good hotel . Hidden Gem .More</t>
   </si>
   <si>
+    <t>Stephanie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r168129549-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1761,6 +1980,9 @@
     <t>I stayed here for work, it's a nice hotel, the rate is decent, and the room was clean and comfy. I'd definitely stay here again. The location was pretty decent. I had a small issue with my bathtub clogging, but the staff was friendly and had it taken care of quickly. Would recommend it.More</t>
   </si>
   <si>
+    <t>Vanessa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r168061391-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1780,6 +2002,9 @@
   </si>
   <si>
     <t>I love this place it was super spacious, bed was really comfy best sleep I have ever had, staff was amazing greeted me by name and remembered the reason for my visit. Breakfast was so good and the presentation was so nice. I enjoyed being able to make my coffee in my room and to be able to fit all my clothing in my closet. They even had a gym how great is that!!! I guarentee to make this my #1 destination any time in the future.More</t>
+  </si>
+  <si>
+    <t>Brady G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r162473808-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -1807,6 +2032,9 @@
 ALL these things were minor until I was waking up the next day.  Everyone know about choice privileges?  If your a member you are supposed to have the privilege of having a late 2PM check out.  I told the front desk night agent that I would be checking out at 2 PM as I was arriving at 3.  She added it into the account.  The next day someone called the room at 11 waking me up asking when I...!!!DO NOT STAY AT THIS HOTEL UNTIL IT IS UNDER NEW MANAGEMENT!!!The ONLY thing that saves this hotel from getting 1 out of 5 is the fact that the front desk agent doing night audit was extremely kind and courteous to me.  I drove here from Waco to get away and was extremely relieved to find that she could get me a non-smoking room on such short notice at 3AM(even though that was the type of room I reserved online).  Additionally my room was supposed to be a suite.  They were out of those.  I settled for a non-smoking room close to the highway, with a T.V. that had a hard time keeping up with the press of a button on the remote, and somehow we slept through the sounds of semi-trucks driving by on the freeway less than 30 feet from my window.  The bed sheets had cigarette holes in them... wasn't this supposed to be a non-smoking room?  ALL these things were minor until I was waking up the next day.  Everyone know about choice privileges?  If your a member you are supposed to have the privilege of having a late 2PM check out.  I told the front desk night agent that I would be checking out at 2 PM as I was arriving at 3.  She added it into the account.  The next day someone called the room at 11 waking me up asking when I would be checking out.  I explained the same thing to them.  A few minutes later I wake up to find housekeeping in my room.  SHE WALKED IN ON ME AND MY BOYFRIEND!!!  No phone call, no knock, nothing was done to protect OUR privacy.    We got up and took a shower and ready to leave.  I didn't even want to sleep in late anymore because of this horrible place.  I went to the front desk to try and get my room comp'd and even talked to the General Manager("Nitin Tiwari" for those who would like to know his name, he probably wont even respond to this review) and explained to him what had just happened.  Any sensible person would either offer you another free stay or comp your room.  This man wasn't having any of it.  I asked to get the owners e-mail and he told me he was the owner.  I'm going to go out on a limb here, and say I didn't believe him.  His card would have had that title, if he were the owner.  He's the General Manager and he needs to get this hotel back in shape, it is being very poorly run.    !!!DO NOT STAY AT THIS HOTEL UNTIL IT IS UNDER NEW MANAGEMENT!!!More</t>
   </si>
   <si>
+    <t>sherry e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r160082225-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1831,6 +2059,9 @@
     <t>the worst experience ever,this lady yelled at us,hung up on us not once but twice while trying to make reservation,we were at the hospital,so we really didn't need the attitude ...she was rude and load,i can not believe she represents the comfort inn brand name acting like that, We went to the location and we needed a total of 6 rooms,she tried to tell us we could not sleep 4 adults in a doulble queen it had to be 2 adults and 2 kids. what should it matter as long as its only 4 per room?i will tell everyone I know to not stay at this hotel when in Dallas,Texas,or at Parkland hospital,her brand should be taking from her...More</t>
   </si>
   <si>
+    <t>SEtravelerguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r159906455-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1849,6 +2080,9 @@
     <t>We came up to Dallas for a weekend trip and wanted a hotel that was convenient to downtown and the major attractions but not terribly expensive.  This hotel met all those needs!  It is right off of the highway and not more than 5 mins from downtown and the attractions.  Nearby there are lots of restaurants so even if you don't want to venture and explore, there are lots close by.The hotel itself was really nice.  The lobby and front desk area are really open and clean.  The breakfast area is large and there was always plenty of seating in the mornings.  We appreciated that it was more than just danishes, etc.  There were eggs, sausage, waffles, yogurts, and so much more.  It was a good way to start the day!The rooms were large, clean, modern, and well-kept.  The bed was very comfortable and you could tell the rooms were recently refreshed - new flat screens TV, bedding, etc.  We plan on coming back to Dallas again and will definitely stay here again!More</t>
   </si>
   <si>
+    <t>Annie711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r156794096-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1870,6 +2104,9 @@
     <t>Stayed at this hotel one night and that was enough.  The hotel is not real clean, seems dated and there was a funny smell int the 3rd floor hallway.  On the positive side the beds were comfortable, the shower was nice, the heat/ac worked well.  The not so positive, no mirror outside the bathroom, the lighting was poor in the room, the carpeting was terrible/dirty throughout the hotel.  The content natal breakfast left a lot to be desired, little bit of scrambled eggs and a sausage patty or two.  Some bread and bagels, just not the usual continental breakfast.  Desk staff were nice but not very helpful with info on dining places etc. One night was enough we would not go back.More</t>
   </si>
   <si>
+    <t>1967Yankeesfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r155746998-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1897,6 +2134,9 @@
     <t>I stayed at this Comfort Inn and Suites in March 2013. I was in town on business for a Friday and Saturday night. The hotel was fine as far as accommodations go, but parking was an issue. The hotel rented out its meeting room to a local church group. They filled the parking lot so that paying guests had to struggle to find parking spots. For a part of the time I had to park up in an area that wasn't parking. The hotel clerk seemed uninterested in the issue, even though several guests complained. The breakfast buffet was supposed to open at a certain time on Saturday morning, but they were late. The lady in charge of it said she was cooking the food and taking care of the front desk, so it seemed they were understaffed. We waited about 20 minutes past opening of the eating area for the eggs to come out. This may not be a big deal to most people, but for me, I travel on a timeline when I am traveling for business, so having breakfast at a certain time is important to me. It was delayed on Sunday morning as well.More</t>
   </si>
   <si>
+    <t>Rob P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r155168791-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1915,6 +2155,9 @@
     <t>I used this hotel as it was right next to an event I was attending in Dallas. I stayed for 7 nights. The hotel is good for what it is and I would deffinately stay here again if attending the event again. It's convenient for the airport, but not really a tourist destination. Not well situated to see the sites. But if you want a good place to stay that is value the. This place is clean and comfy. Good sized rooms and don't let the proximity to the road out you off. The noise is minimal. I would suggest having your own car with you as the hotel is not well located for places to eat. Public transport is not great and the staff, although polite do not seem to have much local knowledge. I have booked to stay again, but only as it is close to where I need to be. And after seeing the inside of rooms in some other local hotels I think this ones is best for size and location. More</t>
   </si>
   <si>
+    <t>Nuggets54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r153459295-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1942,6 +2185,9 @@
     <t>It was a very great experience at this location, we wanted to stay in crown plaza next door but it was too pricy for a small room with no breakfast and to pay for Internet. We were placed in the third floor and the rooms are huge with slanting roof , it was very different from any other hotel we've stayed in .Although the hallway smelled like smoke, it didn't bother me . They had couple of smoking room  on the third floor . Maid service was sparkle clean.They even had  HAM. in the breakfast. Well defiantly stay here next time in Dallas,More</t>
   </si>
   <si>
+    <t>vasu r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r152149093-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1960,6 +2206,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>thisisspain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r151546441-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1984,6 +2233,9 @@
     <t>My preferred hotel was full and as their shuttle bus driver offered me a lift. I arrived at the door of this hotel very late at night with no idea where I was or in fact when I would be leaving! I checked in for one night (at rack rate) and was offered a nice room on the back of the hotel away from the road. Good - nice room, perfectly clean. I then looked on line to see I could have saved 12 USD. No sweat. Totally acceptable. Spoke to my head office about my meetings and we decided that I should stay one extra day in town. Then a good night's sleep! The head of sales introduced herself at the breakfast table, I mentioned I was shuffling airports, meetings, taxis, limos and she quickly and efficiently booked me an early morning call, cab at a guaranteed price and organised an extra night at best rate. She said she had confirmed with front desk that the call was to be confirmed and that there would be a coffee/cake available even at 4am! With service like that, no way was I going to trek across town to "another" hotel nearer yet another red-eye flight! Superb support. #respect. When you stay in hotels as often as I do per year (2012 - 200+ nights!) these little touches make the difference between memorable and average.More</t>
   </si>
   <si>
+    <t>ChrisK6884</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r151251146-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2002,6 +2254,9 @@
     <t>What a disappointment.  Comfort Inns are typically reasonably priced, comfortable, clean hotels.  When I checked in, the front desk clerk enthusiastically invited me to their "Social Hour."  Chips and Salsa.  Oh, and wine from a box.  My room was clean at first glance, but there was dried urine on the toilet seat, and stains of an unknown nature on the couch.  Had I been brave enough to sit on the couch, I fear I would have been sitting on the floor, because the cushions were sinking well below the front edge of couch.  The TV was mounted on the wall in front of the bed, but could not be easily seen from the couch.  The legs on ironing board would no go all the way up on one side, so I was ironing on slope.  The TSA had confiscated my deodorant, so I called the front desk to ask for a replacement (as was indicated by the sign in the room).  They didn't have any, and when I asked where I could find the nearest store, I was told there were no stores close by.  (Google maps found me a Kroger less than a mile from the hotel).  The hotel is right off the interstate and is close to Love Field, so you have noise from both.  Stay away from this Comfort Inn.More</t>
   </si>
   <si>
+    <t>WindTraveler101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r148448477-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2023,6 +2278,9 @@
     <t>The room I had was near the freeway, and if I was going to be there for more than a few nights I would have asked to move because the noise was a little much.  If you stay there make, and you need quiet, make sure to ask for a room on the quiet side of the hotel.  The bed was comfortable, and the towels and water pressure were decent, but the elevator was extremely slow.  Maybe they have it fixed by now, but it was faster to walk to the other end of the hotel and walk up the stairs than wait for the elevator.  There wasn't a do not disturb sign on the door, and they didn't have one behind the desk when I went down to ask, so if you want one make sure to ask before you go up to your room.  The breakfast was a little bit better than other Comfort Inn having eggs, sausage, cereal, waffles, and the usual pastries.More</t>
   </si>
   <si>
+    <t>Don F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r147807192-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2297,9 @@
   </si>
   <si>
     <t>December 2012</t>
+  </si>
+  <si>
+    <t>KAN87WIC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r137900638-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -2068,6 +2329,9 @@
 That night we asked...To be honest, I was a little hesitant to book a room at this hotel because of all the mixed reviews on TripAdvisor.  I decided to go with my gut instinct and book the room because the price was too good to be true. I also felt some people are real critical about the amenities; I am not. We drove up to the hotel and it is not fancy looking but more plain and somewhat outdated paint color. I feel it was misleading because the inside was pretty. We arrived an hour before check in and the receptionist was extremely nice and without hesitation, immediately looked up our reservation information. She happily said our rooms were ready.  She gave me no trouble for arriving early. The inside of the lobby was clean and very pretty.  Our room was clean and had every amenity that I wanted (microwave &amp; mini-fridge). Our view from our window looked out into the next building  which had a beautiful waterfall fountain and metal horse statue....Gorgeous.  We were on the 2nd floor. We had plenty of towels and all the items in the room worked.  The TV was a large flat screen. The bed was a King size bed and quite comfy.  The shower was great. I did notice that the ice machine was gone from the 2nd floor so you have to go to the first floor to get your ice.  That night we asked the receptionist to have the cleaning lady drop off a few more towels for tomorrow. We got up the next day and ate a marvelous breakfast!! In the lobby they had breakfast from 6am -10:30am. I love the assortment.....bagels,toast,muffins,scrambled and boiled eggs,cereal,sausage, waffles (shaped like state of Texas), oatmeal, juice,milk and coffee. They kept the food warm and filled to the rim.  It was fresh and wonderful!After a day of site seeing, we came back to the hotel and the cleaning lady dropped our towels off but......she cleaned our room too!  I was amazed and thankful because we didn't request that of her. We figured we only need some more towels because we are there on a short stay. No need to have the cleaning ladies work overtime.   The cleaning ladies did a marvelous job... We left her a tip :)The area around the hotel was fine but the neighborhood a few blocks down was sketchy. Sometimes that can be anywhere. There was a JACK IN THE BOX down the street which I found AMAZING...... We were there for a leisure trip for a concert in Dallas and stayed a 2nd day to enjoy Dallas sites.I would definitely book at this hotel again... I am not sure why it had negative reviews...More</t>
   </si>
   <si>
+    <t>realst8ace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r135612054-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2089,6 +2353,9 @@
     <t>I was fooled by the recent positive reviews and wonder if they were truly written by travellers. The location is not really at The Market but rather closer to the industrial sector.  The hotel is definitely due for a rehab. Our room was reasonably clean or we wouldn't have stayed but on closer inspection there were cobwebs in the corner of the walls and the sheetrock by the window was bubbled and the carpet was not very clean (nor was any carpet in the hallways or dining area).  When we went down for the complimentary breakfast at 8:00am, the attendant was having a hard time replenishing the empty serving trays. The dining room was so small that people were running into each other and the chairs were way too close to each other. You might say that you get what you pay for, but the positive experience we had the day before at the chain's Sleep Inn was far superior. If you do decide to stay here be sure to get a room away from the freeway side (we had to ask to be moved when the freeway noise overwhelmed). There's free wi-fi but the connectin was very slow. The only positive comment I can make is that this was the only hotel that had any kind of recycling program - a bin for newspapers, magazines and paper.More</t>
   </si>
   <si>
+    <t>Trevman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r130479592-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2134,6 +2401,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>offseasonfun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r128393275-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2152,6 +2422,9 @@
     <t>As a woman traveling alone... I felt safe over night even on the 1st floor with a large window facing the parking lot.  I'm not super picky but I need a place to be clean and safe.I booked this room for my first trip for a new job.  I checked in around 6 pm.  They told me they were having a 'social hour'.  It was free wine and beer and some chips and salsa.  Nothing great but very nice that they provide this.  The hotel is in a great location but I was too tired to go out.  The room was very clean, the king size bed was very comfy.  In the morning the shower was awesome.  No sudden change in the water temp.  The breakfast was complimentary.  The scrambled eggs were cooked just right.  They offered sausage patties, cereal, and pour your own waffles in the shape of the state of Texas.   For work I would stay here again.More</t>
   </si>
   <si>
+    <t>Kkmc371</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r128149929-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2167,6 +2440,9 @@
     <t>Very very clean,  professional staff,love that hot breakfast and that complimentary managers reception in the evenings. Definitely I will send out the Good Word to my friend &amp; families about this hotel.</t>
   </si>
   <si>
+    <t>Nette69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r128029395-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2182,6 +2458,9 @@
     <t>The outside can be a bit deceiving but the rooms are very clean and comfortable. They have a continental breakfast that includes every food group including eggs and sausage, waffles, cereal, fruit bagels, pastries etc(you get the idea) They also feature an evening managers reception that includes refreshments. The staff is friendly and helpful. Rooms have every amenity included you could need from hair dryer to iron to microwave and fridge. Nice and quiet as well as being close to fast food and restaurants.</t>
   </si>
   <si>
+    <t>YourNextGuest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r125139162-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2200,6 +2479,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>GeoffG255093</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r116683555-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2218,6 +2500,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>SexyChula</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r108983576-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2239,6 +2524,9 @@
     <t>We stay here on May 10, 2011 and I have to say I wouldn’t want to stay again. When we got to our room it was a smoking room and I called the front desk and asked if we could be moved, they said they didn’t have any available rooms. So we decided to stay anyway (trying not to notice the smell). They have out dated TVs and carpet and for the $71 per night……hell we should have had at least a flat screen. The bed was ok there were tons of pillows. There is not a café or anything in the lobby and it sets on a service road not close in walking distance to much (we had a car). The lobby has a funny smell and the front desk ppl are ok not extra friendly or anything over all I don’t think it was worth my money and will not stay there again unless someone else is paying for it!More</t>
   </si>
   <si>
+    <t>jtdriver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r100774208-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2260,6 +2548,9 @@
     <t>I stayed for 5 nights while in Dallas for a conference.  I decided to skip the conference hotel in downtown to save some money to pay for a rental car and more.  First impressions weren't great, as the hotel seemed to attract some undesirables in the parking lot.  Checkin was good, though, and my room was clean and comfortable.  The whole place is well worn but other than a leaky shower head, everything was in working condition at least.  There were a few problems.  My room overlooked Interstate 35E and there was plenty of road noise.  That usually wasn't a problem but once in a while a large truck would go by in the night and wake me up.  Most of the problematic noise came from within the hotel.  There were either a lot of noisy guests or the hotel's walls allow way too much noise to go from room to room.  The plumbing was also especially loud.  I definitely knew when my neighbors were using water.  The wireless Internet was not very good.  Very slow at times, but at least it didn't drop me.  My final complaint is minor, about the breakfast.  It was OK for one or two nights, but there's no variety on the hot items day to day.  But I assume most people don't stay long enough to care about that.More</t>
   </si>
   <si>
+    <t>curtismapman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r98661839-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2275,6 +2566,9 @@
     <t>Stayed three nights for a business conference. I don't like Dallas! Next to Vegas and Houston, it's my least favorite large city in the country. These folks help make the stay more tolerable, especially at my incredible Quikbook rate. Good quality bed, bedding and linens and relatively quiet, especially considering it's right next to a freeway.  The morning breakfast is pretty good and really needed since there are no restaurants in the immediate area. Fairly close to Love Field and downtown. A good, centrally located place to base if you have business in the Metroplex. Fairly good wifi but it does get bogged down at peak periods.</t>
   </si>
   <si>
+    <t>ericsf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r97029334-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2293,6 +2587,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>DeuxCarr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r93590026-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2314,6 +2611,9 @@
     <t>We only stayed in Dallas as our flight to NYC had been cancelled due to the snow so the airport put us up in this hotel.  There's a free shuttle from/to the airport (though the not so helfpul American Airlines staff neglected to tell us you have to ring the hotel to book this...).  When we checked in the receptionist was extremely helpful. She explained that the PC in the lobby was free to use and gave us all the necessary numbers to call for rebooking our flight.  The room was massive, clean and quiet.  We didn't use the in house entertainment but am sure it was all there. The shuttle service is great.   They will take you anywhere you like - for free - within a 2 mile (I think) radius.  The driver was really friendly and informative which was appreciated as we had never been to Dallas before.Breakfast was complimentary and fine for our needs.   There's coffee always on the go in the foyer if you need it.Very happy with our short stay.More</t>
   </si>
   <si>
+    <t>travelnlight</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r87617909-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2335,6 +2635,9 @@
     <t>We only stayed two nights and didn't have much time after long days at a convention to enjoy the amenities of the hotel. However, everything the hotel claimed online, it produced. The front desk person was cordial and competent. Our room was larger than some I've stayed in and beautifully decorated. Nice frig, microwave, coffee maker, flat screen TV. The beds were comfortable, although I would caution anyone allergic to feathers to bring their own pillow. The best part was the complimentary breakfast both mornings. Although the eating area is small, the food choice was more than adequate - both hot selections of sausage and eggs, etc. to yogert, cerial, muffins, bagels, etc. The hotel was about 10 minutes from the Convention Center, which is why we chose it plus getting a good price off venere.com.  The hotels downtown are more expensive in general but I thought  this was a good value.More</t>
   </si>
   <si>
+    <t>farazminiac309</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r84478624-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2353,6 +2656,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>carranza1974</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r84473671-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2368,6 +2674,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>gabeshuman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r68695856-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2386,6 +2695,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>JustinodelValle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r63793852-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2404,6 +2716,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>worldtravellers123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r60869063-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2423,6 +2738,9 @@
   </si>
   <si>
     <t>I stayed here for my first night in Dallas Texas. It is ok location not much in the area within walking distance. Just a Jack in the Box. Make sure you have a car to get around in Dallas. There is a good parking here. It is a safe place to stay and no worries from anyone. The check in process was very good. Very fast and efficent. Room was good and clean. Has all the basics you need for a good stay. Good location of Vending machines and lots of access to internet in the business center.In the morning as nice complimentary breakfast was offered. Lots of coffee, juice, toast, and fruits were offered. Many people were eating it as many were here for the OU game that wa going on. I recommend this place for everyone to stay when your in town. Have fun and enjoy your time.More</t>
+  </si>
+  <si>
+    <t>Traveler52078</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r46023345-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -2447,6 +2765,9 @@
 I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot....***Warning***First off, I want to say that this is not the first time I have stayed in a Comfort Inn. I have stayed at Comfort Inns and/or their sister hotels in several other locations. I hope this helps others.I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot. So we parked, and checked in. It was late and we were tired. When we got to the rooms, it smelled like damp towels...both rooms did. We had to air out the rooms and spray something just to make it tolerable. That night after returning from a wedding, we went to our room to find out that housekeeping never cleaned our room as we asked prior to us leaving for the wedding. So that aside, approx 2 hours later when my brothers came home, they felt uneasy about the loiters so they parked their car in front of the camera and went to their room, to discover the roof (they are on the 2nd fl meaning the 3rd fl was leaking a yet noone knew about it) was leaking and had leaked onto their bed. The room smelled even worse than it did, it got on their bags, it was leaking on their bed, sofa, etc....we told the front desk clerk that was on duty and they said they would not charge us for that nite. But they had no more rooms so the boys had to sleep on the floor in my room. (Ridiculous!) but we had to do what we could for the time being. The next morning me and my children and younger sister went to have breakfast. Then I went to the front desk clerk to tell them that I was getting ready to check out and about not charging me for the room. The guy tells me...More</t>
   </si>
   <si>
+    <t>c0untrygal1987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r21039172-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2468,6 +2789,9 @@
     <t>While the room itself was ok (with the exception of the splatters of...something...on the wall next to the bed), it was exceptionally noisy, both with freeway traffic right outside the window (and I live in NYC, so I'm used to traffic...but this was excessive) and the walls/floors were paper thin. The person staying above me paced like crazy ALL night (from 10pm until 4:30am when I left) and it sounded like he/she was IN my room stomping. I didn't sleep at all because of it. I would start to drift off and "THUMP THUMP THUMP THUMP THUMP."  This was strange, too, because I didn't see another person in the hotel (with the exception of the man at the front desk) the entire time I was there. It's also in what seems to be a fairly sketchy part of town, with strip clubs next door. I feared for the state of my rental car in the parking lot, but luckily, no harm came to it (or me). Overall, it was not at all a pleasant experience, and I would not go back or recommend it to others.More</t>
   </si>
   <si>
+    <t>jeepdogdad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r19486378-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2486,6 +2810,9 @@
     <t>November 2007</t>
   </si>
   <si>
+    <t>adehughes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r15011932-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2504,6 +2831,9 @@
     <t>April 2008</t>
   </si>
   <si>
+    <t>bwardtulsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r14682214-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2525,6 +2855,9 @@
     <t>The price was right - $79, but it cost us alot more in the long run.And the property is adjacent to the highway - NOISY!!!Our truck was broken into - even though we parked under lights and in front of the rooms.  Security cameras in the parking lot are ill positioned and only covered a small portion of the lot.The staff was indifferent - Habib was on duty and really didn't care.The Dallas PD took four hours to provide a "telephone" report. It would have taken 4 days to get the crime scene team out to take evidence.We could have stayed at a five star hotel for what this experience cost us........More</t>
   </si>
   <si>
+    <t>GoSooners</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r10054686-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2546,6 +2879,9 @@
     <t>We have just returned from the OU/Texas game.  The hotel was a little difficult to find.  I called the hotel to ask for directions and was greeted by a real person that had problems speaking English.  When we finally found the hotel, the desk clerks all had difficulty understanding English.  I asked for a rollaway bed and with the language barrier that was quite a struggle.  The room was clean and we used the free internet on the 3rd floor without any problems.  Our room faced the interstate, but we just turned up the air conditioning didn't have any problems.  Overall, this was just an average room.  For $140 per night we expected a little more.More</t>
   </si>
   <si>
+    <t>TX_Champ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r8267072-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2567,6 +2903,9 @@
     <t>We booked via Expedia for a quick overnight stay in Dallas.  The prior reviews on TripAdvisor, and lack of availability of some other favorite hotels, directed us here.  My wife checked in before I arrived on a separate late night flight.  The hotel itself is very average and has a helpful staff.  However, when we pulled back the covers of the king bed (room 311), we found a few bugs crawling on the sheet.  A more extensive check of the mattress pad and bottom sheet reminded me why I would not recommend doing this at most hotels -- we found bedbug droppings and more unpleasantness.The staff tried to move us to one of the few available rooms and we found a lesser problem, but still similar.  So, at 1pm, we went looking for a hotel room.We worked with Expedia for a credit and this is still unresolved.  Expedia requires that the hotel agree to the refund.  Some service!So, to everyone else who stayed at the Comfort Inn Dallas Market Square around July 26th, 2007, if you're wondering about those red bite marks on your body, we know the answer.  And to the owners of this hotel, get ready for your City of Dallas public health inspection because we filed a complaint.More</t>
   </si>
   <si>
+    <t>MSTaurus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r7702398-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2588,6 +2927,9 @@
     <t>I stayed 3 nights last week for a trade show at Dallas Convention Center.  The room is clean and comfortable.  They also have a small fitness center.  The continental breakfast is nice.  You can choose from bread, toasts, muffin to waffle.  My room faced the freeway, but I didn't hear the traffic noises in the room, nor the noises of people walking on the hallway.  The only drawback is the location.  Car rental is definitely needed.-- No shuttle bus to Dallas convention center.  You'll need to wait for about 15 minutes for calling a taxi to the Dallas Convention Center, fare $17.-- The only place to eat something within walking distance is "Jack in the Box."  However, if you get a car, you can drive about 10 minutes to Restaurant Raw where lots of choices are available.  BTW, although I could use wireless internet well in my room on the second floor facing the freeway, my colleague staying at the third floor on the opposite side of the building couldn't use the internet in room.  He had to work in the breakfast dining room every early morning to use the internet.More</t>
   </si>
   <si>
+    <t>JRNJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r6184272-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2606,6 +2948,9 @@
     <t>If you are looking for a clean affordable place to stay that isconveniently located near all and ultra staff friendly, look no further, you've just found it! The Comfort Inn on N. Stemmons Freeway in Dallas offers a wide variety of amenities with no hidden cost."Each room comes complete with it's own work desk and chair,a microwave, coffee pot, refrigerator, lighted make up mirror,blow dryer, satellite/cable tv, and not one, not two, but threeconveniently located phones. There's even one in the bathroom!The room service was really good and the simply comfort of knowing that a hotel attendant was stationed at the front desk at all times was definitely an added plus for someone like me, who thoroughly enjoys the comfort of knowing your safe to sleep in a foreign place with the luxury of having such peace of mind. As a tourist, we truly enjoyed our stay at the Comfort Inn and we're sure that you will too. J.R. from New JerseyMore</t>
   </si>
   <si>
+    <t>lotus5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r6122659-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2624,6 +2969,9 @@
     <t>October 2006</t>
   </si>
   <si>
+    <t>propete</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r6111975-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2654,6 +3002,9 @@
     <t>the door to our room was very hard to open it kept getting jammed, the housekeeping went home before 7pm so i couldn't get any extra pillows, when we need more towels after swimming i called down to the front desk and they told ME to go down and get it, the "continential breakfast" was toast and cereal! this place was not worth $80</t>
   </si>
   <si>
+    <t>SneakinDeacon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r4735791-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2672,6 +3023,9 @@
     <t>I stayed at this hotel for three nights (March 17, 18, 19, 2006) while I was in Dallas for the NCAA Basketball Tournament. I selected this hotel because it was close to the American Airlines Center where the games were being played.  The rooms were clean and well maintained. I found that the comments from a previous posted about no places to eat close by to be correct. The breakfast area very nice and well stocked, including the usual juice, coffee, pastries, cereal, and waffles. The only negatives, (excluding the weather which caused major flooding problems in the Dallas Area) is the conference room sits right off the lobby/registration area, and both Friday and Saturday nights there were rather large and loud parties being held there which was a little distracting when trying to check in. There is very limited parking for this hotel especially when there are events going on in the conference room. Finally they advertise wireless Internet, which is almost non-existent in many of the rooms. I couldn't connect in my room on the second floor and but was able to connect in the breakfast area.  I would stay here again but would probably look around before returningMore</t>
   </si>
   <si>
+    <t>ShantiGlover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r4370454-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2688,6 +3042,9 @@
   </si>
   <si>
     <t>January 2006</t>
+  </si>
+  <si>
+    <t>alafans</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r4321718-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -3210,43 +3567,47 @@
       <c r="A2" t="n">
         <v>37754</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>6526</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -3266,50 +3627,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37754</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>124520</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3327,50 +3692,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37754</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>23415</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3384,50 +3753,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37754</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>21464</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -3447,41 +3820,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37754</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124521</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -3498,56 +3875,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37754</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3559,56 +3940,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37754</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>35624</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3626,56 +4011,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37754</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>124522</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3693,47 +4082,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37754</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124523</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -3750,56 +4143,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37754</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>72824</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3817,56 +4214,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37754</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>10217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3878,56 +4279,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37754</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>3636</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3939,56 +4344,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37754</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>124524</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4000,56 +4409,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37754</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>124525</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -4067,56 +4480,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37754</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>34077</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -4134,50 +4551,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37754</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>15230</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4195,50 +4616,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37754</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>84147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4250,56 +4675,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37754</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>13197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4313,35 +4742,39 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37754</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>124526</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -4349,10 +4782,10 @@
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4373,51 +4806,52 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37754</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124527</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21" t="s">
         <v>192</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>193</v>
-      </c>
-      <c r="O21" t="s">
-        <v>175</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4431,50 +4865,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37754</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>124528</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O22" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4488,50 +4926,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37754</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124529</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="O23" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4545,50 +4987,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37754</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124530</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4600,56 +5046,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="X24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37754</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4667,56 +5117,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="X25" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37754</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>72194</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4732,56 +5186,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="X26" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37754</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>4279</v>
+      </c>
+      <c r="C27" t="s">
+        <v>251</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4793,56 +5251,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="X27" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Y27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37754</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>124531</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4860,56 +5322,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="X28" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Y28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37754</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124532</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4927,56 +5393,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37754</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>124533</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4994,56 +5464,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37754</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124534</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -5059,56 +5533,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="X31" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37754</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>124535</v>
+      </c>
+      <c r="C32" t="s">
+        <v>294</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -5126,56 +5604,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37754</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>124536</v>
+      </c>
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5187,56 +5669,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="X33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37754</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C34" t="s">
+        <v>309</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5252,56 +5738,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="X34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37754</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124537</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5317,56 +5807,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="X35" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37754</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>124538</v>
+      </c>
+      <c r="C36" t="s">
+        <v>326</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="J36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5384,56 +5878,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="X36" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37754</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>124539</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5451,56 +5949,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="X37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Y37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37754</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124540</v>
+      </c>
+      <c r="C38" t="s">
+        <v>344</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5518,47 +6020,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="X38" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37754</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>124541</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -5575,56 +6081,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="X39" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37754</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>124542</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5640,56 +6150,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="X40" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37754</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C41" t="s">
+        <v>366</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5701,56 +6215,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="X41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37754</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124543</v>
+      </c>
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O42" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5762,56 +6280,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="X42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37754</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>124544</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5829,56 +6351,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="X43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="Y43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37754</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124545</v>
+      </c>
+      <c r="C44" t="s">
+        <v>392</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="J44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="K44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="O44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5890,56 +6416,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="X44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="Y44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37754</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>124546</v>
+      </c>
+      <c r="C45" t="s">
+        <v>401</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="J45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="K45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="L45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="O45" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5951,47 +6481,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="X45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="Y45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37754</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>124547</v>
+      </c>
+      <c r="C46" t="s">
+        <v>411</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="J46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="K46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="L46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -6018,56 +6552,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="X46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="Y46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37754</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>43968</v>
+      </c>
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="J47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="K47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -6089,47 +6627,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="X47" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="Y47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37754</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124548</v>
+      </c>
+      <c r="C48" t="s">
+        <v>428</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="J48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="K48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -6156,47 +6698,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="X48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="Y48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37754</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>124549</v>
+      </c>
+      <c r="C49" t="s">
+        <v>437</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
@@ -6223,47 +6769,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="X49" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="Y49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37754</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>124550</v>
+      </c>
+      <c r="C50" t="s">
+        <v>444</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="J50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="K50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -6290,47 +6840,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="X50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="Y50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37754</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>12433</v>
+      </c>
+      <c r="C51" t="s">
+        <v>453</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="J51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="K51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="L51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
@@ -6357,47 +6911,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="X51" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="Y51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37754</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>124551</v>
+      </c>
+      <c r="C52" t="s">
+        <v>460</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="J52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="K52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="L52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -6424,56 +6982,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="X52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37754</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>124552</v>
+      </c>
+      <c r="C53" t="s">
+        <v>469</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="J53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="K53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="L53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6491,56 +7053,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="X53" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="Y53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37754</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>124553</v>
+      </c>
+      <c r="C54" t="s">
+        <v>477</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="K54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="L54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="O54" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6558,56 +7124,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="X54" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="Y54" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37754</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>124554</v>
+      </c>
+      <c r="C55" t="s">
+        <v>487</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="J55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="K55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="L55" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="O55" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6625,56 +7195,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="X55" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="Y55" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37754</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>124555</v>
+      </c>
+      <c r="C56" t="s">
+        <v>495</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="J56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="K56" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="L56" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="O56" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -6696,56 +7270,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="X56" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="Y56" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37754</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124556</v>
+      </c>
+      <c r="C57" t="s">
+        <v>505</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="J57" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="K57" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="L57" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="O57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6767,56 +7345,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="X57" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="Y57" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37754</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C58" t="s">
+        <v>514</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="J58" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="K58" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="L58" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6838,56 +7420,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="X58" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="Y58" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37754</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>124557</v>
+      </c>
+      <c r="C59" t="s">
+        <v>523</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="J59" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="K59" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="L59" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6909,56 +7495,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="X59" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="Y59" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37754</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>124558</v>
+      </c>
+      <c r="C60" t="s">
+        <v>531</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="J60" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="K60" t="s">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="L60" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6980,56 +7570,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="X60" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="Y60" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37754</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124559</v>
+      </c>
+      <c r="C61" t="s">
+        <v>541</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="J61" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="K61" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="L61" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -7041,56 +7635,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="X61" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="Y61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37754</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>124560</v>
+      </c>
+      <c r="C62" t="s">
+        <v>549</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="J62" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="K62" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="L62" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="O62" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -7112,56 +7710,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="X62" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="Y62" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37754</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>124561</v>
+      </c>
+      <c r="C63" t="s">
+        <v>558</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="J63" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="K63" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="L63" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="O63" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7183,56 +7785,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="X63" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="Y63" t="s">
-        <v>502</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37754</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124562</v>
+      </c>
+      <c r="C64" t="s">
+        <v>565</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="J64" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="K64" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="L64" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7254,56 +7860,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="X64" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="Y64" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37754</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124563</v>
+      </c>
+      <c r="C65" t="s">
+        <v>573</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="J65" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="K65" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="L65" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="O65" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7325,56 +7935,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="X65" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="Y65" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37754</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>124564</v>
+      </c>
+      <c r="C66" t="s">
+        <v>580</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="J66" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="K66" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="L66" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7396,56 +8010,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="X66" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="Y66" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37754</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>29363</v>
+      </c>
+      <c r="C67" t="s">
+        <v>587</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="J67" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="K67" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="L67" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="O67" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -7469,50 +8087,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37754</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>31101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>595</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="J68" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="K68" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
       <c r="L68" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -7534,47 +8156,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="X68" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="Y68" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37754</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>124565</v>
+      </c>
+      <c r="C69" t="s">
+        <v>604</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="J69" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="K69" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="L69" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
@@ -7601,47 +8227,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="X69" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="Y69" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37754</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>124566</v>
+      </c>
+      <c r="C70" t="s">
+        <v>611</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="J70" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="K70" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="L70" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7668,47 +8298,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="X70" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="Y70" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37754</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>124567</v>
+      </c>
+      <c r="C71" t="s">
+        <v>618</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="J71" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="K71" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="L71" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -7735,56 +8369,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="X71" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="Y71" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37754</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>124568</v>
+      </c>
+      <c r="C72" t="s">
+        <v>625</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="J72" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="K72" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="L72" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="O72" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7806,56 +8444,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="X72" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="Y72" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37754</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>124569</v>
+      </c>
+      <c r="C73" t="s">
+        <v>635</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="J73" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="K73" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="L73" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="O73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7877,56 +8519,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="X73" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="Y73" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37754</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>1137</v>
+      </c>
+      <c r="C74" t="s">
+        <v>644</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
       <c r="J74" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="K74" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="L74" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7948,56 +8594,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="X74" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="Y74" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37754</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>77893</v>
+      </c>
+      <c r="C75" t="s">
+        <v>654</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="J75" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="K75" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="L75" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -8019,56 +8669,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="X75" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="Y75" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37754</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>108873</v>
+      </c>
+      <c r="C76" t="s">
+        <v>662</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="J76" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="K76" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
       <c r="L76" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="O76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -8092,50 +8746,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37754</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>124570</v>
+      </c>
+      <c r="C77" t="s">
+        <v>670</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="J77" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="K77" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="L77" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="O77" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -8151,56 +8809,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="X77" t="s">
-        <v>601</v>
+        <v>677</v>
       </c>
       <c r="Y77" t="s">
-        <v>602</v>
+        <v>678</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37754</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C78" t="s">
+        <v>679</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="J78" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
       <c r="K78" t="s">
-        <v>606</v>
+        <v>683</v>
       </c>
       <c r="L78" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="O78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8222,56 +8884,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="X78" t="s">
-        <v>601</v>
+        <v>677</v>
       </c>
       <c r="Y78" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37754</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>124571</v>
+      </c>
+      <c r="C79" t="s">
+        <v>686</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="J79" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="K79" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="L79" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="O79" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -8295,50 +8961,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37754</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>124572</v>
+      </c>
+      <c r="C80" t="s">
+        <v>694</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>616</v>
+        <v>695</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="J80" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
       <c r="K80" t="s">
-        <v>619</v>
+        <v>698</v>
       </c>
       <c r="L80" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8360,47 +9030,51 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>622</v>
+        <v>701</v>
       </c>
       <c r="X80" t="s">
-        <v>623</v>
+        <v>702</v>
       </c>
       <c r="Y80" t="s">
-        <v>624</v>
+        <v>703</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37754</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>11097</v>
+      </c>
+      <c r="C81" t="s">
+        <v>704</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
       <c r="J81" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
       <c r="K81" t="s">
-        <v>628</v>
+        <v>708</v>
       </c>
       <c r="L81" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
@@ -8429,50 +9103,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>630</v>
+        <v>710</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37754</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>124573</v>
+      </c>
+      <c r="C82" t="s">
+        <v>711</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="J82" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="K82" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="L82" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8494,56 +9172,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="X82" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="Y82" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37754</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>124574</v>
+      </c>
+      <c r="C83" t="s">
+        <v>721</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="J83" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="K83" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="L83" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="O83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8565,50 +9247,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37754</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>124575</v>
+      </c>
+      <c r="C84" t="s">
+        <v>728</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="J84" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
       <c r="K84" t="s">
-        <v>649</v>
+        <v>732</v>
       </c>
       <c r="L84" t="s">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="O84" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8630,56 +9316,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>651</v>
+        <v>734</v>
       </c>
       <c r="X84" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="Y84" t="s">
-        <v>653</v>
+        <v>736</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37754</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>124576</v>
+      </c>
+      <c r="C85" t="s">
+        <v>737</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="J85" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="K85" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="L85" t="s">
-        <v>658</v>
+        <v>742</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>2</v>
@@ -8703,50 +9393,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>659</v>
+        <v>743</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37754</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>124577</v>
+      </c>
+      <c r="C86" t="s">
+        <v>744</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>660</v>
+        <v>745</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>661</v>
+        <v>746</v>
       </c>
       <c r="J86" t="s">
-        <v>662</v>
+        <v>747</v>
       </c>
       <c r="K86" t="s">
-        <v>663</v>
+        <v>748</v>
       </c>
       <c r="L86" t="s">
-        <v>664</v>
+        <v>749</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>665</v>
+        <v>750</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -8770,50 +9464,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>666</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37754</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>47158</v>
+      </c>
+      <c r="C87" t="s">
+        <v>752</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>667</v>
+        <v>753</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>668</v>
+        <v>754</v>
       </c>
       <c r="J87" t="s">
-        <v>669</v>
+        <v>755</v>
       </c>
       <c r="K87" t="s">
-        <v>670</v>
+        <v>756</v>
       </c>
       <c r="L87" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>672</v>
+        <v>758</v>
       </c>
       <c r="O87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8837,50 +9535,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37754</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>124578</v>
+      </c>
+      <c r="C88" t="s">
+        <v>759</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>673</v>
+        <v>760</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>674</v>
+        <v>761</v>
       </c>
       <c r="J88" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="K88" t="s">
-        <v>676</v>
+        <v>763</v>
       </c>
       <c r="L88" t="s">
-        <v>677</v>
+        <v>764</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="O88" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8904,50 +9606,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37754</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>124579</v>
+      </c>
+      <c r="C89" t="s">
+        <v>767</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>680</v>
+        <v>768</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>681</v>
+        <v>769</v>
       </c>
       <c r="J89" t="s">
-        <v>682</v>
+        <v>770</v>
       </c>
       <c r="K89" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="L89" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>685</v>
+        <v>773</v>
       </c>
       <c r="O89" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8971,50 +9677,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>686</v>
+        <v>774</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37754</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>124580</v>
+      </c>
+      <c r="C90" t="s">
+        <v>775</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>687</v>
+        <v>776</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>688</v>
+        <v>777</v>
       </c>
       <c r="J90" t="s">
-        <v>689</v>
+        <v>778</v>
       </c>
       <c r="K90" t="s">
-        <v>690</v>
+        <v>779</v>
       </c>
       <c r="L90" t="s">
-        <v>691</v>
+        <v>780</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>692</v>
+        <v>781</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -9036,13 +9746,13 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>693</v>
+        <v>782</v>
       </c>
       <c r="X90" t="s">
-        <v>694</v>
+        <v>783</v>
       </c>
       <c r="Y90" t="s">
-        <v>695</v>
+        <v>784</v>
       </c>
     </row>
     <row r="91">
@@ -9055,37 +9765,37 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>696</v>
+        <v>785</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>697</v>
+        <v>786</v>
       </c>
       <c r="J91" t="s">
-        <v>698</v>
+        <v>787</v>
       </c>
       <c r="K91" t="s">
-        <v>699</v>
+        <v>788</v>
       </c>
       <c r="L91" t="s">
-        <v>700</v>
+        <v>789</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="O91" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -9109,50 +9819,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>700</v>
+        <v>789</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37754</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>124581</v>
+      </c>
+      <c r="C92" t="s">
+        <v>791</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>702</v>
+        <v>792</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>703</v>
+        <v>793</v>
       </c>
       <c r="J92" t="s">
-        <v>704</v>
+        <v>794</v>
       </c>
       <c r="K92" t="s">
-        <v>705</v>
+        <v>795</v>
       </c>
       <c r="L92" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -9176,41 +9890,45 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37754</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>124582</v>
+      </c>
+      <c r="C93" t="s">
+        <v>798</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>708</v>
+        <v>799</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>709</v>
+        <v>800</v>
       </c>
       <c r="J93" t="s">
-        <v>710</v>
+        <v>801</v>
       </c>
       <c r="K93" t="s">
-        <v>711</v>
+        <v>802</v>
       </c>
       <c r="L93" t="s">
-        <v>712</v>
+        <v>803</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
@@ -9239,50 +9957,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>712</v>
+        <v>803</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37754</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>124583</v>
+      </c>
+      <c r="C94" t="s">
+        <v>804</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>713</v>
+        <v>805</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>714</v>
+        <v>806</v>
       </c>
       <c r="J94" t="s">
-        <v>715</v>
+        <v>807</v>
       </c>
       <c r="K94" t="s">
-        <v>716</v>
+        <v>808</v>
       </c>
       <c r="L94" t="s">
-        <v>717</v>
+        <v>809</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="O94" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9306,50 +10028,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>717</v>
+        <v>809</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37754</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>124584</v>
+      </c>
+      <c r="C95" t="s">
+        <v>810</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>718</v>
+        <v>811</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>719</v>
+        <v>812</v>
       </c>
       <c r="J95" t="s">
-        <v>720</v>
+        <v>813</v>
       </c>
       <c r="K95" t="s">
-        <v>721</v>
+        <v>814</v>
       </c>
       <c r="L95" t="s">
-        <v>722</v>
+        <v>815</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>723</v>
+        <v>816</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -9373,50 +10099,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>722</v>
+        <v>815</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37754</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>124585</v>
+      </c>
+      <c r="C96" t="s">
+        <v>817</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>724</v>
+        <v>818</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>725</v>
+        <v>819</v>
       </c>
       <c r="J96" t="s">
-        <v>726</v>
+        <v>820</v>
       </c>
       <c r="K96" t="s">
-        <v>727</v>
+        <v>821</v>
       </c>
       <c r="L96" t="s">
-        <v>728</v>
+        <v>822</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>729</v>
+        <v>823</v>
       </c>
       <c r="O96" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9436,50 +10166,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>728</v>
+        <v>822</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37754</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>124586</v>
+      </c>
+      <c r="C97" t="s">
+        <v>824</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>730</v>
+        <v>825</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>731</v>
+        <v>826</v>
       </c>
       <c r="J97" t="s">
-        <v>732</v>
+        <v>827</v>
       </c>
       <c r="K97" t="s">
-        <v>733</v>
+        <v>828</v>
       </c>
       <c r="L97" t="s">
-        <v>734</v>
+        <v>829</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>735</v>
+        <v>830</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -9503,50 +10237,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>736</v>
+        <v>831</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37754</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>124587</v>
+      </c>
+      <c r="C98" t="s">
+        <v>832</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>737</v>
+        <v>833</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>738</v>
+        <v>834</v>
       </c>
       <c r="J98" t="s">
-        <v>739</v>
+        <v>835</v>
       </c>
       <c r="K98" t="s">
-        <v>740</v>
+        <v>836</v>
       </c>
       <c r="L98" t="s">
-        <v>741</v>
+        <v>837</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>742</v>
+        <v>838</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9570,50 +10308,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>743</v>
+        <v>839</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37754</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>124588</v>
+      </c>
+      <c r="C99" t="s">
+        <v>840</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>745</v>
+        <v>842</v>
       </c>
       <c r="J99" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="K99" t="s">
-        <v>747</v>
+        <v>844</v>
       </c>
       <c r="L99" t="s">
-        <v>748</v>
+        <v>845</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>742</v>
+        <v>838</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9637,50 +10379,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>748</v>
+        <v>845</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>37754</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>124589</v>
+      </c>
+      <c r="C100" t="s">
+        <v>846</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>749</v>
+        <v>847</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>750</v>
+        <v>848</v>
       </c>
       <c r="J100" t="s">
-        <v>751</v>
+        <v>849</v>
       </c>
       <c r="K100" t="s">
-        <v>752</v>
+        <v>850</v>
       </c>
       <c r="L100" t="s">
-        <v>753</v>
+        <v>851</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>754</v>
+        <v>852</v>
       </c>
       <c r="O100" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9704,50 +10450,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>753</v>
+        <v>851</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37754</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>124590</v>
+      </c>
+      <c r="C101" t="s">
+        <v>853</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>755</v>
+        <v>854</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>756</v>
+        <v>855</v>
       </c>
       <c r="J101" t="s">
-        <v>757</v>
+        <v>856</v>
       </c>
       <c r="K101" t="s">
-        <v>758</v>
+        <v>857</v>
       </c>
       <c r="L101" t="s">
-        <v>759</v>
+        <v>858</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>760</v>
+        <v>859</v>
       </c>
       <c r="O101" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9771,50 +10521,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>761</v>
+        <v>860</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>37754</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>124591</v>
+      </c>
+      <c r="C102" t="s">
+        <v>861</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>762</v>
+        <v>862</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>763</v>
+        <v>863</v>
       </c>
       <c r="J102" t="s">
-        <v>764</v>
+        <v>864</v>
       </c>
       <c r="K102" t="s">
-        <v>765</v>
+        <v>865</v>
       </c>
       <c r="L102" t="s">
-        <v>766</v>
+        <v>866</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>767</v>
+        <v>867</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9838,50 +10592,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>768</v>
+        <v>868</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>37754</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>124592</v>
+      </c>
+      <c r="C103" t="s">
+        <v>869</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>769</v>
+        <v>870</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>770</v>
+        <v>871</v>
       </c>
       <c r="J103" t="s">
-        <v>771</v>
+        <v>872</v>
       </c>
       <c r="K103" t="s">
-        <v>772</v>
+        <v>873</v>
       </c>
       <c r="L103" t="s">
-        <v>773</v>
+        <v>874</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>774</v>
+        <v>875</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9905,50 +10663,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>773</v>
+        <v>874</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>37754</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>124593</v>
+      </c>
+      <c r="C104" t="s">
+        <v>876</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>775</v>
+        <v>877</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>776</v>
+        <v>878</v>
       </c>
       <c r="J104" t="s">
-        <v>771</v>
+        <v>872</v>
       </c>
       <c r="K104" t="s">
-        <v>777</v>
+        <v>879</v>
       </c>
       <c r="L104" t="s">
-        <v>778</v>
+        <v>880</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>779</v>
+        <v>881</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9972,50 +10734,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>778</v>
+        <v>880</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>37754</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>124594</v>
+      </c>
+      <c r="C105" t="s">
+        <v>882</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>780</v>
+        <v>883</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>781</v>
+        <v>884</v>
       </c>
       <c r="J105" t="s">
-        <v>782</v>
+        <v>885</v>
       </c>
       <c r="K105" t="s">
-        <v>783</v>
+        <v>886</v>
       </c>
       <c r="L105" t="s">
-        <v>784</v>
+        <v>887</v>
       </c>
       <c r="M105" t="n">
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>785</v>
+        <v>888</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="n">
         <v>2</v>
@@ -10039,50 +10805,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>784</v>
+        <v>887</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>37754</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>124595</v>
+      </c>
+      <c r="C106" t="s">
+        <v>889</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>786</v>
+        <v>890</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>787</v>
+        <v>891</v>
       </c>
       <c r="J106" t="s">
-        <v>788</v>
+        <v>892</v>
       </c>
       <c r="K106" t="s">
-        <v>789</v>
+        <v>893</v>
       </c>
       <c r="L106" t="s">
-        <v>790</v>
+        <v>894</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>791</v>
+        <v>895</v>
       </c>
       <c r="O106" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10106,50 +10876,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>790</v>
+        <v>894</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>37754</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>124596</v>
+      </c>
+      <c r="C107" t="s">
+        <v>896</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>792</v>
+        <v>897</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>793</v>
+        <v>898</v>
       </c>
       <c r="J107" t="s">
-        <v>794</v>
+        <v>899</v>
       </c>
       <c r="K107" t="s">
-        <v>795</v>
+        <v>900</v>
       </c>
       <c r="L107" t="s">
-        <v>796</v>
+        <v>901</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>797</v>
+        <v>902</v>
       </c>
       <c r="O107" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10173,50 +10947,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>798</v>
+        <v>903</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>37754</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>124597</v>
+      </c>
+      <c r="C108" t="s">
+        <v>904</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>799</v>
+        <v>905</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>800</v>
+        <v>906</v>
       </c>
       <c r="J108" t="s">
-        <v>801</v>
+        <v>907</v>
       </c>
       <c r="K108" t="s">
-        <v>802</v>
+        <v>908</v>
       </c>
       <c r="L108" t="s">
-        <v>803</v>
+        <v>909</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>797</v>
+        <v>902</v>
       </c>
       <c r="O108" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -10240,50 +11018,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>804</v>
+        <v>910</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>37754</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>124598</v>
+      </c>
+      <c r="C109" t="s">
+        <v>911</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>805</v>
+        <v>912</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>806</v>
+        <v>913</v>
       </c>
       <c r="J109" t="s">
-        <v>807</v>
+        <v>914</v>
       </c>
       <c r="K109" t="s">
-        <v>808</v>
+        <v>915</v>
       </c>
       <c r="L109" t="s">
-        <v>809</v>
+        <v>916</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>810</v>
+        <v>917</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>2</v>
@@ -10305,50 +11087,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>811</v>
+        <v>918</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>37754</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>124599</v>
+      </c>
+      <c r="C110" t="s">
+        <v>919</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>812</v>
+        <v>920</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>813</v>
+        <v>921</v>
       </c>
       <c r="J110" t="s">
-        <v>814</v>
+        <v>922</v>
       </c>
       <c r="K110" t="s">
-        <v>815</v>
+        <v>923</v>
       </c>
       <c r="L110" t="s">
-        <v>816</v>
+        <v>924</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>817</v>
+        <v>925</v>
       </c>
       <c r="O110" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10372,50 +11158,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>816</v>
+        <v>924</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>37754</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>124600</v>
+      </c>
+      <c r="C111" t="s">
+        <v>926</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>818</v>
+        <v>927</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>819</v>
+        <v>928</v>
       </c>
       <c r="J111" t="s">
-        <v>820</v>
+        <v>929</v>
       </c>
       <c r="K111" t="s">
-        <v>821</v>
+        <v>930</v>
       </c>
       <c r="L111" t="s">
-        <v>822</v>
+        <v>931</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>823</v>
+        <v>932</v>
       </c>
       <c r="O111" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10439,50 +11229,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>822</v>
+        <v>931</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>37754</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>124601</v>
+      </c>
+      <c r="C112" t="s">
+        <v>933</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>824</v>
+        <v>934</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>825</v>
+        <v>935</v>
       </c>
       <c r="J112" t="s">
-        <v>826</v>
+        <v>936</v>
       </c>
       <c r="K112" t="s">
-        <v>827</v>
+        <v>937</v>
       </c>
       <c r="L112" t="s">
-        <v>828</v>
+        <v>938</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>829</v>
+        <v>939</v>
       </c>
       <c r="O112" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -10506,50 +11300,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>830</v>
+        <v>940</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>37754</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>124602</v>
+      </c>
+      <c r="C113" t="s">
+        <v>941</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>831</v>
+        <v>942</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>832</v>
+        <v>943</v>
       </c>
       <c r="J113" t="s">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="K113" t="s">
-        <v>834</v>
+        <v>945</v>
       </c>
       <c r="L113" t="s">
-        <v>835</v>
+        <v>946</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>836</v>
+        <v>947</v>
       </c>
       <c r="O113" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -10573,50 +11371,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>837</v>
+        <v>948</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>37754</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>124603</v>
+      </c>
+      <c r="C114" t="s">
+        <v>949</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>838</v>
+        <v>950</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>839</v>
+        <v>951</v>
       </c>
       <c r="J114" t="s">
-        <v>840</v>
+        <v>952</v>
       </c>
       <c r="K114" t="s">
-        <v>841</v>
+        <v>953</v>
       </c>
       <c r="L114" t="s">
-        <v>842</v>
+        <v>954</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>843</v>
+        <v>955</v>
       </c>
       <c r="O114" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -10640,50 +11442,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>844</v>
+        <v>956</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>37754</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>124604</v>
+      </c>
+      <c r="C115" t="s">
+        <v>957</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>845</v>
+        <v>958</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>846</v>
+        <v>959</v>
       </c>
       <c r="J115" t="s">
-        <v>847</v>
+        <v>960</v>
       </c>
       <c r="K115" t="s">
-        <v>848</v>
+        <v>961</v>
       </c>
       <c r="L115" t="s">
-        <v>849</v>
+        <v>962</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>850</v>
+        <v>963</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>3</v>
@@ -10707,41 +11513,45 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>851</v>
+        <v>964</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>37754</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>124605</v>
+      </c>
+      <c r="C116" t="s">
+        <v>965</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>852</v>
+        <v>966</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>853</v>
+        <v>967</v>
       </c>
       <c r="J116" t="s">
-        <v>854</v>
+        <v>968</v>
       </c>
       <c r="K116" t="s">
-        <v>855</v>
+        <v>969</v>
       </c>
       <c r="L116" t="s">
-        <v>856</v>
+        <v>970</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
@@ -10760,50 +11570,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>857</v>
+        <v>971</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>37754</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>124606</v>
+      </c>
+      <c r="C117" t="s">
+        <v>972</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>858</v>
+        <v>973</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>859</v>
+        <v>974</v>
       </c>
       <c r="J117" t="s">
-        <v>860</v>
+        <v>975</v>
       </c>
       <c r="K117" t="s">
-        <v>861</v>
+        <v>976</v>
       </c>
       <c r="L117" t="s">
-        <v>862</v>
+        <v>977</v>
       </c>
       <c r="M117" t="n">
         <v>3</v>
       </c>
       <c r="N117" t="s">
-        <v>863</v>
+        <v>978</v>
       </c>
       <c r="O117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P117" t="n">
         <v>4</v>
@@ -10827,50 +11641,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>862</v>
+        <v>977</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>37754</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>124607</v>
+      </c>
+      <c r="C118" t="s">
+        <v>979</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>864</v>
+        <v>980</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>865</v>
+        <v>981</v>
       </c>
       <c r="J118" t="s">
-        <v>860</v>
+        <v>975</v>
       </c>
       <c r="K118" t="s">
-        <v>866</v>
+        <v>982</v>
       </c>
       <c r="L118" t="s">
-        <v>867</v>
+        <v>983</v>
       </c>
       <c r="M118" t="n">
         <v>4</v>
       </c>
       <c r="N118" t="s">
-        <v>863</v>
+        <v>978</v>
       </c>
       <c r="O118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -10894,41 +11712,45 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>868</v>
+        <v>984</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>37754</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>88</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>869</v>
+        <v>985</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>870</v>
+        <v>986</v>
       </c>
       <c r="J119" t="s">
-        <v>871</v>
+        <v>987</v>
       </c>
       <c r="K119" t="s">
-        <v>872</v>
+        <v>988</v>
       </c>
       <c r="L119" t="s">
-        <v>873</v>
+        <v>989</v>
       </c>
       <c r="M119" t="n">
         <v>2</v>
@@ -10955,41 +11777,45 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>873</v>
+        <v>989</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>37754</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>124608</v>
+      </c>
+      <c r="C120" t="s">
+        <v>990</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>874</v>
+        <v>991</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>875</v>
+        <v>992</v>
       </c>
       <c r="J120" t="s">
-        <v>876</v>
+        <v>993</v>
       </c>
       <c r="K120" t="s">
-        <v>877</v>
+        <v>994</v>
       </c>
       <c r="L120" t="s">
-        <v>878</v>
+        <v>995</v>
       </c>
       <c r="M120" t="n">
         <v>3</v>
@@ -11016,50 +11842,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>879</v>
+        <v>996</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>37754</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>124609</v>
+      </c>
+      <c r="C121" t="s">
+        <v>997</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>880</v>
+        <v>998</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>881</v>
+        <v>999</v>
       </c>
       <c r="J121" t="s">
-        <v>882</v>
+        <v>1000</v>
       </c>
       <c r="K121" t="s">
-        <v>883</v>
+        <v>1001</v>
       </c>
       <c r="L121" t="s">
-        <v>884</v>
+        <v>1002</v>
       </c>
       <c r="M121" t="n">
         <v>2</v>
       </c>
       <c r="N121" t="s">
-        <v>885</v>
+        <v>1003</v>
       </c>
       <c r="O121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P121" t="n">
         <v>4</v>
@@ -11081,41 +11911,45 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>884</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>37754</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>124610</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1004</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>886</v>
+        <v>1005</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>887</v>
+        <v>1006</v>
       </c>
       <c r="J122" t="s">
-        <v>888</v>
+        <v>1007</v>
       </c>
       <c r="K122" t="s">
-        <v>889</v>
+        <v>1008</v>
       </c>
       <c r="L122" t="s">
-        <v>890</v>
+        <v>1009</v>
       </c>
       <c r="M122" t="n">
         <v>5</v>
@@ -11134,7 +11968,7 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>891</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_75.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_75.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="892">
   <si>
     <t>STR#</t>
   </si>
@@ -150,10 +150,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Linda P</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r556690553-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -186,9 +183,6 @@
     <t>I was a single woman traveling alone. Thought this would be a great place to stay at. There was construction outside on the road, the hotel needed to be upgraded badly like ASAP. The web page I booked it said they had airport transportation. Well they did but only 9 - 5. I slept in my clothes because the room looked awful. I did complain and got the $25.00 I paid for a taxi. I had pre-paid for two nights but did not want to go back there, even with the explanation to them they still charged me for the 2nd night. This is hard to write as I have never had to do it before, giving a bad revue makes me sad.More</t>
   </si>
   <si>
-    <t>BusinessTraveler87</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r534121811-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>Kelly K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r513876464-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>This hotel is small and easy to access off the main road. The curtains don't cover the window fully so a lot of light filters into the room starting from sunrise along with the road sound if you're on the front of the building. The room was comfortable besides the excessive light.I requested a late check out of 12pm upon check in. We would be getting in after 2am and had a long drive so we wanted to sleep in. This was approved and we went on our merry way. Somewhere between 8:30am &amp; 9:30am we were woken by house keeping knocking on our door. They left. Around 11am they come knocking again and then proceeded to yell back and forth to each other outside our door when I said no. A few minutes later...the room phone rings. I was asked if I wanted to extend my stay to which I explained we'd been told we could stay until noon. After a small back and forth about this it turned out they'd forgotten to note that on our room. We decided it wasn't worth it to try to sleep any longer as we'd been woken up three times and packed our stuff and left immediately after hanging up with the front desk.Based off these events we probably won't stay here again. Too many negatives just add up.More</t>
   </si>
   <si>
-    <t>Mike D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r496674317-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>MrsHairLover</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r496039896-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,9 +267,6 @@
     <t>Don't trust the photos! This place was a DUMP! Our room was musty, the sheets had STAINS on them... and so did our towels! And our bed was hard as a rock! I don't know how this place got such good reviews... we saw the original listing on an app called "booking.com", and everyone had nothing but good things to say so I figured it was safe... not so much! And when I returned to be app, AFTER we checked out, my account was locked and I was no longer allowed to review my stay... apparently the review feature is only available while you are there... this hotel appears to be modern and upscale based on the photos, but take this as a warning, ITS NOT! I wouldn't recommend anyone stay here! Especially for $130 a night! What a jokeMore</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r492034606-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -309,9 +291,6 @@
     <t>I was on a Business trip &amp; was upgraded to a Suite as the room booked was not available for some reason .Very spacious ,clean &amp; good breakfast in the morning too .Very very very courteous &amp; helpful staff . Chris GMore</t>
   </si>
   <si>
-    <t>Al H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r485153183-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -342,9 +321,6 @@
     <t>The hotel and room were very clean.  Good hot breakfast.  I just needed a room for one night.  Why pay more ?  Nothing fancy, but wasn't looking for that on this trip.  Anyone looking for an economical short-term stay, this is it !!!More</t>
   </si>
   <si>
-    <t>Beverly F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r460722811-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,9 +348,6 @@
     <t>We spent a week here in late January. It was an older place, but was pleasant. Their greatest asset is their staff. They were extremely friendly and helpful. The breakfast was really good and you had a lot of variety to choose from. The hotel itself was extremely clean --they did an excellent job of keeping it clean.   I would recommend this hotel for any of my friends and family.  It is small, but mighty! They made our trip a delight.More</t>
   </si>
   <si>
-    <t>1donnapipes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r448380150-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -399,9 +372,6 @@
     <t>First Comfort Inn with a not-so-good review.  Supposed to be non-smoking, but when I walked in my room, I smelled a lingering odor of cigarettes.  Not knowing the location of our room upon check-in, it was 3rd floor, close to the freeway and on New Year's Eve... that would have been the last place I would allow a client to spend the night.  So much highway noise, it was unacceptable!  The lighting was out dated and the coffee took too long to make.  However, the bed pillows were comfy and the frig was working well.  The breakfast was served b/t 6:30-10:30 but at 9:00, there was no regular coffee, what was left of the eggs were not good, 2 remaining biscuits, and no gravy.  Sorry Comfort Inn, but when you book clientel on a holiday weekend or anytime really, it would be a good idea to stock the pantry of breakfast items because it's clearly advertised breakfast is served b/t 6:30-10:30.  I was disappointed and will not be visiting this particular location again.  I should have been more careful and read the reviews a little more closely.More</t>
   </si>
   <si>
-    <t>mng1987</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r447218825-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -429,9 +399,6 @@
     <t>This was not my first choice! It's not a name brand I am comfortable with so ending up here was a bit of an unwelcomed surprise. From check in to check out- I had to keep reminding myself that I was not at my customary fav hotels and this was half of the price AND CLEANER AND MORE COMFORTABLE. The front desk peeps were top notch and the free breakfast was HEALTHY, NO CORNERS CUT, FRESH, AND DELICIOUS. My bed was COMFORTABLE, ROOM MODERNIZED, and CLEAN. I will be back. WELL DONE!!More</t>
   </si>
   <si>
-    <t>Christina R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r443892647-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -456,9 +423,6 @@
     <t>I checked into the hotel on December 8, 2016. I was checked in room 223 (a two bed room). Not long after I started seeing bedbugs crawling on the pillows on the other bed. The manager on duty came up to the room and confirmed the bugs. I don't know how long thy have been infected but it was bad enough there was several visible bugs crawling on the bed. He was very nice and was able to reserve a room at another hotel for me. I appreciate him covering the expense of the Quality Inn that evening but I at least expected to receive a phone call from the hotel manager/owner. If you choose to stay here please make sure you check your room before taking your luggage in. Trying to make sure I did not transport these critters home was one of the worst experiences I have been thorough.More</t>
   </si>
   <si>
-    <t>Jill D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r438515993-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -486,9 +450,6 @@
     <t>The rooms are dated and need some TLC. The air conditioner went bizerk a few times and was really loud. The location is semi ghetto, I was packing, but didn't ever feel unsafe. There really isn't a lot of parking either. Now to the good... The breakfast was typical hotel fare, can't complain for 'included" in the price. The beds were clean and firm, a tad firm for my taste but I slept well. I had a heard of elephants above me so the walls seen paper thin. The layout of the floors is awkward but it is what it is. There are a lot of pillows on the bed which is great. I was here business and the Wi-Fi was quick. I did appreciate the really tall ceilings in the room, no claustrophobic feeling. The staff is super friendly and the hotel is actually really clean. I'd stay here again despite the iffy rating and oddities written.More</t>
   </si>
   <si>
-    <t>k97mb03</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r437048501-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -513,9 +474,6 @@
     <t>We stayed here one night in order to stay at a hotel with a shuttle for an early morning flight out of Love Field. Upon check in we were told the shuttle driver didn't arrive until 6am. The hotel room was run down, with high slanted ceiling and cobwebs. There were strange holes in the walls up high. The bathroom was minimally clean with remnants of questionable origins on the walls. The hotel is approximately 6 inches off the highway and without regard to insulation.At 6am we were in the lobby, as was the shuttle driver and our shuttle mate. However, he didn't see fit to leave the hotel until 6:20am.We are in Dallas fairly often, but there is now way I would stay here again. More</t>
   </si>
   <si>
-    <t>tx10thirtytwo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r436423680-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -534,9 +492,6 @@
     <t>It goes without saying that rooms facing a 3-lane highway will be noisy. The desk manager was very accommodating when I asked to switch to a room on the less noisy side of the hotel.The entire room and bathroom were clean and sanitary. The king bed was comfortable. I had no problems with the Wi-Fi. The fridge was working, but I did not use it or the coffee maker.The lobby smelled like it was just sprayed with air freshener. The place did not smell like feet or BO.  First morning's breakfast, I had a biscuit with white cream gravy, scrambled eggs, sausage patty, milk, OJ, a little cereal. Next day was same, but had a bagel, no cereal.  There was a lot to choose from, everything looked good &amp; fresh.At night, the parking lot was well lit.  There were no shady characters hanging around.I have stayed at a few Comfort Inn / Sleep Inn locations and all have been quite satisfactory.More</t>
   </si>
   <si>
-    <t>Alexandra C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r434057258-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -558,9 +513,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Jeff R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r429694334-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -576,9 +528,6 @@
     <t>Nice couple of nights stay here while I attended the State Fair of Texas.  Rooms were clean and bed was comfortable.  I really like the fact that they provided 5 pillows of varying firmness.  Good idea!  I'd stay here again although it's showing some age.  Didn't try the breakfast but the wi-fi worked just fine.  Location is not bad, right off I-3.</t>
   </si>
   <si>
-    <t>Nikki W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r428561444-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -606,9 +555,6 @@
     <t>We stayed here with another family. The rooms are large, clean, and very up to date. The couch actually pulls out to a bed - a bonus over what is listed online. The front desk staff were all SO nice. They were professional and seemed to take pride in their job and the hotel itself. I would highly recommend this as an overnight before/after flying out of Love Field. I will definitely be staying here again. More</t>
   </si>
   <si>
-    <t>Barbara L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r421525311-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -627,9 +573,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Michael J. P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r420584904-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -639,9 +582,6 @@
     <t>09/20/2016</t>
   </si>
   <si>
-    <t>807joyw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r403526715-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -660,9 +600,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>BomMomMB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r401496694-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -681,9 +618,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>MSLuv2travel10</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r399800007-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -699,9 +633,6 @@
     <t xml:space="preserve">We only spent 5 hours here as a pit stop for an early morning flight but we found the location perfect for Love Airport! It took around 10 minutes to get to the airport. The rooms were clean and comfortable. The staff was helpful and polite. Parking was adequate. </t>
   </si>
   <si>
-    <t>Carly F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r392489127-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -726,9 +657,6 @@
     <t>I checked in on Monday and had no problems. Wifi was great, bed was super comfy, staff was very friendly. Wednesday, as I was getting ready to go to bed, I noticed a bug flying around but figured a rogue mosquito had gotten in or something. As I got in bed, I had another bug crawl on my arm. They were more like ants or termites or something (I'm not a big expert). No other hotels in the area had vacancies, and the front desk was able to find me another room. I switched to a room a couple doors down. The bed wasn't soft, the outlets by the bed didn't work, and there were cracks in the walls in the bathroom. Had it not been for the bugs, this hotel would have gotten a better rating, but because the second bed was not comfy at all and the bugs, I will probably rethink staying here next visit.More</t>
   </si>
   <si>
-    <t>Angela W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r384134229-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -750,9 +678,6 @@
     <t>The room was clean and tidy.  It was quiet and comfortable. The rates were competitive and the staff were helpful and friendly.  The location is just a short walk to the bus stop which gives you access to the Dart rail network.  There is also a fast food chain nearby.  The shuttle to Dallas Love field airport was great.More</t>
   </si>
   <si>
-    <t>Tony T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r383012823-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -771,9 +696,6 @@
     <t>We used our points as Choice Privilege Members. No complaints about this stay. Room was clean, everything worked, breakfast was great, staff was friendly, and it was close to the hospital district, which is why we were in Dallas. I would recommend this hotel for anyone. One of the top hotels in the chain.More</t>
   </si>
   <si>
-    <t>David W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r371953295-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -795,9 +717,6 @@
     <t>First time staying here and the place is well kept for what appears to be a older facility. Room was nice, bed was comfortable, and the breakfast was good quality. Also close to downtown and on the flip side of traffic patterns into and out if there.More</t>
   </si>
   <si>
-    <t>Dc4321</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r365689171-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -819,9 +738,6 @@
     <t>We stayed at this property for 4 nights.  It got off to a rocky start--they had cancelled our reservation w/o telling us--but were able to put us in a king suite to make up for it.  The property is fine--not a lot of bells and whistles--but the room was good quality and there was breakfast every morning.  We had read the reviews suggesting to ask for a room away from the freeway--that is a good call, but with the A/C unit going, we didn't hear much noise anyways. Also worth noting that the location is convenient--easy to get downtown, to Love Field, Park Cities, etc.  Jeffrey, the front desk manager, seems like the hardest working man in show business--he was at the counter almost every time we came and went and showed up at 6am one morning to drive the shuttle for a group.  If you're looking for a budget-friendly choice, this is worth considering.More</t>
   </si>
   <si>
-    <t>scooby-BTR</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r340790848-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -849,9 +765,6 @@
     <t>Room was OK, bed was comfy.. very close to airport.  But, i think they are remolding....  not sure.  Felt the check in was a bit cumbersome as communication with clerk was a bit ..... well, just communication i guess.  was supposed to use points and pay some, but somehow he just used my points.More</t>
   </si>
   <si>
-    <t>Jessica Marie A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r337243321-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -876,9 +789,6 @@
     <t>I booked this hotel for a music festival for NYE. I called the customer service number to let them know i would be checking in 30 minutes later than 6pm. They told me it was fine and everything was set. I get to the hotel at 6:11pm... THEY GAVE MY ROOM AWAY!. No phone call. No email. NOTHING! Just completely gave it away! and they were sold out of other rooms. Thankfully I was able to get a room at the Crown Plaza(WAYYYY BETTER HOTEL) Next door!. Worst part.... The Manager had the worst attitude! and didn't seem to care that it was their screw up here. SAVE your money! DO NOT STAY HERE.More</t>
   </si>
   <si>
-    <t>Worldtravenut</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r336400608-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -900,9 +810,6 @@
     <t>Hotel comfortable and good value for money. Although right by highway, noise wasn't really a problem, breakfast fine too.Appreciate that the shuttle to Dallas Love Field didn`t run at weekends, however to advertise it operating 6am to 6pm and then to find that the driver had gone home before when I wanted to go to the airport wasn't very good especially after the morning reception staff noted my request accordingly.More</t>
   </si>
   <si>
-    <t>Brandon J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r336388194-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -918,9 +825,6 @@
     <t>Ok so I booked a room with the advanced pay option.  somehow the day that was booked was 2 days before I was to arrive in Dallas.  I understand with the advance pay that their is no cancellation.  I call choice hotels to see if they could simply change the day to the right day, they stated that they would have the manager call me.  after a couple of days I called back as I have not received a call.  again I was told that the manager would call me.  a couple days later again I called back and was told that it was marked in the computer that the manager had contacted me and that the issue was resolve, and the matter was closed and I was just stuck with a room and date that I could not use and thank you sir for the money.  I am not a business man but this is not how I would do business, not only would I have accommodated my client who uses me a lot  by not cancelling the hotel but putting it on the right date which was no different on the charge and would have been a much less busy night for the hotel, but I would not be rude and would not say I did something I did not do,  as a choice hotel user for many years this process has brought me to the point of...Ok so I booked a room with the advanced pay option.  somehow the day that was booked was 2 days before I was to arrive in Dallas.  I understand with the advance pay that their is no cancellation.  I call choice hotels to see if they could simply change the day to the right day, they stated that they would have the manager call me.  after a couple of days I called back as I have not received a call.  again I was told that the manager would call me.  a couple days later again I called back and was told that it was marked in the computer that the manager had contacted me and that the issue was resolve, and the matter was closed and I was just stuck with a room and date that I could not use and thank you sir for the money.  I am not a business man but this is not how I would do business, not only would I have accommodated my client who uses me a lot  by not cancelling the hotel but putting it on the right date which was no different on the charge and would have been a much less busy night for the hotel, but I would not be rude and would not say I did something I did not do,  as a choice hotel user for many years this process has brought me to the point of looking for another chain to use.More</t>
   </si>
   <si>
-    <t>vmart0</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r329933382-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -945,9 +849,6 @@
     <t>When I checked in the front desk lady was so rude, she never once smiled or asked how could I help you, seemed as if I was interrupting her from the computer. When I got to my room it had a really bad smell to it, almost like wet carpet. The room just felt really dirty. The next morning I took my family down for breakfast. The food was ok the eggs were cold and the milk was warm.(sad). I never got room service the three nights I was there. I just asked for towels witch by the by had stains on them. Talk about being clean!?!  The worse part about this stay was at checkout, my family and I had a 8 hour drive back home so we had to be up early or plain was to leave at 3 am so we come down and I inform the lady at the front desk we are checking out, she said her name was Mary but I am not sure because she didn't have a name tag. I told her we had a 100 cash deposit witch is refundable as long as the room is clean and nothing is missing. She said you have to come back at 8 to get your money back that's when housekeepers will be here to check. I could not believe this! I work in the hotel business and this is not how things work....When I checked in the front desk lady was so rude, she never once smiled or asked how could I help you, seemed as if I was interrupting her from the computer. When I got to my room it had a really bad smell to it, almost like wet carpet. The room just felt really dirty. The next morning I took my family down for breakfast. The food was ok the eggs were cold and the milk was warm.(sad). I never got room service the three nights I was there. I just asked for towels witch by the by had stains on them. Talk about being clean!?!  The worse part about this stay was at checkout, my family and I had a 8 hour drive back home so we had to be up early or plain was to leave at 3 am so we come down and I inform the lady at the front desk we are checking out, she said her name was Mary but I am not sure because she didn't have a name tag. I told her we had a 100 cash deposit witch is refundable as long as the room is clean and nothing is missing. She said you have to come back at 8 to get your money back that's when housekeepers will be here to check. I could not believe this! I work in the hotel business and this is not how things work. She was by far the most difficult person I have ever met. She was rude and highly disrespectful. If I give a hotel that is open 24 hours of the day there should not be any reason why if I give 100 at check in that no matter what time I checkout that I would not get it back. I had my 7 year old child in the lobby  at 330am waiting for this lady to take 1 min out of her time to check the room and see that it was ok to give me my money back. She really showed that she did not care. I don't understand why people work in the hospitality if they can really care less about the customers that they serve. After calling the police and an hour later she finally went to check the room and she finally gave me my money back. I will never stay at this hotel again.  The crown plaza is right next door nice place to stay there! More</t>
   </si>
   <si>
-    <t>David L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r326131692-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -972,9 +873,6 @@
     <t>This is a very nice property.  As of this writing they are doing some outside construction.  Convenient to the freeway.  No restaurants within walking distance.  Room was modern, clean, and very nice.  I will stay here again.  A good value.More</t>
   </si>
   <si>
-    <t>LORETTA S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r317195755-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -996,9 +894,6 @@
     <t>This was a terrible hotel, old, broken down, bad area of town, no place to eat.  Guests were questionable.  Only good thing was the check-in person and the check-out person.  The rest of the place was what I would call a RAT HOLE.  We arrived late from airport and had terrible time finding hotel.  Their SHUTTLE was in for repairs from the airport for over a month and was still not working when we landed.  Very disappointed.  Everything was a facade.  The front lobby had a beautiful chandelier.  That was the highlight of the decor.  They did recognize me as an elite gold member and offered me a free bottle of water.  No place to dine near by.  Keep going and stay away from here.  No one spoke English.More</t>
   </si>
   <si>
-    <t>CajunLady01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r316357396-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +915,6 @@
     <t>This was the best Comfort Inn I have ever stayed in.  Top notch from the friendly, courteous and accommodating desk staff to the efficient host at the breakfast buffet.  The modern and well designed king suite was immaculate and well appointed.  Although the hotel was full for our 2 nights, it was so quiet we never heard anything outside of our room.  This may not bea 5 star luxory hotel, it was right up there because of the staff and cleanliness.  It is also conveniently located to Love Field and the Market Center and not far from downtown Dallas.More</t>
   </si>
   <si>
-    <t>Trudymacey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r314429769-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1050,9 +942,6 @@
     <t>Shabby old building right next to a freeway,didn"t sleep because of the noise dreadful!! Two places to eat within walking distance  ..... a cheap burger bar or VERY expensive Hotel ( Crowne Plaza ) next door!! 7 miles from Dealey Plaza which was where we wanted to be,again a $20 taxi ride!!! although the staff were pleasant /helpful enough,we had to wait over an hour the 2nd day for a taxi....they dont book by name so another guest took our taxi which had been ordered!!! Breakfast was o.k.Room o.k. nothing special.More</t>
   </si>
   <si>
-    <t>maithri k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r312629656-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1074,9 +963,6 @@
     <t>Close to downtown, free wifi, free breakfast, clean rooms, good service, good bed, what else do you need for a night stay! No complaints, used choicehotels points to redeem a free stay too. Thumbs up!More</t>
   </si>
   <si>
-    <t>Rocky M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r312043156-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1095,9 +981,6 @@
     <t>Great Place good people behind the counter. Nice place for extended stay. New remodeled excilent location.Mr Tiwari is awsome and thanks for your hospitality. Close to freeway and i checked-in after midnight and night lady was great and very welcomming. thank will be back if i am in Dallas.More</t>
   </si>
   <si>
-    <t>Vision293</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r307014545-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1116,9 +999,6 @@
     <t>So in one of my most recent reviews, remember I spoke on the cleaning agents that will make or break a persons feelings? I thought that the staff was very nice and accommodating, the food was pretty good, had a bit better. The room was ok, however whatever is being used for cleaning supplies left a not so inviting odor that made you feel like you were in a motel and not a motel. The rooms were updated to a degree,. nice bathroom fixtures and updates, even though toilet kept running off and on throughout the day. For the most part if you need access to something right off the expressway, overnight, quick stay friendly staff this was a descent stay. Also eateries are not in the vicinity you will have to drive along the frontage roads at least 5-10 minutes unless you are just looking for a hamburger or something. Not the best, but definitely not the worst.More</t>
   </si>
   <si>
-    <t>John S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r304933443-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1143,9 +1023,6 @@
     <t>I enjoyed how nice and updated the room was here. I would suggest that you choose if possible a higher number room as well as a odd number room to stay away from the I-35 traffic noise outside. Breakfast was good too. More</t>
   </si>
   <si>
-    <t>mellumac</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r302606351-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1164,9 +1041,6 @@
     <t>We were there 10 days while my daughter was on bed rest, had a baby by c-section, and moved with her husband and newborn to a new location and new job.  The daughter stayed with us and her husband was in and out as he moved stuff and started his new job. Everyone, especially a lady at the front desk named Jasmine was very kind.  My pregnant daughter enjoyed the waffles and sausage I would bring her.  Thanks againMore</t>
   </si>
   <si>
-    <t>182jaya</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r281711607-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1194,9 +1068,6 @@
     <t>Great place.  Minutes from Love Field airport, 5 minuets from all downtown attractions, terrific staff, room meticulously cleaned and restocked daily.  Great breakfast. Small but very well equipped fitness room.More</t>
   </si>
   <si>
-    <t>tripqueenOklahoma</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r281262298-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1221,9 +1092,6 @@
     <t>This hotel was clean but the rooms were smaller than average. The parking lot was small also. The breakfast was good and had many choices. There is no pool and it is a bit noisy being right beside the interstate.More</t>
   </si>
   <si>
-    <t>traveler65432</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r262008021-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1251,9 +1119,6 @@
     <t>After staying here, I'm convinced that any previous positive reviews came from ownership or management.  This hotel is easily one of the worst I've ever stayed in.  First, it wasn't very clean-there was a huge hair left in our sink for one thing....the air conditioner didn't work right, but worst of all the place smelled horrible...Like a dingy mixture of dogs and smoke.  It knocked you out when you entered the room.  We sprayed the room with lysol but it didn't help.  We asked the front desk about a different room or a refund, and couldn't get either one. The curtains didn't block the outside lighting, walls were super thin, and the cheap mattress was horrible.  We ended up leaving before daylight because we couldn't sleep here.  Traffic noise was bad also, especially since the wall a/c unit wouldn't stay on long enough to drown it out. And we could hear people talking all night in the parking area outide. This one hotel stay damaged what was otherwise a perfect family trip.  There are better hotels in this price range nearby.  Don't waste your money on this one. It's definitely not worth trying to save a couple bucks.  Basically it's a stinky, deteriorating facility.More</t>
   </si>
   <si>
-    <t>JetsetMom4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r254357173-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1278,9 +1143,6 @@
     <t>The hotel exceeded my expectations. It's much better looking than its online pictures. About 10 mins from airport. Customer service was great. Did not try the breakfast during my stay. Clean room and bathroom. Quiet first floor room. The hotel has a small, convenient little store for midnight snacks.More</t>
   </si>
   <si>
-    <t>Douglas L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r240108129-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1302,9 +1164,6 @@
     <t>I tried to find an inexpensive hotel near the airport.  Next time I should pay attention to the poor reviews.  The linens were dirty and needed to be changed prior to staying in the room.  We received a discount of 20% but didn't take away the poor experience.  Foreign Owned and operated, not pleased with the service or attitude.   I won't return...More</t>
   </si>
   <si>
-    <t>JCDWinfrey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r238530835-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1329,9 +1188,6 @@
     <t>The front desk &amp; housekeeping was friendly, Courteous &amp; accomodating.  My room was nice and clean and the bed was heavenly.  The breakfast is free and quite good with an assortment of pastries, fruit, sausage, eggs, cereal, bagel, yogurt, boiled eggs and a waffle maker.  I signed up for choice points &amp; looking forward to earning free days. I enjoyed a very pleasant &amp; quiet stay and will patronage this establishment on any future trips to the city of Dallas. J DavisMore</t>
   </si>
   <si>
-    <t>Tunnus</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r236365566-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1350,9 +1206,6 @@
     <t>We had our Church meeting over the weekend and some rooms as well . The staff was very accommodating &amp; took care of our basic needs for the meeting . The maid services were very satisfactory ! Our group is considering this hotel for our regular monthly church meetings.More</t>
   </si>
   <si>
-    <t>kevin p</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r233688190-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1377,9 +1230,6 @@
     <t>I stayed here  to attend a medical conference &amp; this facility is the one of the cleanest I've ever stayed . It is well kept by the innkeeper &amp; staff is very humble &amp; helping .The power was not available for some time but no issues . All went well ! More</t>
   </si>
   <si>
-    <t>Brenda F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r233310850-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1398,9 +1248,6 @@
     <t>We chose this place for the price and name that I have trusted in the past. I was not happy with the room because there was no bathroom fan in the bathroom. The room was average, and the television channels where minimal. One day the elevator was out of order, and it was managed to get it fixed the same day. The breakfast was good, until I saw a moldy bread in the bread container. Parking lot is small, you better be careful where you park your car or some crackhead might take the opportunity to break in to it. Management will not assist with anything regarding parking lot. More</t>
   </si>
   <si>
-    <t>vickybliss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r232357210-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1425,9 +1272,6 @@
     <t>There was a oiler outage shortly after we checked in. 2 hours later we made our way down an unlit hallway (dark exit signs) and unlit stairway to front desk (unmanned). After tracking down staff we were told they didn't know when power would be restored and weren't responsible for an act of nature. We asked about other hotels with power and no help there. Made our own call to the closest Comfort Suites. They had power and booked reservations. Checked out of Market CS before 6pm but was not refunded for night. Not even a discount. More</t>
   </si>
   <si>
-    <t>The8racer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r224785512-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1449,9 +1293,6 @@
     <t>The room has been recently remodeled and was comfortable and clean. The rest of the place is a bit dated and is in a less than desirable location. Access in and out is difficult, a busy one way street is the only way in, the parking lot is small and dark. Groups of people congregate around the front door, not sure if this is ongoing but I saw it twice. The check in person was very friendly. I did not stay for breakfast. Overall this is a place you can stay but surely there are better options.More</t>
   </si>
   <si>
-    <t>christine v</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r224455440-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1479,9 +1320,6 @@
     <t>While traveling, we decided to stop in Dallas. It was late (9pm) and we hoped we could find an available room. I figured we'd get hit with a high rate since we just "stopped in". The night manager was very friendly and very accommodating. He quoted us a very good rate and then gave us a discount because we are Farm Bureau members. The hotel was quiet, very clean and the room was extremely comfortable. They offer hot breakfast, with waffles shaped like Texas, which was a big hit with our kids. My husband used the work out room, which he said was good, especially for a smaller hotel. Overall, we were very pleased with this hotel.More</t>
   </si>
   <si>
-    <t>Niki H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r215545288-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1503,9 +1341,6 @@
     <t>Choice Hotels - This Comfort Inn in particular was a wonderful stay!  The chain has rewards that really add up for free stays all over!  As for this hotel, it was clean, staff was super friendly and the free breakfast was wonderful as always.  The room appeared to be newly remodeled and well appointed.  Only cons -- it is supposed to be a non-smoking hotel but quite often the halls and rooms have smelled of smoke...especially at night!  Very close to Dallas Market Hall for coming and going to show there.More</t>
   </si>
   <si>
-    <t>RiverBirch1967</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r210685030-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1533,9 +1368,6 @@
     <t>Look folks, this place is a good location, but the badness sucks over that.Breakfast is good, yes.  Rooms are ok.  Beds are terrific.I checked in before my friend arrived.  They asked for NO id.  They said to sign for her and then gave me two keys.  I could have been an axe murderer.  It was under her credit card and yet they insisted I sign.  I did, yes.  I was confused.  I got two keys for this, under absolutely no authorization or checks for my id.  When she arrived, they blatantly lied to her about this.  Straight up lie.  They said I gave my id and credit card.  I did not.  They did not ask, and as I said, I was confused, so I signed.  This is security lacking in the worst.We asked specifically if construction was complete and they said yes.  It wasn't.  Then we asked about DART being close and they said yes.  It wasn't.And then there was the trash bag that sat in the hallway for days.Stay away from this place, if just for your own safety, let alone trash in the hallway.More</t>
   </si>
   <si>
-    <t>SpicyPadThai</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r209737652-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1560,9 +1392,6 @@
     <t>The hotels shows much better from the inside than the outside. Clean rooms with adequate amenities. We had the non-smoking suite on the 2nd floor. Breakfast was adequate. 20 min drive to downtowon Dallas. Staff was friendly and courteous.More</t>
   </si>
   <si>
-    <t>Rick C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r205602207-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1587,9 +1416,6 @@
     <t>Hotel inside is excellent, outside needs a coat of paint but it looks like it's coming.   Neighbourhood is a bit sketchy, mostly industrial, but right on the highways and easy access to downtown and the airport.Excellent hot and cold breakfast.  Limited parking for large vehicles/trailers.More</t>
   </si>
   <si>
-    <t>Travelling_laura</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r203103368-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1611,9 +1437,6 @@
     <t>Myself and my husband stayed here in on 21st October 2013 for 3 nights, as part of our honeymoon road trip. It was our first time in the USA and found this hotel met all our needs perfectly. It was affordable, clean, tidy and room was spacious. We enjoyed our breakfasts each day and loved the Texas shaped waffle iron :) Staff were pleasant and helpful. Nothing to complain about. We enjoyed our stay and would stay again.More</t>
   </si>
   <si>
-    <t>nihongo888</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r200424865-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1641,9 +1464,6 @@
     <t>Got a chance to talk with the GM Nitin Tiwari during my stay. He was very polite and had a very pleasant staff. It was nice to stay in a hotel for 5-nights and not have any issues wat-so-ever. I wish them good luck on their renovations. They are already in good standing and will continue to improve. Thanks to everyone for all your kindness during my stay.More</t>
   </si>
   <si>
-    <t>MillionMiles2000</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r197517281-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1665,9 +1485,6 @@
     <t>I made a reservation here as it is right next door to the Customer I would be working with for the week.  I intended to stay two nights but left as fast as I could after one night.  I should have realized that a bathroom sink lying on the sidewalk when I arrived may have been a preview of things to come.  My experience:  Dirty....even the bedding and that just grossed me out to no end.  There was something black on the pillow case that smelled like burnt hair.  The wall in the bathroom next to the trash can was splattered with some kind of dried up gunk.  Really nasty.  When setting the alarm clock I could see big piles of dust and grime behind the bed stands and around the back of the bed.  Whatever was coming out of the A/C literally made me sick, I'm not sure but suspect mold.  I woke up, after barely sleeping sicker than a dog the next day.   The WiFi was not reliable.  Very weak signal strength meant to internet for me.  I asked for a different room but was told nothing was available.  When I left in the morning they Desk Dude didn't want to give me a receipt.  Said there were printer problems but when I insisted He was able to print it just fine.  It's now three days later and my sinus's are finally starting to clear up.More</t>
   </si>
   <si>
-    <t>Kiryaka V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r197152484-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1692,9 +1509,6 @@
     <t>his was a very nice hotel to stay at. Without really knowing the cowboys area very well, I was happy with how easy it was to get to the hotel &amp; around town from the hotel. The room was very clean and the beds were nice &amp; soft. The breakfast was excellent and so was the service. Could not have been happier with the choice I made.More</t>
   </si>
   <si>
-    <t>FredrickTX976</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r197107819-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1713,9 +1527,6 @@
     <t>When I Am in the DFW Metroplex, I usually make my reservations in Addison, but this time I opted to stay somewhere else.  I chose this particular location because people seem to give it bad reviews.  From the moment I walked through the door, I was greeted with one of the most beautiful smiles I had seen by the GSR Acacia, she was very friendly and helpful.  As well as all of the other desk clerks that I came in contact with.  The hotel is under-going a renovation and I can overlook that and from the looks of it everything is looking great.  For this hotel to be located right off of the interstate, I can honestly say that I had one of the most peaceful nights sleeps in my entire 3 nights there. The breakfast was great. I would have to say, that the only problem I had was that my trip ended too soon.  But I have made future reservations for May, so I will be back.More</t>
   </si>
   <si>
-    <t>Orlando G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r191434486-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1737,9 +1548,6 @@
     <t>I needed a room for the trade fair and this was one of the few hotels not sold out and close to the venue. The hotel is undergoing renovations so from the outside it looks somewhat suspect but the lobby, hallways and room was clean and looked new. Because I booked the last room available I was in a smokers room (not great). The desk person was very helpful and arranged for the hotel van to take me to the trade fare saving me cab fare. I would stay there again.More</t>
   </si>
   <si>
-    <t>Armymomof3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r190444216-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1758,9 +1566,6 @@
     <t>Stayed overnight for an early flight.  It was a good stay with very helpful front desk person.  We did not eat breakfast as our flight was too early, but it was a lovely set up and we would stay here again if we were to return to the area.More</t>
   </si>
   <si>
-    <t>RTG-travlin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r189624502-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1779,9 +1584,6 @@
     <t>You will not be disapointed if you stay here, it is really a nice Hotel. I don't know what else I can say. This Hotel is very Comfortable, very Clean, very Modern, Very nice. I am really glad that we choose to stay here on this trip.More</t>
   </si>
   <si>
-    <t>Brian A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r187835492-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1803,9 +1605,6 @@
     <t>Shortly after arriving the cigarette smoke was coming under our door. So I asked the lady at the desk if there was anything she could do and was told, "Smoking rooms and non smoking rooms are on the same floors." I told her that the smell wasn't going to work for me as it makes me nauseous, is there anyway we could get a refund? We were told No Refunds! We left anyway and stayed at the Crowne Plaza next door without the smell of smoke. Unbelievable that these people aren't smart enough to put smoking on one floor only. STAY AWAY, TERRIBLE CUSTOMER SERVICE, NO REFUNDS FOR ANY PROBLEMSMore</t>
   </si>
   <si>
-    <t>Joe T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r187099050-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1830,9 +1629,6 @@
     <t>On Dec 6 2013 we made a reservation by calling the comfort inn number online. I was connected to expedia to book the room. We made our reservation and proceeded to the hotel. We arrived at the hotel and I approached the desk the lady behind the desk asked for my reservation number and I gave it to her and she right away was rude. I didn't think to much of it at first. My coworker that was with me made the res in his name. She said she would not rent the room to us because it was my credit card. I asked to switch it to my name, she said "no". I asked if I could have expedia change the reservation. I then called expedia to get the reservation  changed. Another customer came in while im trying to fix my reservation and she rudely said to move over. I still was calm but growing increasingly frustrated. We had expedia reservations on my phone and expedia support on her phone to try to fix problem but she just argued with them. after almost two hours of this mess she then said "ok, tell them to cancel reservation and she would make new one and get us a room". I kept expedia on phone while they cancelled reservation waiving their charges for making reservation she now said she had no rooms. I was so upset me and the expedia representative...On Dec 6 2013 we made a reservation by calling the comfort inn number online. I was connected to expedia to book the room. We made our reservation and proceeded to the hotel. We arrived at the hotel and I approached the desk the lady behind the desk asked for my reservation number and I gave it to her and she right away was rude. I didn't think to much of it at first. My coworker that was with me made the res in his name. She said she would not rent the room to us because it was my credit card. I asked to switch it to my name, she said "no". I asked if I could have expedia change the reservation. I then called expedia to get the reservation  changed. Another customer came in while im trying to fix my reservation and she rudely said to move over. I still was calm but growing increasingly frustrated. We had expedia reservations on my phone and expedia support on her phone to try to fix problem but she just argued with them. after almost two hours of this mess she then said "ok, tell them to cancel reservation and she would make new one and get us a room". I kept expedia on phone while they cancelled reservation waiving their charges for making reservation she now said she had no rooms. I was so upset me and the expedia representative  couldn't be believe she did that. I asked her what do I need to do to get a room she then stated she had a room now but she quoted 75.00dep plus double the price of room. I was so upset. During this whole time I was NOT screaming at her or cursing. She then stated she was going to call the police if we didn't leave. This is during the horrible arctic blast that had occurred that weekend the roads were closed and we could not travel. We ended up sleeping in our car.  I you choose to stay here I hope you don't have to deal with this person.More</t>
   </si>
   <si>
-    <t>KenBerry1960</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r185404241-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1851,9 +1647,6 @@
     <t>Have stayed in this hotel every time my son who had a lung transplant at UT Southwestern last year goes back into the hospital. Its a descent little hotel that is clean enough ( don't look to hard at the showers) beds are good and its a good place to lay a tired head down after  day at the hospital. But as I was leaving this morning I was instructed by the morning clerk ( every issue I have ever had was with her) tells me I need anote from tthe hospital to get the rate, the one that I have already spent one night at. Never been done like that before here, and you would think if they pulled me up they would see that I'm there regularly. So today I will be running around the hospital, instead of caring for my son so these cheap owners can get a note. But I will actively campaign people staying at the Holiday Inn express that is much closer, and just a little higher but a nicer hotel. Because daily I speak with multitudes of patients families and I won't be telling them about Comfort InnsMore</t>
   </si>
   <si>
-    <t>milehigh39</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r185308542-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1872,9 +1665,6 @@
     <t>I stayed there from nob 11-15 2013The rooms were clean and friendly staffIt is slightly hidden from view from a other hotel and the tall bushes  you really have to slow down I the side road or you could Miss the entranceI would def stay again More</t>
   </si>
   <si>
-    <t>DSergi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r183497116-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1893,9 +1683,6 @@
     <t>I don't usually expect much from a Comfort Inn. However this hotel was a pleasant surprise. The front desk staff was friendly, the rooms were large and spacious. The breakfast was the usual Choice fair. This must have been another more upmarket flag in another life as there was a phone in the bathroom. Other tell take signs exist such as a nice lobby and attractive exterior. Finally the location is very convienient to most of downtown Dallas. More</t>
   </si>
   <si>
-    <t>paulo3003</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r177713914-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1923,9 +1710,6 @@
     <t>We wanted a hotel that was convenient to downtown but not terribly expensive.  This hotel met our needs.  The location is good - very close to downtown. Rooms were perfectly clean. Good breakfast. Staff was friendly.  I'd definitely stay here again.   Overall , a very good stay.More</t>
   </si>
   <si>
-    <t>jack c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r177599270-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1950,9 +1734,6 @@
     <t>This is one of the Best, clean, cozy hotel &amp; mind it customer Oriented Hotel we've every stayed ! We were there for  a   2 day stay during September 4-5 &amp; there was  a Big German Speaking Group checking in at the same .We were uncomfortable at first when we walked in the lobby as there were 50-60 peoples, so we decide to get our luggage out and come back. By the time we re back , within 10 minutes all were gone into their rooms . The rooms we were allotted was very clean and cozy . Staff was very nice with Directions to malls and restaurants .  It was right off the Highway for easy access as well. They even had Fresh Raisin Oat cookies freshly baked in that day . Its hard to see in front of the Big hotel next door but Overall, its a good hotel . Hidden Gem .More</t>
   </si>
   <si>
-    <t>Stephanie S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r168129549-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1980,9 +1761,6 @@
     <t>I stayed here for work, it's a nice hotel, the rate is decent, and the room was clean and comfy. I'd definitely stay here again. The location was pretty decent. I had a small issue with my bathtub clogging, but the staff was friendly and had it taken care of quickly. Would recommend it.More</t>
   </si>
   <si>
-    <t>Vanessa A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r168061391-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2002,9 +1780,6 @@
   </si>
   <si>
     <t>I love this place it was super spacious, bed was really comfy best sleep I have ever had, staff was amazing greeted me by name and remembered the reason for my visit. Breakfast was so good and the presentation was so nice. I enjoyed being able to make my coffee in my room and to be able to fit all my clothing in my closet. They even had a gym how great is that!!! I guarentee to make this my #1 destination any time in the future.More</t>
-  </si>
-  <si>
-    <t>Brady G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r162473808-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -2032,9 +1807,6 @@
 ALL these things were minor until I was waking up the next day.  Everyone know about choice privileges?  If your a member you are supposed to have the privilege of having a late 2PM check out.  I told the front desk night agent that I would be checking out at 2 PM as I was arriving at 3.  She added it into the account.  The next day someone called the room at 11 waking me up asking when I...!!!DO NOT STAY AT THIS HOTEL UNTIL IT IS UNDER NEW MANAGEMENT!!!The ONLY thing that saves this hotel from getting 1 out of 5 is the fact that the front desk agent doing night audit was extremely kind and courteous to me.  I drove here from Waco to get away and was extremely relieved to find that she could get me a non-smoking room on such short notice at 3AM(even though that was the type of room I reserved online).  Additionally my room was supposed to be a suite.  They were out of those.  I settled for a non-smoking room close to the highway, with a T.V. that had a hard time keeping up with the press of a button on the remote, and somehow we slept through the sounds of semi-trucks driving by on the freeway less than 30 feet from my window.  The bed sheets had cigarette holes in them... wasn't this supposed to be a non-smoking room?  ALL these things were minor until I was waking up the next day.  Everyone know about choice privileges?  If your a member you are supposed to have the privilege of having a late 2PM check out.  I told the front desk night agent that I would be checking out at 2 PM as I was arriving at 3.  She added it into the account.  The next day someone called the room at 11 waking me up asking when I would be checking out.  I explained the same thing to them.  A few minutes later I wake up to find housekeeping in my room.  SHE WALKED IN ON ME AND MY BOYFRIEND!!!  No phone call, no knock, nothing was done to protect OUR privacy.    We got up and took a shower and ready to leave.  I didn't even want to sleep in late anymore because of this horrible place.  I went to the front desk to try and get my room comp'd and even talked to the General Manager("Nitin Tiwari" for those who would like to know his name, he probably wont even respond to this review) and explained to him what had just happened.  Any sensible person would either offer you another free stay or comp your room.  This man wasn't having any of it.  I asked to get the owners e-mail and he told me he was the owner.  I'm going to go out on a limb here, and say I didn't believe him.  His card would have had that title, if he were the owner.  He's the General Manager and he needs to get this hotel back in shape, it is being very poorly run.    !!!DO NOT STAY AT THIS HOTEL UNTIL IT IS UNDER NEW MANAGEMENT!!!More</t>
   </si>
   <si>
-    <t>sherry e</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r160082225-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2059,9 +1831,6 @@
     <t>the worst experience ever,this lady yelled at us,hung up on us not once but twice while trying to make reservation,we were at the hospital,so we really didn't need the attitude ...she was rude and load,i can not believe she represents the comfort inn brand name acting like that, We went to the location and we needed a total of 6 rooms,she tried to tell us we could not sleep 4 adults in a doulble queen it had to be 2 adults and 2 kids. what should it matter as long as its only 4 per room?i will tell everyone I know to not stay at this hotel when in Dallas,Texas,or at Parkland hospital,her brand should be taking from her...More</t>
   </si>
   <si>
-    <t>SEtravelerguy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r159906455-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2080,9 +1849,6 @@
     <t>We came up to Dallas for a weekend trip and wanted a hotel that was convenient to downtown and the major attractions but not terribly expensive.  This hotel met all those needs!  It is right off of the highway and not more than 5 mins from downtown and the attractions.  Nearby there are lots of restaurants so even if you don't want to venture and explore, there are lots close by.The hotel itself was really nice.  The lobby and front desk area are really open and clean.  The breakfast area is large and there was always plenty of seating in the mornings.  We appreciated that it was more than just danishes, etc.  There were eggs, sausage, waffles, yogurts, and so much more.  It was a good way to start the day!The rooms were large, clean, modern, and well-kept.  The bed was very comfortable and you could tell the rooms were recently refreshed - new flat screens TV, bedding, etc.  We plan on coming back to Dallas again and will definitely stay here again!More</t>
   </si>
   <si>
-    <t>Annie711</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r156794096-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2104,9 +1870,6 @@
     <t>Stayed at this hotel one night and that was enough.  The hotel is not real clean, seems dated and there was a funny smell int the 3rd floor hallway.  On the positive side the beds were comfortable, the shower was nice, the heat/ac worked well.  The not so positive, no mirror outside the bathroom, the lighting was poor in the room, the carpeting was terrible/dirty throughout the hotel.  The content natal breakfast left a lot to be desired, little bit of scrambled eggs and a sausage patty or two.  Some bread and bagels, just not the usual continental breakfast.  Desk staff were nice but not very helpful with info on dining places etc. One night was enough we would not go back.More</t>
   </si>
   <si>
-    <t>1967Yankeesfan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r155746998-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2134,9 +1897,6 @@
     <t>I stayed at this Comfort Inn and Suites in March 2013. I was in town on business for a Friday and Saturday night. The hotel was fine as far as accommodations go, but parking was an issue. The hotel rented out its meeting room to a local church group. They filled the parking lot so that paying guests had to struggle to find parking spots. For a part of the time I had to park up in an area that wasn't parking. The hotel clerk seemed uninterested in the issue, even though several guests complained. The breakfast buffet was supposed to open at a certain time on Saturday morning, but they were late. The lady in charge of it said she was cooking the food and taking care of the front desk, so it seemed they were understaffed. We waited about 20 minutes past opening of the eating area for the eggs to come out. This may not be a big deal to most people, but for me, I travel on a timeline when I am traveling for business, so having breakfast at a certain time is important to me. It was delayed on Sunday morning as well.More</t>
   </si>
   <si>
-    <t>Rob P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r155168791-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2155,9 +1915,6 @@
     <t>I used this hotel as it was right next to an event I was attending in Dallas. I stayed for 7 nights. The hotel is good for what it is and I would deffinately stay here again if attending the event again. It's convenient for the airport, but not really a tourist destination. Not well situated to see the sites. But if you want a good place to stay that is value the. This place is clean and comfy. Good sized rooms and don't let the proximity to the road out you off. The noise is minimal. I would suggest having your own car with you as the hotel is not well located for places to eat. Public transport is not great and the staff, although polite do not seem to have much local knowledge. I have booked to stay again, but only as it is close to where I need to be. And after seeing the inside of rooms in some other local hotels I think this ones is best for size and location. More</t>
   </si>
   <si>
-    <t>Nuggets54</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r153459295-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2185,9 +1942,6 @@
     <t>It was a very great experience at this location, we wanted to stay in crown plaza next door but it was too pricy for a small room with no breakfast and to pay for Internet. We were placed in the third floor and the rooms are huge with slanting roof , it was very different from any other hotel we've stayed in .Although the hallway smelled like smoke, it didn't bother me . They had couple of smoking room  on the third floor . Maid service was sparkle clean.They even had  HAM. in the breakfast. Well defiantly stay here next time in Dallas,More</t>
   </si>
   <si>
-    <t>vasu r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r152149093-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2206,9 +1960,6 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>thisisspain</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r151546441-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2233,9 +1984,6 @@
     <t>My preferred hotel was full and as their shuttle bus driver offered me a lift. I arrived at the door of this hotel very late at night with no idea where I was or in fact when I would be leaving! I checked in for one night (at rack rate) and was offered a nice room on the back of the hotel away from the road. Good - nice room, perfectly clean. I then looked on line to see I could have saved 12 USD. No sweat. Totally acceptable. Spoke to my head office about my meetings and we decided that I should stay one extra day in town. Then a good night's sleep! The head of sales introduced herself at the breakfast table, I mentioned I was shuffling airports, meetings, taxis, limos and she quickly and efficiently booked me an early morning call, cab at a guaranteed price and organised an extra night at best rate. She said she had confirmed with front desk that the call was to be confirmed and that there would be a coffee/cake available even at 4am! With service like that, no way was I going to trek across town to "another" hotel nearer yet another red-eye flight! Superb support. #respect. When you stay in hotels as often as I do per year (2012 - 200+ nights!) these little touches make the difference between memorable and average.More</t>
   </si>
   <si>
-    <t>ChrisK6884</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r151251146-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2254,9 +2002,6 @@
     <t>What a disappointment.  Comfort Inns are typically reasonably priced, comfortable, clean hotels.  When I checked in, the front desk clerk enthusiastically invited me to their "Social Hour."  Chips and Salsa.  Oh, and wine from a box.  My room was clean at first glance, but there was dried urine on the toilet seat, and stains of an unknown nature on the couch.  Had I been brave enough to sit on the couch, I fear I would have been sitting on the floor, because the cushions were sinking well below the front edge of couch.  The TV was mounted on the wall in front of the bed, but could not be easily seen from the couch.  The legs on ironing board would no go all the way up on one side, so I was ironing on slope.  The TSA had confiscated my deodorant, so I called the front desk to ask for a replacement (as was indicated by the sign in the room).  They didn't have any, and when I asked where I could find the nearest store, I was told there were no stores close by.  (Google maps found me a Kroger less than a mile from the hotel).  The hotel is right off the interstate and is close to Love Field, so you have noise from both.  Stay away from this Comfort Inn.More</t>
   </si>
   <si>
-    <t>WindTraveler101</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r148448477-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2278,9 +2023,6 @@
     <t>The room I had was near the freeway, and if I was going to be there for more than a few nights I would have asked to move because the noise was a little much.  If you stay there make, and you need quiet, make sure to ask for a room on the quiet side of the hotel.  The bed was comfortable, and the towels and water pressure were decent, but the elevator was extremely slow.  Maybe they have it fixed by now, but it was faster to walk to the other end of the hotel and walk up the stairs than wait for the elevator.  There wasn't a do not disturb sign on the door, and they didn't have one behind the desk when I went down to ask, so if you want one make sure to ask before you go up to your room.  The breakfast was a little bit better than other Comfort Inn having eggs, sausage, cereal, waffles, and the usual pastries.More</t>
   </si>
   <si>
-    <t>Don F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r147807192-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2297,9 +2039,6 @@
   </si>
   <si>
     <t>December 2012</t>
-  </si>
-  <si>
-    <t>KAN87WIC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r137900638-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -2317,7 +2056,7 @@
     <t>To be honest, I was a little hesitant to book a room at this hotel because of all the mixed reviews on TripAdvisor.  I decided to go with my gut instinct and book the room because the price was too good to be true. I also felt some people are real critical about the amenities; I am not. 
 We drove up to the hotel and it is not fancy looking but more plain and somewhat outdated paint color. I feel it was misleading because the inside was pretty. 
 We arrived an hour before check in and the receptionist was extremely nice and without hesitation, immediately looked up our reservation information. She happily said our rooms were ready.  She gave me no trouble for arriving early. The inside of the lobby was clean and very pretty.  Our room was clean and had every amenity that I wanted (microwave &amp; mini-fridge). Our view from our window looked out into the next building  which had a beautiful waterfall fountain and metal horse statue....Gorgeous.  We were on the 2nd floor. We had plenty of towels and all the items in the room worked.  The TV was a large flat screen. The bed was a King size bed and quite comfy.  The shower was great. I did notice that the ice machine was gone from the 2nd floor so you have to go to the first floor to get your ice.  
-That night we asked...To be honest, I was a little hesitant to book a room at this hotel because of all the mixed reviews on TripAdvisor.  I decided to go with my gut instinct and book the room because the price was too good to be true. I also felt some people are real critical about the amenities; I am not. We drove up to the hotel and it is not fancy looking but more plain and somewhat outdated paint color. I feel it was misleading because the inside was pretty. We arrived an hour before check in and the receptionist was extremely nice and without hesitation, immediately looked up our reservation information. She happily said our rooms were ready.  She gave me no trouble for arriving early. The inside of the lobby was clean and very pretty.  Our room was clean and had every amenity that I wanted (microwave &amp; mini-fridge). Our view from our window looked out into the next building  which had a beautiful waterfall fountain and metal horse statue....Gorgeous.  We were on the 2nd floor. We had plenty of towels and all the items in the room worked.  The TV was a large flat screen. The bed was a King size bed and quite comfy.  The shower was great. I did notice that the ice machine was gone from the 2nd floor so you have to go to the first floor to get your ice.  That night we asked the receptionist to have the cleaning lady drop off a few more towels for tomorrow. We got up the next day and ate a marvelous breakfast!! In the lobby they had breakfast from 6am -10:30am. I love the assortment.....bagels,toast,muffins,scrambled and boiled eggs,cereal,sausage, waffles (shaped like state of Texas), oatmeal, juice,milk and coffee. They kept the food warm and filled to the rim.  It was fresh and wonderful!After a day of site seeing, we came back to the hotel and the cleaning lady dropped our towels off but......she cleaned our room too!  I was amazed and thankful because we didn't request that of her. We figured we only need some more towels because we are there on a short stay. No need to have the cleaning ladies work overtime.   The cleaning ladies did a marvelous job... We left her a tip :)The area around the hotel was fine but the neighborhood a few blocks down was sketchy. Sometimes that can be anywhere. There was a JACK IN THE BOX down the street which I found AMAZING...... We were there for a leisure trip for a concert in Dallas and stayed a 2nd day to enjoy Dallas sites.I would definitely book at this hotel again... I am not sure why it had negative reviews...MoreShow less</t>
+That night we asked...To be honest, I was a little hesitant to book a room at this hotel because of all the mixed reviews on TripAdvisor.  I decided to go with my gut instinct and book the room because the price was too good to be true. I also felt some people are real critical about the amenities; I am not. We drove up to the hotel and it is not fancy looking but more plain and somewhat outdated paint color. I feel it was misleading because the inside was pretty. We arrived an hour before check in and the receptionist was extremely nice and without hesitation, immediately looked up our reservation information. She happily said our rooms were ready.  She gave me no trouble for arriving early. The inside of the lobby was clean and very pretty.  Our room was clean and had every amenity that I wanted (microwave &amp; mini-fridge). Our view from our window looked out into the next building  which had a beautiful waterfall fountain and metal horse statue....Gorgeous.  We were on the 2nd floor. We had plenty of towels and all the items in the room worked.  The TV was a large flat screen. The bed was a King size bed and quite comfy.  The shower was great. I did notice that the ice machine was gone from the 2nd floor so you have to go to the first floor to get your ice.  That night we asked the receptionist to have the cleaning lady drop off a few more towels for tomorrow. We got up the next day and ate a marvelous breakfast!! In the lobby they had breakfast from 6am -10:30am. I love the assortment.....bagels,toast,muffins,scrambled and boiled eggs,cereal,sausage, waffles (shaped like state of Texas), oatmeal, juice,milk and coffee. They kept the food warm and filled to the rim.  It was fresh and wonderful!After a day of site seeing, we came back to the hotel and the cleaning lady dropped our towels off but......she cleaned our room too!  I was amazed and thankful because we didn't request that of her. We figured we only need some more towels because we are there on a short stay. No need to have the cleaning ladies work overtime.   The cleaning ladies did a marvelous job... We left her a tip :)The area around the hotel was fine but the neighborhood a few blocks down was sketchy. Sometimes that can be anywhere. There was a JACK IN THE BOX down the street which I found AMAZING...... We were there for a leisure trip for a concert in Dallas and stayed a 2nd day to enjoy Dallas sites.I would definitely book at this hotel again... I am not sure why it had negative reviews but if you need a comfy place to stay with an awesome breakfast for a great price, well this is where you want to be.  I thought it was perfect for our budget and our stay.MoreShow less</t>
   </si>
   <si>
     <t>August 2012</t>
@@ -2326,10 +2065,7 @@
     <t>To be honest, I was a little hesitant to book a room at this hotel because of all the mixed reviews on TripAdvisor.  I decided to go with my gut instinct and book the room because the price was too good to be true. I also felt some people are real critical about the amenities; I am not. 
 We drove up to the hotel and it is not fancy looking but more plain and somewhat outdated paint color. I feel it was misleading because the inside was pretty. 
 We arrived an hour before check in and the receptionist was extremely nice and without hesitation, immediately looked up our reservation information. She happily said our rooms were ready.  She gave me no trouble for arriving early. The inside of the lobby was clean and very pretty.  Our room was clean and had every amenity that I wanted (microwave &amp; mini-fridge). Our view from our window looked out into the next building  which had a beautiful waterfall fountain and metal horse statue....Gorgeous.  We were on the 2nd floor. We had plenty of towels and all the items in the room worked.  The TV was a large flat screen. The bed was a King size bed and quite comfy.  The shower was great. I did notice that the ice machine was gone from the 2nd floor so you have to go to the first floor to get your ice.  
-That night we asked...To be honest, I was a little hesitant to book a room at this hotel because of all the mixed reviews on TripAdvisor.  I decided to go with my gut instinct and book the room because the price was too good to be true. I also felt some people are real critical about the amenities; I am not. We drove up to the hotel and it is not fancy looking but more plain and somewhat outdated paint color. I feel it was misleading because the inside was pretty. We arrived an hour before check in and the receptionist was extremely nice and without hesitation, immediately looked up our reservation information. She happily said our rooms were ready.  She gave me no trouble for arriving early. The inside of the lobby was clean and very pretty.  Our room was clean and had every amenity that I wanted (microwave &amp; mini-fridge). Our view from our window looked out into the next building  which had a beautiful waterfall fountain and metal horse statue....Gorgeous.  We were on the 2nd floor. We had plenty of towels and all the items in the room worked.  The TV was a large flat screen. The bed was a King size bed and quite comfy.  The shower was great. I did notice that the ice machine was gone from the 2nd floor so you have to go to the first floor to get your ice.  That night we asked the receptionist to have the cleaning lady drop off a few more towels for tomorrow. We got up the next day and ate a marvelous breakfast!! In the lobby they had breakfast from 6am -10:30am. I love the assortment.....bagels,toast,muffins,scrambled and boiled eggs,cereal,sausage, waffles (shaped like state of Texas), oatmeal, juice,milk and coffee. They kept the food warm and filled to the rim.  It was fresh and wonderful!After a day of site seeing, we came back to the hotel and the cleaning lady dropped our towels off but......she cleaned our room too!  I was amazed and thankful because we didn't request that of her. We figured we only need some more towels because we are there on a short stay. No need to have the cleaning ladies work overtime.   The cleaning ladies did a marvelous job... We left her a tip :)The area around the hotel was fine but the neighborhood a few blocks down was sketchy. Sometimes that can be anywhere. There was a JACK IN THE BOX down the street which I found AMAZING...... We were there for a leisure trip for a concert in Dallas and stayed a 2nd day to enjoy Dallas sites.I would definitely book at this hotel again... I am not sure why it had negative reviews...More</t>
-  </si>
-  <si>
-    <t>realst8ace</t>
+That night we asked...To be honest, I was a little hesitant to book a room at this hotel because of all the mixed reviews on TripAdvisor.  I decided to go with my gut instinct and book the room because the price was too good to be true. I also felt some people are real critical about the amenities; I am not. We drove up to the hotel and it is not fancy looking but more plain and somewhat outdated paint color. I feel it was misleading because the inside was pretty. We arrived an hour before check in and the receptionist was extremely nice and without hesitation, immediately looked up our reservation information. She happily said our rooms were ready.  She gave me no trouble for arriving early. The inside of the lobby was clean and very pretty.  Our room was clean and had every amenity that I wanted (microwave &amp; mini-fridge). Our view from our window looked out into the next building  which had a beautiful waterfall fountain and metal horse statue....Gorgeous.  We were on the 2nd floor. We had plenty of towels and all the items in the room worked.  The TV was a large flat screen. The bed was a King size bed and quite comfy.  The shower was great. I did notice that the ice machine was gone from the 2nd floor so you have to go to the first floor to get your ice.  That night we asked the receptionist to have the cleaning lady drop off a few more towels for tomorrow. We got up the next day and ate a marvelous breakfast!! In the lobby they had breakfast from 6am -10:30am. I love the assortment.....bagels,toast,muffins,scrambled and boiled eggs,cereal,sausage, waffles (shaped like state of Texas), oatmeal, juice,milk and coffee. They kept the food warm and filled to the rim.  It was fresh and wonderful!After a day of site seeing, we came back to the hotel and the cleaning lady dropped our towels off but......she cleaned our room too!  I was amazed and thankful because we didn't request that of her. We figured we only need some more towels because we are there on a short stay. No need to have the cleaning ladies work overtime.   The cleaning ladies did a marvelous job... We left her a tip :)The area around the hotel was fine but the neighborhood a few blocks down was sketchy. Sometimes that can be anywhere. There was a JACK IN THE BOX down the street which I found AMAZING...... We were there for a leisure trip for a concert in Dallas and stayed a 2nd day to enjoy Dallas sites.I would definitely book at this hotel again... I am not sure why it had negative reviews but if you need a comfy place to stay with an awesome breakfast for a great price, well this is where you want to be.  I thought it was perfect for our budget and our stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r135612054-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -2353,9 +2089,6 @@
     <t>I was fooled by the recent positive reviews and wonder if they were truly written by travellers. The location is not really at The Market but rather closer to the industrial sector.  The hotel is definitely due for a rehab. Our room was reasonably clean or we wouldn't have stayed but on closer inspection there were cobwebs in the corner of the walls and the sheetrock by the window was bubbled and the carpet was not very clean (nor was any carpet in the hallways or dining area).  When we went down for the complimentary breakfast at 8:00am, the attendant was having a hard time replenishing the empty serving trays. The dining room was so small that people were running into each other and the chairs were way too close to each other. You might say that you get what you pay for, but the positive experience we had the day before at the chain's Sleep Inn was far superior. If you do decide to stay here be sure to get a room away from the freeway side (we had to ask to be moved when the freeway noise overwhelmed). There's free wi-fi but the connectin was very slow. The only positive comment I can make is that this was the only hotel that had any kind of recycling program - a bin for newspapers, magazines and paper.More</t>
   </si>
   <si>
-    <t>Trevman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r130479592-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2401,9 +2134,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>offseasonfun</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r128393275-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2422,9 +2152,6 @@
     <t>As a woman traveling alone... I felt safe over night even on the 1st floor with a large window facing the parking lot.  I'm not super picky but I need a place to be clean and safe.I booked this room for my first trip for a new job.  I checked in around 6 pm.  They told me they were having a 'social hour'.  It was free wine and beer and some chips and salsa.  Nothing great but very nice that they provide this.  The hotel is in a great location but I was too tired to go out.  The room was very clean, the king size bed was very comfy.  In the morning the shower was awesome.  No sudden change in the water temp.  The breakfast was complimentary.  The scrambled eggs were cooked just right.  They offered sausage patties, cereal, and pour your own waffles in the shape of the state of Texas.   For work I would stay here again.More</t>
   </si>
   <si>
-    <t>Kkmc371</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r128149929-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2440,9 +2167,6 @@
     <t>Very very clean,  professional staff,love that hot breakfast and that complimentary managers reception in the evenings. Definitely I will send out the Good Word to my friend &amp; families about this hotel.</t>
   </si>
   <si>
-    <t>Nette69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r128029395-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2458,9 +2182,6 @@
     <t>The outside can be a bit deceiving but the rooms are very clean and comfortable. They have a continental breakfast that includes every food group including eggs and sausage, waffles, cereal, fruit bagels, pastries etc(you get the idea) They also feature an evening managers reception that includes refreshments. The staff is friendly and helpful. Rooms have every amenity included you could need from hair dryer to iron to microwave and fridge. Nice and quiet as well as being close to fast food and restaurants.</t>
   </si>
   <si>
-    <t>YourNextGuest</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r125139162-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2479,9 +2200,6 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>GeoffG255093</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r116683555-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2500,9 +2218,6 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>SexyChula</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r108983576-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2524,9 +2239,6 @@
     <t>We stay here on May 10, 2011 and I have to say I wouldn’t want to stay again. When we got to our room it was a smoking room and I called the front desk and asked if we could be moved, they said they didn’t have any available rooms. So we decided to stay anyway (trying not to notice the smell). They have out dated TVs and carpet and for the $71 per night……hell we should have had at least a flat screen. The bed was ok there were tons of pillows. There is not a café or anything in the lobby and it sets on a service road not close in walking distance to much (we had a car). The lobby has a funny smell and the front desk ppl are ok not extra friendly or anything over all I don’t think it was worth my money and will not stay there again unless someone else is paying for it!More</t>
   </si>
   <si>
-    <t>jtdriver</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r100774208-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2548,9 +2260,6 @@
     <t>I stayed for 5 nights while in Dallas for a conference.  I decided to skip the conference hotel in downtown to save some money to pay for a rental car and more.  First impressions weren't great, as the hotel seemed to attract some undesirables in the parking lot.  Checkin was good, though, and my room was clean and comfortable.  The whole place is well worn but other than a leaky shower head, everything was in working condition at least.  There were a few problems.  My room overlooked Interstate 35E and there was plenty of road noise.  That usually wasn't a problem but once in a while a large truck would go by in the night and wake me up.  Most of the problematic noise came from within the hotel.  There were either a lot of noisy guests or the hotel's walls allow way too much noise to go from room to room.  The plumbing was also especially loud.  I definitely knew when my neighbors were using water.  The wireless Internet was not very good.  Very slow at times, but at least it didn't drop me.  My final complaint is minor, about the breakfast.  It was OK for one or two nights, but there's no variety on the hot items day to day.  But I assume most people don't stay long enough to care about that.More</t>
   </si>
   <si>
-    <t>curtismapman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r98661839-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2566,9 +2275,6 @@
     <t>Stayed three nights for a business conference. I don't like Dallas! Next to Vegas and Houston, it's my least favorite large city in the country. These folks help make the stay more tolerable, especially at my incredible Quikbook rate. Good quality bed, bedding and linens and relatively quiet, especially considering it's right next to a freeway.  The morning breakfast is pretty good and really needed since there are no restaurants in the immediate area. Fairly close to Love Field and downtown. A good, centrally located place to base if you have business in the Metroplex. Fairly good wifi but it does get bogged down at peak periods.</t>
   </si>
   <si>
-    <t>ericsf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r97029334-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2587,9 +2293,6 @@
     <t>February 2011</t>
   </si>
   <si>
-    <t>DeuxCarr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r93590026-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2611,9 +2314,6 @@
     <t>We only stayed in Dallas as our flight to NYC had been cancelled due to the snow so the airport put us up in this hotel.  There's a free shuttle from/to the airport (though the not so helfpul American Airlines staff neglected to tell us you have to ring the hotel to book this...).  When we checked in the receptionist was extremely helpful. She explained that the PC in the lobby was free to use and gave us all the necessary numbers to call for rebooking our flight.  The room was massive, clean and quiet.  We didn't use the in house entertainment but am sure it was all there. The shuttle service is great.   They will take you anywhere you like - for free - within a 2 mile (I think) radius.  The driver was really friendly and informative which was appreciated as we had never been to Dallas before.Breakfast was complimentary and fine for our needs.   There's coffee always on the go in the foyer if you need it.Very happy with our short stay.More</t>
   </si>
   <si>
-    <t>travelnlight</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r87617909-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2635,9 +2335,6 @@
     <t>We only stayed two nights and didn't have much time after long days at a convention to enjoy the amenities of the hotel. However, everything the hotel claimed online, it produced. The front desk person was cordial and competent. Our room was larger than some I've stayed in and beautifully decorated. Nice frig, microwave, coffee maker, flat screen TV. The beds were comfortable, although I would caution anyone allergic to feathers to bring their own pillow. The best part was the complimentary breakfast both mornings. Although the eating area is small, the food choice was more than adequate - both hot selections of sausage and eggs, etc. to yogert, cerial, muffins, bagels, etc. The hotel was about 10 minutes from the Convention Center, which is why we chose it plus getting a good price off venere.com.  The hotels downtown are more expensive in general but I thought  this was a good value.More</t>
   </si>
   <si>
-    <t>farazminiac309</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r84478624-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2656,9 +2353,6 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>carranza1974</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r84473671-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2674,9 +2368,6 @@
     <t>September 2010</t>
   </si>
   <si>
-    <t>gabeshuman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r68695856-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2695,9 +2386,6 @@
     <t>June 2010</t>
   </si>
   <si>
-    <t>JustinodelValle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r63793852-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2716,9 +2404,6 @@
     <t>May 2010</t>
   </si>
   <si>
-    <t>worldtravellers123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r60869063-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2738,9 +2423,6 @@
   </si>
   <si>
     <t>I stayed here for my first night in Dallas Texas. It is ok location not much in the area within walking distance. Just a Jack in the Box. Make sure you have a car to get around in Dallas. There is a good parking here. It is a safe place to stay and no worries from anyone. The check in process was very good. Very fast and efficent. Room was good and clean. Has all the basics you need for a good stay. Good location of Vending machines and lots of access to internet in the business center.In the morning as nice complimentary breakfast was offered. Lots of coffee, juice, toast, and fruits were offered. Many people were eating it as many were here for the OU game that wa going on. I recommend this place for everyone to stay when your in town. Have fun and enjoy your time.More</t>
-  </si>
-  <si>
-    <t>Traveler52078</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r46023345-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -2757,15 +2439,12 @@
   <si>
     <t>***Warning***
 First off, I want to say that this is not the first time I have stayed in a Comfort Inn. I have stayed at Comfort Inns and/or their sister hotels in several other locations. I hope this helps others.
-I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot....***Warning***First off, I want to say that this is not the first time I have stayed in a Comfort Inn. I have stayed at Comfort Inns and/or their sister hotels in several other locations. I hope this helps others.I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot. So we parked, and checked in. It was late and we were tired. When we got to the rooms, it smelled like damp towels...both rooms did. We had to air out the rooms and spray something just to make it tolerable. That night after returning from a wedding, we went to our room to find out that housekeeping never cleaned our room as we asked prior to us leaving for the wedding. So that aside, approx 2 hours later when my brothers came home, they felt uneasy about the loiters so they parked their car in front of the camera and went to their room, to discover the roof (they are on the 2nd fl meaning the 3rd fl was leaking a yet noone knew about it) was leaking and had leaked onto their bed. The room smelled even worse than it did, it got on their bags, it was leaking on their bed, sofa, etc....we told the front desk clerk that was on duty and they said they would not charge us for that nite. But they had no more rooms so the boys had to sleep on the floor in my room. (Ridiculous!) but we had to do what we could for the time being. The next morning me and my children and younger sister went to have breakfast. Then I went to the front desk clerk to tell them that I was getting ready to check out and about not charging me for the room. The guy tells me...MoreShow less</t>
+I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot....***Warning***First off, I want to say that this is not the first time I have stayed in a Comfort Inn. I have stayed at Comfort Inns and/or their sister hotels in several other locations. I hope this helps others.I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot. So we parked, and checked in. It was late and we were tired. When we got to the rooms, it smelled like damp towels...both rooms did. We had to air out the rooms and spray something just to make it tolerable. That night after returning from a wedding, we went to our room to find out that housekeeping never cleaned our room as we asked prior to us leaving for the wedding. So that aside, approx 2 hours later when my brothers came home, they felt uneasy about the loiters so they parked their car in front of the camera and went to their room, to discover the roof (they are on the 2nd fl meaning the 3rd fl was leaking a yet noone knew about it) was leaking and had leaked onto their bed. The room smelled even worse than it did, it got on their bags, it was leaking on their bed, sofa, etc....we told the front desk clerk that was on duty and they said they would not charge us for that nite. But they had no more rooms so the boys had to sleep on the floor in my room. (Ridiculous!) but we had to do what we could for the time being. The next morning me and my children and younger sister went to have breakfast. Then I went to the front desk clerk to tell them that I was getting ready to check out and about not charging me for the room. The guy tells me he knows nothing of that claim and that he will have to see with the night crew before committing to it. I told him to go check out the room if he didn't believe me. When I came down to check out, he didn't charge for the room and was quick to shoo me out the door. i didn't care, i was ready to get out of there. It wasn't until I left, did my brother call me to tell me his car was stolen. In the parking lot at 8;24am (when we were having breakfast). Yes, the whole car stolen. When we asked the front desk to see the surveillence tape, he hesitated but admit to keeping an eye on it for any suspicious activity. The front desk knew that car belonged to us but when I checked out, he made no effort to tell us that maybe we might want to check on that vehicle. It wasn't until the police arrived were we able to see the tape. The car was stolen within 3 minutes!! we lost the car and everything in it. my brothers were stranded there and yet the clerk did not feel the need to assist. The car is a total loss but I felt that it should not have happened if the hotel was doing their job. it was very unfortunate for us that we lost the car but grateful no harm was done to my family.This hotel is not in a safe area. I do not recommend this hotel for anyone...not even the biggest strongest men! It sucks because you have dishonest people out there and people who just don't give a daym. Maybe if they see that business goes down, they will be more proactive in providing a safer stay for their customers.MoreShow less</t>
   </si>
   <si>
     <t>***Warning***
 First off, I want to say that this is not the first time I have stayed in a Comfort Inn. I have stayed at Comfort Inns and/or their sister hotels in several other locations. I hope this helps others.
-I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot....***Warning***First off, I want to say that this is not the first time I have stayed in a Comfort Inn. I have stayed at Comfort Inns and/or their sister hotels in several other locations. I hope this helps others.I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot. So we parked, and checked in. It was late and we were tired. When we got to the rooms, it smelled like damp towels...both rooms did. We had to air out the rooms and spray something just to make it tolerable. That night after returning from a wedding, we went to our room to find out that housekeeping never cleaned our room as we asked prior to us leaving for the wedding. So that aside, approx 2 hours later when my brothers came home, they felt uneasy about the loiters so they parked their car in front of the camera and went to their room, to discover the roof (they are on the 2nd fl meaning the 3rd fl was leaking a yet noone knew about it) was leaking and had leaked onto their bed. The room smelled even worse than it did, it got on their bags, it was leaking on their bed, sofa, etc....we told the front desk clerk that was on duty and they said they would not charge us for that nite. But they had no more rooms so the boys had to sleep on the floor in my room. (Ridiculous!) but we had to do what we could for the time being. The next morning me and my children and younger sister went to have breakfast. Then I went to the front desk clerk to tell them that I was getting ready to check out and about not charging me for the room. The guy tells me...More</t>
-  </si>
-  <si>
-    <t>c0untrygal1987</t>
+I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot....***Warning***First off, I want to say that this is not the first time I have stayed in a Comfort Inn. I have stayed at Comfort Inns and/or their sister hotels in several other locations. I hope this helps others.I went on this trip to attend a wedding. I had my 2 children as well as my younger brothers and sisters. We requested a 2 rooms with double beds and instead we got king beds...oh ok...so we dealt with that. The hotel sits off a service road in between two other buildings. It is not the most safest location, that's for sure. When we arrived (4am), the front desk reps did not seem to know what he was doing. It appears he was in training. I had asked for joining rooms when I made the reservation approx 3 wks prior but when I checked in the front desk told me that they were booked and I should have made a request when booking...(WTH? I just told him that.) So needless to say, we were on two opposite sides of the building. Mind you, I had minors with me. The parking lot was not well lit. And when we first pulled in the parking lot, we were approached by this guy trying to bum money off of us and checking out our cars. The hotel had cameras but they didn't take any action on ppl loitering in the parking lot. So we parked, and checked in. It was late and we were tired. When we got to the rooms, it smelled like damp towels...both rooms did. We had to air out the rooms and spray something just to make it tolerable. That night after returning from a wedding, we went to our room to find out that housekeeping never cleaned our room as we asked prior to us leaving for the wedding. So that aside, approx 2 hours later when my brothers came home, they felt uneasy about the loiters so they parked their car in front of the camera and went to their room, to discover the roof (they are on the 2nd fl meaning the 3rd fl was leaking a yet noone knew about it) was leaking and had leaked onto their bed. The room smelled even worse than it did, it got on their bags, it was leaking on their bed, sofa, etc....we told the front desk clerk that was on duty and they said they would not charge us for that nite. But they had no more rooms so the boys had to sleep on the floor in my room. (Ridiculous!) but we had to do what we could for the time being. The next morning me and my children and younger sister went to have breakfast. Then I went to the front desk clerk to tell them that I was getting ready to check out and about not charging me for the room. The guy tells me he knows nothing of that claim and that he will have to see with the night crew before committing to it. I told him to go check out the room if he didn't believe me. When I came down to check out, he didn't charge for the room and was quick to shoo me out the door. i didn't care, i was ready to get out of there. It wasn't until I left, did my brother call me to tell me his car was stolen. In the parking lot at 8;24am (when we were having breakfast). Yes, the whole car stolen. When we asked the front desk to see the surveillence tape, he hesitated but admit to keeping an eye on it for any suspicious activity. The front desk knew that car belonged to us but when I checked out, he made no effort to tell us that maybe we might want to check on that vehicle. It wasn't until the police arrived were we able to see the tape. The car was stolen within 3 minutes!! we lost the car and everything in it. my brothers were stranded there and yet the clerk did not feel the need to assist. The car is a total loss but I felt that it should not have happened if the hotel was doing their job. it was very unfortunate for us that we lost the car but grateful no harm was done to my family.This hotel is not in a safe area. I do not recommend this hotel for anyone...not even the biggest strongest men! It sucks because you have dishonest people out there and people who just don't give a daym. Maybe if they see that business goes down, they will be more proactive in providing a safer stay for their customers.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r21039172-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -2789,9 +2468,6 @@
     <t>While the room itself was ok (with the exception of the splatters of...something...on the wall next to the bed), it was exceptionally noisy, both with freeway traffic right outside the window (and I live in NYC, so I'm used to traffic...but this was excessive) and the walls/floors were paper thin. The person staying above me paced like crazy ALL night (from 10pm until 4:30am when I left) and it sounded like he/she was IN my room stomping. I didn't sleep at all because of it. I would start to drift off and "THUMP THUMP THUMP THUMP THUMP."  This was strange, too, because I didn't see another person in the hotel (with the exception of the man at the front desk) the entire time I was there. It's also in what seems to be a fairly sketchy part of town, with strip clubs next door. I feared for the state of my rental car in the parking lot, but luckily, no harm came to it (or me). Overall, it was not at all a pleasant experience, and I would not go back or recommend it to others.More</t>
   </si>
   <si>
-    <t>jeepdogdad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r19486378-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2810,9 +2486,6 @@
     <t>November 2007</t>
   </si>
   <si>
-    <t>adehughes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r15011932-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2831,9 +2504,6 @@
     <t>April 2008</t>
   </si>
   <si>
-    <t>bwardtulsa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r14682214-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2855,9 +2525,6 @@
     <t>The price was right - $79, but it cost us alot more in the long run.And the property is adjacent to the highway - NOISY!!!Our truck was broken into - even though we parked under lights and in front of the rooms.  Security cameras in the parking lot are ill positioned and only covered a small portion of the lot.The staff was indifferent - Habib was on duty and really didn't care.The Dallas PD took four hours to provide a "telephone" report. It would have taken 4 days to get the crime scene team out to take evidence.We could have stayed at a five star hotel for what this experience cost us........More</t>
   </si>
   <si>
-    <t>GoSooners</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r10054686-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2879,9 +2546,6 @@
     <t>We have just returned from the OU/Texas game.  The hotel was a little difficult to find.  I called the hotel to ask for directions and was greeted by a real person that had problems speaking English.  When we finally found the hotel, the desk clerks all had difficulty understanding English.  I asked for a rollaway bed and with the language barrier that was quite a struggle.  The room was clean and we used the free internet on the 3rd floor without any problems.  Our room faced the interstate, but we just turned up the air conditioning didn't have any problems.  Overall, this was just an average room.  For $140 per night we expected a little more.More</t>
   </si>
   <si>
-    <t>TX_Champ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r8267072-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2903,9 +2567,6 @@
     <t>We booked via Expedia for a quick overnight stay in Dallas.  The prior reviews on TripAdvisor, and lack of availability of some other favorite hotels, directed us here.  My wife checked in before I arrived on a separate late night flight.  The hotel itself is very average and has a helpful staff.  However, when we pulled back the covers of the king bed (room 311), we found a few bugs crawling on the sheet.  A more extensive check of the mattress pad and bottom sheet reminded me why I would not recommend doing this at most hotels -- we found bedbug droppings and more unpleasantness.The staff tried to move us to one of the few available rooms and we found a lesser problem, but still similar.  So, at 1pm, we went looking for a hotel room.We worked with Expedia for a credit and this is still unresolved.  Expedia requires that the hotel agree to the refund.  Some service!So, to everyone else who stayed at the Comfort Inn Dallas Market Square around July 26th, 2007, if you're wondering about those red bite marks on your body, we know the answer.  And to the owners of this hotel, get ready for your City of Dallas public health inspection because we filed a complaint.More</t>
   </si>
   <si>
-    <t>MSTaurus</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r7702398-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2927,9 +2588,6 @@
     <t>I stayed 3 nights last week for a trade show at Dallas Convention Center.  The room is clean and comfortable.  They also have a small fitness center.  The continental breakfast is nice.  You can choose from bread, toasts, muffin to waffle.  My room faced the freeway, but I didn't hear the traffic noises in the room, nor the noises of people walking on the hallway.  The only drawback is the location.  Car rental is definitely needed.-- No shuttle bus to Dallas convention center.  You'll need to wait for about 15 minutes for calling a taxi to the Dallas Convention Center, fare $17.-- The only place to eat something within walking distance is "Jack in the Box."  However, if you get a car, you can drive about 10 minutes to Restaurant Raw where lots of choices are available.  BTW, although I could use wireless internet well in my room on the second floor facing the freeway, my colleague staying at the third floor on the opposite side of the building couldn't use the internet in room.  He had to work in the breakfast dining room every early morning to use the internet.More</t>
   </si>
   <si>
-    <t>JRNJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r6184272-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2948,9 +2606,6 @@
     <t>If you are looking for a clean affordable place to stay that isconveniently located near all and ultra staff friendly, look no further, you've just found it! The Comfort Inn on N. Stemmons Freeway in Dallas offers a wide variety of amenities with no hidden cost."Each room comes complete with it's own work desk and chair,a microwave, coffee pot, refrigerator, lighted make up mirror,blow dryer, satellite/cable tv, and not one, not two, but threeconveniently located phones. There's even one in the bathroom!The room service was really good and the simply comfort of knowing that a hotel attendant was stationed at the front desk at all times was definitely an added plus for someone like me, who thoroughly enjoys the comfort of knowing your safe to sleep in a foreign place with the luxury of having such peace of mind. As a tourist, we truly enjoyed our stay at the Comfort Inn and we're sure that you will too. J.R. from New JerseyMore</t>
   </si>
   <si>
-    <t>lotus5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r6122659-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2969,9 +2624,6 @@
     <t>October 2006</t>
   </si>
   <si>
-    <t>propete</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r6111975-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -3002,9 +2654,6 @@
     <t>the door to our room was very hard to open it kept getting jammed, the housekeeping went home before 7pm so i couldn't get any extra pillows, when we need more towels after swimming i called down to the front desk and they told ME to go down and get it, the "continential breakfast" was toast and cereal! this place was not worth $80</t>
   </si>
   <si>
-    <t>SneakinDeacon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r4735791-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -3023,9 +2672,6 @@
     <t>I stayed at this hotel for three nights (March 17, 18, 19, 2006) while I was in Dallas for the NCAA Basketball Tournament. I selected this hotel because it was close to the American Airlines Center where the games were being played.  The rooms were clean and well maintained. I found that the comments from a previous posted about no places to eat close by to be correct. The breakfast area very nice and well stocked, including the usual juice, coffee, pastries, cereal, and waffles. The only negatives, (excluding the weather which caused major flooding problems in the Dallas Area) is the conference room sits right off the lobby/registration area, and both Friday and Saturday nights there were rather large and loud parties being held there which was a little distracting when trying to check in. There is very limited parking for this hotel especially when there are events going on in the conference room. Finally they advertise wireless Internet, which is almost non-existent in many of the rooms. I couldn't connect in my room on the second floor and but was able to connect in the breakfast area.  I would stay here again but would probably look around before returningMore</t>
   </si>
   <si>
-    <t>ShantiGlover</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r4370454-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -3042,9 +2688,6 @@
   </si>
   <si>
     <t>January 2006</t>
-  </si>
-  <si>
-    <t>alafans</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109399-r4321718-Comfort_Inn_Suites_Market_Center-Dallas_Texas.html</t>
@@ -3567,47 +3210,43 @@
       <c r="A2" t="n">
         <v>37754</v>
       </c>
-      <c r="B2" t="n">
-        <v>6526</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -3627,54 +3266,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37754</v>
       </c>
-      <c r="B3" t="n">
-        <v>124520</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3692,54 +3327,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37754</v>
       </c>
-      <c r="B4" t="n">
-        <v>23415</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3753,54 +3384,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37754</v>
       </c>
-      <c r="B5" t="n">
-        <v>21464</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -3820,45 +3447,41 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37754</v>
       </c>
-      <c r="B6" t="n">
-        <v>124521</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -3875,60 +3498,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37754</v>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3940,60 +3559,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37754</v>
       </c>
-      <c r="B8" t="n">
-        <v>35624</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -4011,60 +3626,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37754</v>
       </c>
-      <c r="B9" t="n">
-        <v>124522</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -4082,51 +3693,47 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37754</v>
       </c>
-      <c r="B10" t="n">
-        <v>124523</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -4143,60 +3750,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37754</v>
       </c>
-      <c r="B11" t="n">
-        <v>72824</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -4214,60 +3817,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37754</v>
       </c>
-      <c r="B12" t="n">
-        <v>10217</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -4279,60 +3878,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37754</v>
       </c>
-      <c r="B13" t="n">
-        <v>3636</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -4344,60 +3939,56 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37754</v>
       </c>
-      <c r="B14" t="n">
-        <v>124524</v>
-      </c>
-      <c r="C14" t="s">
-        <v>156</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4409,60 +4000,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37754</v>
       </c>
-      <c r="B15" t="n">
-        <v>124525</v>
-      </c>
-      <c r="C15" t="s">
-        <v>165</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -4480,60 +4067,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37754</v>
       </c>
-      <c r="B16" t="n">
-        <v>34077</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -4551,54 +4134,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37754</v>
       </c>
-      <c r="B17" t="n">
-        <v>15230</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4616,54 +4195,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37754</v>
       </c>
-      <c r="B18" t="n">
-        <v>84147</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4675,60 +4250,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37754</v>
       </c>
-      <c r="B19" t="n">
-        <v>13197</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4742,39 +4313,35 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37754</v>
       </c>
-      <c r="B20" t="n">
-        <v>124526</v>
-      </c>
-      <c r="C20" t="s">
-        <v>203</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -4782,10 +4349,10 @@
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4806,52 +4373,51 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37754</v>
       </c>
-      <c r="B21" t="n">
-        <v>124527</v>
-      </c>
-      <c r="C21" t="s">
-        <v>207</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4865,54 +4431,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37754</v>
       </c>
-      <c r="B22" t="n">
-        <v>124528</v>
-      </c>
-      <c r="C22" t="s">
-        <v>214</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4926,54 +4488,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37754</v>
       </c>
-      <c r="B23" t="n">
-        <v>124529</v>
-      </c>
-      <c r="C23" t="s">
-        <v>221</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4987,54 +4545,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37754</v>
       </c>
-      <c r="B24" t="n">
-        <v>124530</v>
-      </c>
-      <c r="C24" t="s">
-        <v>227</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -5046,60 +4600,56 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="X24" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37754</v>
       </c>
-      <c r="B25" t="n">
-        <v>4166</v>
-      </c>
-      <c r="C25" t="s">
-        <v>236</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -5117,60 +4667,56 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="X25" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37754</v>
       </c>
-      <c r="B26" t="n">
-        <v>72194</v>
-      </c>
-      <c r="C26" t="s">
-        <v>244</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -5186,60 +4732,56 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="X26" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37754</v>
       </c>
-      <c r="B27" t="n">
-        <v>4279</v>
-      </c>
-      <c r="C27" t="s">
-        <v>251</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -5251,60 +4793,56 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="X27" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37754</v>
       </c>
-      <c r="B28" t="n">
-        <v>124531</v>
-      </c>
-      <c r="C28" t="s">
-        <v>259</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -5322,60 +4860,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="X28" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37754</v>
       </c>
-      <c r="B29" t="n">
-        <v>124532</v>
-      </c>
-      <c r="C29" t="s">
-        <v>267</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -5393,60 +4927,56 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="X29" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37754</v>
       </c>
-      <c r="B30" t="n">
-        <v>124533</v>
-      </c>
-      <c r="C30" t="s">
-        <v>277</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -5464,60 +4994,56 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37754</v>
       </c>
-      <c r="B31" t="n">
-        <v>124534</v>
-      </c>
-      <c r="C31" t="s">
-        <v>286</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -5533,60 +5059,56 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="X31" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37754</v>
       </c>
-      <c r="B32" t="n">
-        <v>124535</v>
-      </c>
-      <c r="C32" t="s">
-        <v>294</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -5604,60 +5126,56 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37754</v>
       </c>
-      <c r="B33" t="n">
-        <v>124536</v>
-      </c>
-      <c r="C33" t="s">
-        <v>300</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="O33" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5669,60 +5187,56 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="X33" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="Y33" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37754</v>
       </c>
-      <c r="B34" t="n">
-        <v>5027</v>
-      </c>
-      <c r="C34" t="s">
-        <v>309</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5738,60 +5252,56 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="X34" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="Y34" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37754</v>
       </c>
-      <c r="B35" t="n">
-        <v>124537</v>
-      </c>
-      <c r="C35" t="s">
-        <v>318</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="J35" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5807,60 +5317,56 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="X35" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="Y35" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37754</v>
       </c>
-      <c r="B36" t="n">
-        <v>124538</v>
-      </c>
-      <c r="C36" t="s">
-        <v>326</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="J36" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5878,60 +5384,56 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="X36" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37754</v>
       </c>
-      <c r="B37" t="n">
-        <v>124539</v>
-      </c>
-      <c r="C37" t="s">
-        <v>334</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5949,60 +5451,56 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="X37" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37754</v>
       </c>
-      <c r="B38" t="n">
-        <v>124540</v>
-      </c>
-      <c r="C38" t="s">
-        <v>344</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="O38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -6020,51 +5518,47 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="X38" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="Y38" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37754</v>
       </c>
-      <c r="B39" t="n">
-        <v>124541</v>
-      </c>
-      <c r="C39" t="s">
-        <v>352</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="J39" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -6081,60 +5575,56 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="X39" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37754</v>
       </c>
-      <c r="B40" t="n">
-        <v>124542</v>
-      </c>
-      <c r="C40" t="s">
-        <v>359</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="J40" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="K40" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="L40" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -6150,60 +5640,56 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="X40" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="Y40" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37754</v>
       </c>
-      <c r="B41" t="n">
-        <v>6540</v>
-      </c>
-      <c r="C41" t="s">
-        <v>366</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="O41" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -6215,60 +5701,56 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="X41" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37754</v>
       </c>
-      <c r="B42" t="n">
-        <v>124543</v>
-      </c>
-      <c r="C42" t="s">
-        <v>375</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="J42" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="K42" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -6280,60 +5762,56 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="X42" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="Y42" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37754</v>
       </c>
-      <c r="B43" t="n">
-        <v>124544</v>
-      </c>
-      <c r="C43" t="s">
-        <v>382</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="J43" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -6351,60 +5829,56 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="X43" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37754</v>
       </c>
-      <c r="B44" t="n">
-        <v>124545</v>
-      </c>
-      <c r="C44" t="s">
-        <v>392</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="J44" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -6416,60 +5890,56 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="X44" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="Y44" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37754</v>
       </c>
-      <c r="B45" t="n">
-        <v>124546</v>
-      </c>
-      <c r="C45" t="s">
-        <v>401</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="J45" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="O45" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -6481,51 +5951,47 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="X45" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37754</v>
       </c>
-      <c r="B46" t="n">
-        <v>124547</v>
-      </c>
-      <c r="C46" t="s">
-        <v>411</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="J46" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -6552,60 +6018,56 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="X46" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="Y46" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37754</v>
       </c>
-      <c r="B47" t="n">
-        <v>43968</v>
-      </c>
-      <c r="C47" t="s">
-        <v>420</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="J47" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -6627,51 +6089,47 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="X47" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="Y47" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37754</v>
       </c>
-      <c r="B48" t="n">
-        <v>124548</v>
-      </c>
-      <c r="C48" t="s">
-        <v>428</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="J48" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -6698,51 +6156,47 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="X48" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="Y48" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37754</v>
       </c>
-      <c r="B49" t="n">
-        <v>124549</v>
-      </c>
-      <c r="C49" t="s">
-        <v>437</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="J49" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
@@ -6769,51 +6223,47 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="X49" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="Y49" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37754</v>
       </c>
-      <c r="B50" t="n">
-        <v>124550</v>
-      </c>
-      <c r="C50" t="s">
-        <v>444</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="J50" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="K50" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -6840,51 +6290,47 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="X50" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="Y50" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37754</v>
       </c>
-      <c r="B51" t="n">
-        <v>12433</v>
-      </c>
-      <c r="C51" t="s">
-        <v>453</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="K51" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
@@ -6911,51 +6357,47 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="X51" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="Y51" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37754</v>
       </c>
-      <c r="B52" t="n">
-        <v>124551</v>
-      </c>
-      <c r="C52" t="s">
-        <v>460</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="J52" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="K52" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -6982,60 +6424,56 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="X52" t="s">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="Y52" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37754</v>
       </c>
-      <c r="B53" t="n">
-        <v>124552</v>
-      </c>
-      <c r="C53" t="s">
-        <v>469</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="K53" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -7053,60 +6491,56 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="X53" t="s">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="Y53" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37754</v>
       </c>
-      <c r="B54" t="n">
-        <v>124553</v>
-      </c>
-      <c r="C54" t="s">
-        <v>477</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>478</v>
+        <v>425</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>479</v>
+        <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
       <c r="K54" t="s">
-        <v>481</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="O54" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -7124,60 +6558,56 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="X54" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="Y54" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37754</v>
       </c>
-      <c r="B55" t="n">
-        <v>124554</v>
-      </c>
-      <c r="C55" t="s">
-        <v>487</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="J55" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
       <c r="K55" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="L55" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="O55" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -7195,60 +6625,56 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="X55" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="Y55" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37754</v>
       </c>
-      <c r="B56" t="n">
-        <v>124555</v>
-      </c>
-      <c r="C56" t="s">
-        <v>495</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="J56" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="K56" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="L56" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="O56" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -7270,60 +6696,56 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="X56" t="s">
-        <v>503</v>
+        <v>448</v>
       </c>
       <c r="Y56" t="s">
-        <v>504</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37754</v>
       </c>
-      <c r="B57" t="n">
-        <v>124556</v>
-      </c>
-      <c r="C57" t="s">
-        <v>505</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="J57" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="K57" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="L57" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="O57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -7345,60 +6767,56 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="X57" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="Y57" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37754</v>
       </c>
-      <c r="B58" t="n">
-        <v>1625</v>
-      </c>
-      <c r="C58" t="s">
-        <v>514</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="J58" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="K58" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="L58" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -7420,60 +6838,56 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="X58" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="Y58" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37754</v>
       </c>
-      <c r="B59" t="n">
-        <v>124557</v>
-      </c>
-      <c r="C59" t="s">
-        <v>523</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>524</v>
+        <v>466</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>525</v>
+        <v>467</v>
       </c>
       <c r="J59" t="s">
-        <v>526</v>
+        <v>468</v>
       </c>
       <c r="K59" t="s">
-        <v>527</v>
+        <v>469</v>
       </c>
       <c r="L59" t="s">
-        <v>528</v>
+        <v>470</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -7495,60 +6909,56 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="X59" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="Y59" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37754</v>
       </c>
-      <c r="B60" t="n">
-        <v>124558</v>
-      </c>
-      <c r="C60" t="s">
-        <v>531</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>532</v>
+        <v>473</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>533</v>
+        <v>474</v>
       </c>
       <c r="J60" t="s">
-        <v>534</v>
+        <v>475</v>
       </c>
       <c r="K60" t="s">
-        <v>535</v>
+        <v>476</v>
       </c>
       <c r="L60" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>537</v>
+        <v>478</v>
       </c>
       <c r="O60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -7570,60 +6980,56 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="X60" t="s">
-        <v>539</v>
+        <v>480</v>
       </c>
       <c r="Y60" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37754</v>
       </c>
-      <c r="B61" t="n">
-        <v>124559</v>
-      </c>
-      <c r="C61" t="s">
-        <v>541</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="J61" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="K61" t="s">
-        <v>545</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s">
-        <v>546</v>
+        <v>486</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="O61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -7635,60 +7041,56 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="X61" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="Y61" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37754</v>
       </c>
-      <c r="B62" t="n">
-        <v>124560</v>
-      </c>
-      <c r="C62" t="s">
-        <v>549</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>550</v>
+        <v>489</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="J62" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s">
-        <v>554</v>
+        <v>493</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="O62" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -7710,60 +7112,56 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>555</v>
+        <v>494</v>
       </c>
       <c r="X62" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="Y62" t="s">
-        <v>557</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37754</v>
       </c>
-      <c r="B63" t="n">
-        <v>124561</v>
-      </c>
-      <c r="C63" t="s">
-        <v>558</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>560</v>
+        <v>498</v>
       </c>
       <c r="J63" t="s">
-        <v>561</v>
+        <v>499</v>
       </c>
       <c r="K63" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="L63" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="O63" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7785,60 +7183,56 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="X63" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="Y63" t="s">
-        <v>564</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37754</v>
       </c>
-      <c r="B64" t="n">
-        <v>124562</v>
-      </c>
-      <c r="C64" t="s">
-        <v>565</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>566</v>
+        <v>503</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>567</v>
+        <v>504</v>
       </c>
       <c r="J64" t="s">
-        <v>568</v>
+        <v>505</v>
       </c>
       <c r="K64" t="s">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s">
-        <v>570</v>
+        <v>507</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>571</v>
+        <v>508</v>
       </c>
       <c r="O64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7860,60 +7254,56 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="X64" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="Y64" t="s">
-        <v>572</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37754</v>
       </c>
-      <c r="B65" t="n">
-        <v>124563</v>
-      </c>
-      <c r="C65" t="s">
-        <v>573</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>575</v>
+        <v>511</v>
       </c>
       <c r="J65" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="K65" t="s">
-        <v>577</v>
+        <v>513</v>
       </c>
       <c r="L65" t="s">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>571</v>
+        <v>508</v>
       </c>
       <c r="O65" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7935,60 +7325,56 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="X65" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="Y65" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37754</v>
       </c>
-      <c r="B66" t="n">
-        <v>124564</v>
-      </c>
-      <c r="C66" t="s">
-        <v>580</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>581</v>
+        <v>516</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>582</v>
+        <v>517</v>
       </c>
       <c r="J66" t="s">
-        <v>583</v>
+        <v>518</v>
       </c>
       <c r="K66" t="s">
-        <v>584</v>
+        <v>519</v>
       </c>
       <c r="L66" t="s">
-        <v>585</v>
+        <v>520</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="O66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -8010,60 +7396,56 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="X66" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y66" t="s">
         <v>521</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37754</v>
       </c>
-      <c r="B67" t="n">
-        <v>29363</v>
-      </c>
-      <c r="C67" t="s">
-        <v>587</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>588</v>
+        <v>522</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>589</v>
+        <v>523</v>
       </c>
       <c r="J67" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s">
-        <v>591</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s">
-        <v>592</v>
+        <v>526</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>593</v>
+        <v>527</v>
       </c>
       <c r="O67" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -8087,54 +7469,50 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>594</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37754</v>
       </c>
-      <c r="B68" t="n">
-        <v>31101</v>
-      </c>
-      <c r="C68" t="s">
-        <v>595</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="J68" t="s">
-        <v>598</v>
+        <v>531</v>
       </c>
       <c r="K68" t="s">
-        <v>599</v>
+        <v>532</v>
       </c>
       <c r="L68" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>593</v>
+        <v>527</v>
       </c>
       <c r="O68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -8156,51 +7534,47 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="X68" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="Y68" t="s">
-        <v>603</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37754</v>
       </c>
-      <c r="B69" t="n">
-        <v>124565</v>
-      </c>
-      <c r="C69" t="s">
-        <v>604</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="J69" t="s">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="K69" t="s">
-        <v>608</v>
+        <v>540</v>
       </c>
       <c r="L69" t="s">
-        <v>609</v>
+        <v>541</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
@@ -8227,51 +7601,47 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="X69" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="Y69" t="s">
-        <v>610</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37754</v>
       </c>
-      <c r="B70" t="n">
-        <v>124566</v>
-      </c>
-      <c r="C70" t="s">
-        <v>611</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>612</v>
+        <v>543</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>613</v>
+        <v>544</v>
       </c>
       <c r="J70" t="s">
-        <v>614</v>
+        <v>545</v>
       </c>
       <c r="K70" t="s">
-        <v>615</v>
+        <v>546</v>
       </c>
       <c r="L70" t="s">
-        <v>616</v>
+        <v>547</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -8298,51 +7668,47 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="X70" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="Y70" t="s">
-        <v>617</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37754</v>
       </c>
-      <c r="B71" t="n">
-        <v>124567</v>
-      </c>
-      <c r="C71" t="s">
-        <v>618</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>619</v>
+        <v>549</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="J71" t="s">
-        <v>621</v>
+        <v>551</v>
       </c>
       <c r="K71" t="s">
-        <v>622</v>
+        <v>552</v>
       </c>
       <c r="L71" t="s">
-        <v>623</v>
+        <v>553</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -8369,60 +7735,56 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="X71" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="Y71" t="s">
-        <v>624</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37754</v>
       </c>
-      <c r="B72" t="n">
-        <v>124568</v>
-      </c>
-      <c r="C72" t="s">
-        <v>625</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>626</v>
+        <v>555</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>627</v>
+        <v>556</v>
       </c>
       <c r="J72" t="s">
-        <v>628</v>
+        <v>557</v>
       </c>
       <c r="K72" t="s">
-        <v>629</v>
+        <v>558</v>
       </c>
       <c r="L72" t="s">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="O72" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -8444,60 +7806,56 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="X72" t="s">
-        <v>633</v>
+        <v>562</v>
       </c>
       <c r="Y72" t="s">
-        <v>634</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37754</v>
       </c>
-      <c r="B73" t="n">
-        <v>124569</v>
-      </c>
-      <c r="C73" t="s">
-        <v>635</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>636</v>
+        <v>564</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="J73" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="K73" t="s">
-        <v>639</v>
+        <v>567</v>
       </c>
       <c r="L73" t="s">
-        <v>640</v>
+        <v>568</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>641</v>
+        <v>569</v>
       </c>
       <c r="O73" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -8519,60 +7877,56 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>642</v>
+        <v>570</v>
       </c>
       <c r="X73" t="s">
-        <v>633</v>
+        <v>562</v>
       </c>
       <c r="Y73" t="s">
-        <v>643</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37754</v>
       </c>
-      <c r="B74" t="n">
-        <v>1137</v>
-      </c>
-      <c r="C74" t="s">
-        <v>644</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>645</v>
+        <v>572</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="J74" t="s">
-        <v>647</v>
+        <v>574</v>
       </c>
       <c r="K74" t="s">
-        <v>648</v>
+        <v>575</v>
       </c>
       <c r="L74" t="s">
-        <v>649</v>
+        <v>576</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>650</v>
+        <v>577</v>
       </c>
       <c r="O74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -8594,60 +7948,56 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>651</v>
+        <v>578</v>
       </c>
       <c r="X74" t="s">
-        <v>652</v>
+        <v>579</v>
       </c>
       <c r="Y74" t="s">
-        <v>653</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37754</v>
       </c>
-      <c r="B75" t="n">
-        <v>77893</v>
-      </c>
-      <c r="C75" t="s">
-        <v>654</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>655</v>
+        <v>581</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>656</v>
+        <v>582</v>
       </c>
       <c r="J75" t="s">
-        <v>647</v>
+        <v>574</v>
       </c>
       <c r="K75" t="s">
-        <v>657</v>
+        <v>583</v>
       </c>
       <c r="L75" t="s">
-        <v>658</v>
+        <v>584</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>650</v>
+        <v>577</v>
       </c>
       <c r="O75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -8669,60 +8019,56 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>659</v>
+        <v>585</v>
       </c>
       <c r="X75" t="s">
-        <v>660</v>
+        <v>586</v>
       </c>
       <c r="Y75" t="s">
-        <v>661</v>
+        <v>587</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37754</v>
       </c>
-      <c r="B76" t="n">
-        <v>108873</v>
-      </c>
-      <c r="C76" t="s">
-        <v>662</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>663</v>
+        <v>588</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>664</v>
+        <v>589</v>
       </c>
       <c r="J76" t="s">
-        <v>665</v>
+        <v>590</v>
       </c>
       <c r="K76" t="s">
-        <v>666</v>
+        <v>591</v>
       </c>
       <c r="L76" t="s">
-        <v>667</v>
+        <v>592</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>668</v>
+        <v>593</v>
       </c>
       <c r="O76" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -8746,54 +8092,50 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>669</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37754</v>
       </c>
-      <c r="B77" t="n">
-        <v>124570</v>
-      </c>
-      <c r="C77" t="s">
-        <v>670</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>671</v>
+        <v>595</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>672</v>
+        <v>596</v>
       </c>
       <c r="J77" t="s">
-        <v>673</v>
+        <v>597</v>
       </c>
       <c r="K77" t="s">
-        <v>674</v>
+        <v>598</v>
       </c>
       <c r="L77" t="s">
-        <v>675</v>
+        <v>599</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>668</v>
+        <v>593</v>
       </c>
       <c r="O77" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -8809,60 +8151,56 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>676</v>
+        <v>600</v>
       </c>
       <c r="X77" t="s">
-        <v>677</v>
+        <v>601</v>
       </c>
       <c r="Y77" t="s">
-        <v>678</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37754</v>
       </c>
-      <c r="B78" t="n">
-        <v>1010</v>
-      </c>
-      <c r="C78" t="s">
-        <v>679</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>680</v>
+        <v>603</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>681</v>
+        <v>604</v>
       </c>
       <c r="J78" t="s">
-        <v>682</v>
+        <v>605</v>
       </c>
       <c r="K78" t="s">
-        <v>683</v>
+        <v>606</v>
       </c>
       <c r="L78" t="s">
-        <v>684</v>
+        <v>607</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>668</v>
+        <v>593</v>
       </c>
       <c r="O78" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8884,60 +8222,56 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>676</v>
+        <v>600</v>
       </c>
       <c r="X78" t="s">
-        <v>677</v>
+        <v>601</v>
       </c>
       <c r="Y78" t="s">
-        <v>685</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37754</v>
       </c>
-      <c r="B79" t="n">
-        <v>124571</v>
-      </c>
-      <c r="C79" t="s">
-        <v>686</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="J79" t="s">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="K79" t="s">
-        <v>690</v>
+        <v>612</v>
       </c>
       <c r="L79" t="s">
-        <v>691</v>
+        <v>613</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>692</v>
+        <v>614</v>
       </c>
       <c r="O79" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -8961,54 +8295,50 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>693</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37754</v>
       </c>
-      <c r="B80" t="n">
-        <v>124572</v>
-      </c>
-      <c r="C80" t="s">
-        <v>694</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>695</v>
+        <v>616</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>696</v>
+        <v>617</v>
       </c>
       <c r="J80" t="s">
-        <v>697</v>
+        <v>618</v>
       </c>
       <c r="K80" t="s">
-        <v>698</v>
+        <v>619</v>
       </c>
       <c r="L80" t="s">
-        <v>699</v>
+        <v>620</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>700</v>
+        <v>621</v>
       </c>
       <c r="O80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -9030,51 +8360,47 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>701</v>
+        <v>622</v>
       </c>
       <c r="X80" t="s">
-        <v>702</v>
+        <v>623</v>
       </c>
       <c r="Y80" t="s">
-        <v>703</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37754</v>
       </c>
-      <c r="B81" t="n">
-        <v>11097</v>
-      </c>
-      <c r="C81" t="s">
-        <v>704</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>705</v>
+        <v>625</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>706</v>
+        <v>626</v>
       </c>
       <c r="J81" t="s">
-        <v>707</v>
+        <v>627</v>
       </c>
       <c r="K81" t="s">
-        <v>708</v>
+        <v>628</v>
       </c>
       <c r="L81" t="s">
-        <v>709</v>
+        <v>629</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
@@ -9103,54 +8429,50 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>710</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37754</v>
       </c>
-      <c r="B82" t="n">
-        <v>124573</v>
-      </c>
-      <c r="C82" t="s">
-        <v>711</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>712</v>
+        <v>631</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>713</v>
+        <v>632</v>
       </c>
       <c r="J82" t="s">
-        <v>714</v>
+        <v>633</v>
       </c>
       <c r="K82" t="s">
-        <v>715</v>
+        <v>634</v>
       </c>
       <c r="L82" t="s">
-        <v>716</v>
+        <v>635</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>717</v>
+        <v>636</v>
       </c>
       <c r="O82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -9172,60 +8494,56 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>718</v>
+        <v>637</v>
       </c>
       <c r="X82" t="s">
-        <v>719</v>
+        <v>638</v>
       </c>
       <c r="Y82" t="s">
-        <v>720</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37754</v>
       </c>
-      <c r="B83" t="n">
-        <v>124574</v>
-      </c>
-      <c r="C83" t="s">
-        <v>721</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>722</v>
+        <v>640</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>723</v>
+        <v>641</v>
       </c>
       <c r="J83" t="s">
-        <v>724</v>
+        <v>642</v>
       </c>
       <c r="K83" t="s">
-        <v>725</v>
+        <v>643</v>
       </c>
       <c r="L83" t="s">
-        <v>726</v>
+        <v>644</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>727</v>
+        <v>645</v>
       </c>
       <c r="O83" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -9247,54 +8565,50 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>726</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37754</v>
       </c>
-      <c r="B84" t="n">
-        <v>124575</v>
-      </c>
-      <c r="C84" t="s">
-        <v>728</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>729</v>
+        <v>646</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>730</v>
+        <v>647</v>
       </c>
       <c r="J84" t="s">
-        <v>731</v>
+        <v>648</v>
       </c>
       <c r="K84" t="s">
-        <v>732</v>
+        <v>649</v>
       </c>
       <c r="L84" t="s">
-        <v>733</v>
+        <v>650</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>717</v>
+        <v>636</v>
       </c>
       <c r="O84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -9316,60 +8630,56 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>734</v>
+        <v>651</v>
       </c>
       <c r="X84" t="s">
-        <v>735</v>
+        <v>652</v>
       </c>
       <c r="Y84" t="s">
-        <v>736</v>
+        <v>653</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37754</v>
       </c>
-      <c r="B85" t="n">
-        <v>124576</v>
-      </c>
-      <c r="C85" t="s">
-        <v>737</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>738</v>
+        <v>654</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>739</v>
+        <v>655</v>
       </c>
       <c r="J85" t="s">
-        <v>740</v>
+        <v>656</v>
       </c>
       <c r="K85" t="s">
-        <v>741</v>
+        <v>657</v>
       </c>
       <c r="L85" t="s">
-        <v>742</v>
+        <v>658</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>727</v>
+        <v>645</v>
       </c>
       <c r="O85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P85" t="n">
         <v>2</v>
@@ -9393,54 +8703,50 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37754</v>
       </c>
-      <c r="B86" t="n">
-        <v>124577</v>
-      </c>
-      <c r="C86" t="s">
-        <v>744</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>745</v>
+        <v>660</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>746</v>
+        <v>661</v>
       </c>
       <c r="J86" t="s">
-        <v>747</v>
+        <v>662</v>
       </c>
       <c r="K86" t="s">
-        <v>748</v>
+        <v>663</v>
       </c>
       <c r="L86" t="s">
-        <v>749</v>
+        <v>664</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>750</v>
+        <v>665</v>
       </c>
       <c r="O86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -9464,54 +8770,50 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>751</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37754</v>
       </c>
-      <c r="B87" t="n">
-        <v>47158</v>
-      </c>
-      <c r="C87" t="s">
-        <v>752</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>753</v>
+        <v>667</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>754</v>
+        <v>668</v>
       </c>
       <c r="J87" t="s">
-        <v>755</v>
+        <v>669</v>
       </c>
       <c r="K87" t="s">
-        <v>756</v>
+        <v>670</v>
       </c>
       <c r="L87" t="s">
-        <v>757</v>
+        <v>671</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>758</v>
+        <v>672</v>
       </c>
       <c r="O87" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -9535,54 +8837,50 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>757</v>
+        <v>671</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37754</v>
       </c>
-      <c r="B88" t="n">
-        <v>124578</v>
-      </c>
-      <c r="C88" t="s">
-        <v>759</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>760</v>
+        <v>673</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>761</v>
+        <v>674</v>
       </c>
       <c r="J88" t="s">
-        <v>762</v>
+        <v>675</v>
       </c>
       <c r="K88" t="s">
-        <v>763</v>
+        <v>676</v>
       </c>
       <c r="L88" t="s">
-        <v>764</v>
+        <v>677</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>765</v>
+        <v>678</v>
       </c>
       <c r="O88" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -9606,54 +8904,50 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>766</v>
+        <v>679</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37754</v>
       </c>
-      <c r="B89" t="n">
-        <v>124579</v>
-      </c>
-      <c r="C89" t="s">
-        <v>767</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>768</v>
+        <v>680</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>769</v>
+        <v>681</v>
       </c>
       <c r="J89" t="s">
-        <v>770</v>
+        <v>682</v>
       </c>
       <c r="K89" t="s">
-        <v>771</v>
+        <v>683</v>
       </c>
       <c r="L89" t="s">
-        <v>772</v>
+        <v>684</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>773</v>
+        <v>685</v>
       </c>
       <c r="O89" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -9677,54 +8971,50 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>774</v>
+        <v>686</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37754</v>
       </c>
-      <c r="B90" t="n">
-        <v>124580</v>
-      </c>
-      <c r="C90" t="s">
-        <v>775</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>776</v>
+        <v>687</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>777</v>
+        <v>688</v>
       </c>
       <c r="J90" t="s">
-        <v>778</v>
+        <v>689</v>
       </c>
       <c r="K90" t="s">
-        <v>779</v>
+        <v>690</v>
       </c>
       <c r="L90" t="s">
-        <v>780</v>
+        <v>691</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>781</v>
+        <v>692</v>
       </c>
       <c r="O90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -9746,13 +9036,13 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>782</v>
+        <v>693</v>
       </c>
       <c r="X90" t="s">
-        <v>783</v>
+        <v>694</v>
       </c>
       <c r="Y90" t="s">
-        <v>784</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91">
@@ -9765,37 +9055,37 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>785</v>
+        <v>696</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>786</v>
+        <v>697</v>
       </c>
       <c r="J91" t="s">
-        <v>787</v>
+        <v>698</v>
       </c>
       <c r="K91" t="s">
-        <v>788</v>
+        <v>699</v>
       </c>
       <c r="L91" t="s">
-        <v>789</v>
+        <v>700</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="O91" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -9819,54 +9109,50 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>789</v>
+        <v>700</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37754</v>
       </c>
-      <c r="B92" t="n">
-        <v>124581</v>
-      </c>
-      <c r="C92" t="s">
-        <v>791</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>792</v>
+        <v>702</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>793</v>
+        <v>703</v>
       </c>
       <c r="J92" t="s">
-        <v>794</v>
+        <v>704</v>
       </c>
       <c r="K92" t="s">
-        <v>795</v>
+        <v>705</v>
       </c>
       <c r="L92" t="s">
-        <v>796</v>
+        <v>706</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="O92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -9890,45 +9176,41 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>797</v>
+        <v>707</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37754</v>
       </c>
-      <c r="B93" t="n">
-        <v>124582</v>
-      </c>
-      <c r="C93" t="s">
-        <v>798</v>
-      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="J93" t="s">
-        <v>801</v>
+        <v>710</v>
       </c>
       <c r="K93" t="s">
-        <v>802</v>
+        <v>711</v>
       </c>
       <c r="L93" t="s">
-        <v>803</v>
+        <v>712</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
@@ -9957,54 +9239,50 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>803</v>
+        <v>712</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37754</v>
       </c>
-      <c r="B94" t="n">
-        <v>124583</v>
-      </c>
-      <c r="C94" t="s">
-        <v>804</v>
-      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>805</v>
+        <v>713</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>806</v>
+        <v>714</v>
       </c>
       <c r="J94" t="s">
-        <v>807</v>
+        <v>715</v>
       </c>
       <c r="K94" t="s">
-        <v>808</v>
+        <v>716</v>
       </c>
       <c r="L94" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>790</v>
+        <v>701</v>
       </c>
       <c r="O94" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -10028,54 +9306,50 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>809</v>
+        <v>717</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37754</v>
       </c>
-      <c r="B95" t="n">
-        <v>124584</v>
-      </c>
-      <c r="C95" t="s">
-        <v>810</v>
-      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>811</v>
+        <v>718</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>812</v>
+        <v>719</v>
       </c>
       <c r="J95" t="s">
-        <v>813</v>
+        <v>720</v>
       </c>
       <c r="K95" t="s">
-        <v>814</v>
+        <v>721</v>
       </c>
       <c r="L95" t="s">
-        <v>815</v>
+        <v>722</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>816</v>
+        <v>723</v>
       </c>
       <c r="O95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -10099,54 +9373,50 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>815</v>
+        <v>722</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37754</v>
       </c>
-      <c r="B96" t="n">
-        <v>124585</v>
-      </c>
-      <c r="C96" t="s">
-        <v>817</v>
-      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>818</v>
+        <v>724</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>819</v>
+        <v>725</v>
       </c>
       <c r="J96" t="s">
-        <v>820</v>
+        <v>726</v>
       </c>
       <c r="K96" t="s">
-        <v>821</v>
+        <v>727</v>
       </c>
       <c r="L96" t="s">
-        <v>822</v>
+        <v>728</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>823</v>
+        <v>729</v>
       </c>
       <c r="O96" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -10166,54 +9436,50 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>822</v>
+        <v>728</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37754</v>
       </c>
-      <c r="B97" t="n">
-        <v>124586</v>
-      </c>
-      <c r="C97" t="s">
-        <v>824</v>
-      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>825</v>
+        <v>730</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>826</v>
+        <v>731</v>
       </c>
       <c r="J97" t="s">
-        <v>827</v>
+        <v>732</v>
       </c>
       <c r="K97" t="s">
-        <v>828</v>
+        <v>733</v>
       </c>
       <c r="L97" t="s">
-        <v>829</v>
+        <v>734</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>830</v>
+        <v>735</v>
       </c>
       <c r="O97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -10237,54 +9503,50 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>831</v>
+        <v>736</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37754</v>
       </c>
-      <c r="B98" t="n">
-        <v>124587</v>
-      </c>
-      <c r="C98" t="s">
-        <v>832</v>
-      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>833</v>
+        <v>737</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>834</v>
+        <v>738</v>
       </c>
       <c r="J98" t="s">
-        <v>835</v>
+        <v>739</v>
       </c>
       <c r="K98" t="s">
-        <v>836</v>
+        <v>740</v>
       </c>
       <c r="L98" t="s">
-        <v>837</v>
+        <v>741</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>838</v>
+        <v>742</v>
       </c>
       <c r="O98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -10308,54 +9570,50 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>839</v>
+        <v>743</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37754</v>
       </c>
-      <c r="B99" t="n">
-        <v>124588</v>
-      </c>
-      <c r="C99" t="s">
-        <v>840</v>
-      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>841</v>
+        <v>744</v>
       </c>
       <c r="G99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>842</v>
+        <v>745</v>
       </c>
       <c r="J99" t="s">
-        <v>843</v>
+        <v>746</v>
       </c>
       <c r="K99" t="s">
-        <v>844</v>
+        <v>747</v>
       </c>
       <c r="L99" t="s">
-        <v>845</v>
+        <v>748</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>838</v>
+        <v>742</v>
       </c>
       <c r="O99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -10379,54 +9637,50 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>845</v>
+        <v>748</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>37754</v>
       </c>
-      <c r="B100" t="n">
-        <v>124589</v>
-      </c>
-      <c r="C100" t="s">
-        <v>846</v>
-      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>847</v>
+        <v>749</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>848</v>
+        <v>750</v>
       </c>
       <c r="J100" t="s">
-        <v>849</v>
+        <v>751</v>
       </c>
       <c r="K100" t="s">
-        <v>850</v>
+        <v>752</v>
       </c>
       <c r="L100" t="s">
-        <v>851</v>
+        <v>753</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>852</v>
+        <v>754</v>
       </c>
       <c r="O100" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -10450,54 +9704,50 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>851</v>
+        <v>753</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37754</v>
       </c>
-      <c r="B101" t="n">
-        <v>124590</v>
-      </c>
-      <c r="C101" t="s">
-        <v>853</v>
-      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>854</v>
+        <v>755</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>855</v>
+        <v>756</v>
       </c>
       <c r="J101" t="s">
-        <v>856</v>
+        <v>757</v>
       </c>
       <c r="K101" t="s">
-        <v>857</v>
+        <v>758</v>
       </c>
       <c r="L101" t="s">
-        <v>858</v>
+        <v>759</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>859</v>
+        <v>760</v>
       </c>
       <c r="O101" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -10521,54 +9771,50 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>860</v>
+        <v>761</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>37754</v>
       </c>
-      <c r="B102" t="n">
-        <v>124591</v>
-      </c>
-      <c r="C102" t="s">
-        <v>861</v>
-      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>862</v>
+        <v>762</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>863</v>
+        <v>763</v>
       </c>
       <c r="J102" t="s">
-        <v>864</v>
+        <v>764</v>
       </c>
       <c r="K102" t="s">
-        <v>865</v>
+        <v>765</v>
       </c>
       <c r="L102" t="s">
-        <v>866</v>
+        <v>766</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>867</v>
+        <v>767</v>
       </c>
       <c r="O102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -10592,54 +9838,50 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>868</v>
+        <v>768</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>37754</v>
       </c>
-      <c r="B103" t="n">
-        <v>124592</v>
-      </c>
-      <c r="C103" t="s">
-        <v>869</v>
-      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>870</v>
+        <v>769</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>871</v>
+        <v>770</v>
       </c>
       <c r="J103" t="s">
-        <v>872</v>
+        <v>771</v>
       </c>
       <c r="K103" t="s">
-        <v>873</v>
+        <v>772</v>
       </c>
       <c r="L103" t="s">
-        <v>874</v>
+        <v>773</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>875</v>
+        <v>774</v>
       </c>
       <c r="O103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -10663,54 +9905,50 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>874</v>
+        <v>773</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>37754</v>
       </c>
-      <c r="B104" t="n">
-        <v>124593</v>
-      </c>
-      <c r="C104" t="s">
-        <v>876</v>
-      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>877</v>
+        <v>775</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>878</v>
+        <v>776</v>
       </c>
       <c r="J104" t="s">
-        <v>872</v>
+        <v>771</v>
       </c>
       <c r="K104" t="s">
-        <v>879</v>
+        <v>777</v>
       </c>
       <c r="L104" t="s">
-        <v>880</v>
+        <v>778</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>881</v>
+        <v>779</v>
       </c>
       <c r="O104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -10734,54 +9972,50 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>880</v>
+        <v>778</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>37754</v>
       </c>
-      <c r="B105" t="n">
-        <v>124594</v>
-      </c>
-      <c r="C105" t="s">
-        <v>882</v>
-      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>883</v>
+        <v>780</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>884</v>
+        <v>781</v>
       </c>
       <c r="J105" t="s">
-        <v>885</v>
+        <v>782</v>
       </c>
       <c r="K105" t="s">
-        <v>886</v>
+        <v>783</v>
       </c>
       <c r="L105" t="s">
-        <v>887</v>
+        <v>784</v>
       </c>
       <c r="M105" t="n">
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>888</v>
+        <v>785</v>
       </c>
       <c r="O105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P105" t="n">
         <v>2</v>
@@ -10805,54 +10039,50 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>887</v>
+        <v>784</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>37754</v>
       </c>
-      <c r="B106" t="n">
-        <v>124595</v>
-      </c>
-      <c r="C106" t="s">
-        <v>889</v>
-      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>890</v>
+        <v>786</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>891</v>
+        <v>787</v>
       </c>
       <c r="J106" t="s">
-        <v>892</v>
+        <v>788</v>
       </c>
       <c r="K106" t="s">
-        <v>893</v>
+        <v>789</v>
       </c>
       <c r="L106" t="s">
-        <v>894</v>
+        <v>790</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>895</v>
+        <v>791</v>
       </c>
       <c r="O106" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10876,54 +10106,50 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>894</v>
+        <v>790</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>37754</v>
       </c>
-      <c r="B107" t="n">
-        <v>124596</v>
-      </c>
-      <c r="C107" t="s">
-        <v>896</v>
-      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>897</v>
+        <v>792</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>898</v>
+        <v>793</v>
       </c>
       <c r="J107" t="s">
-        <v>899</v>
+        <v>794</v>
       </c>
       <c r="K107" t="s">
-        <v>900</v>
+        <v>795</v>
       </c>
       <c r="L107" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>902</v>
+        <v>797</v>
       </c>
       <c r="O107" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10947,54 +10173,50 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>37754</v>
       </c>
-      <c r="B108" t="n">
-        <v>124597</v>
-      </c>
-      <c r="C108" t="s">
-        <v>904</v>
-      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>905</v>
+        <v>799</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>906</v>
+        <v>800</v>
       </c>
       <c r="J108" t="s">
-        <v>907</v>
+        <v>801</v>
       </c>
       <c r="K108" t="s">
-        <v>908</v>
+        <v>802</v>
       </c>
       <c r="L108" t="s">
-        <v>909</v>
+        <v>803</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>902</v>
+        <v>797</v>
       </c>
       <c r="O108" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -11018,54 +10240,50 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>910</v>
+        <v>804</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>37754</v>
       </c>
-      <c r="B109" t="n">
-        <v>124598</v>
-      </c>
-      <c r="C109" t="s">
-        <v>911</v>
-      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>912</v>
+        <v>805</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>913</v>
+        <v>806</v>
       </c>
       <c r="J109" t="s">
-        <v>914</v>
+        <v>807</v>
       </c>
       <c r="K109" t="s">
-        <v>915</v>
+        <v>808</v>
       </c>
       <c r="L109" t="s">
-        <v>916</v>
+        <v>809</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>917</v>
+        <v>810</v>
       </c>
       <c r="O109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P109" t="n">
         <v>2</v>
@@ -11087,54 +10305,50 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>918</v>
+        <v>811</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>37754</v>
       </c>
-      <c r="B110" t="n">
-        <v>124599</v>
-      </c>
-      <c r="C110" t="s">
-        <v>919</v>
-      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>920</v>
+        <v>812</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>921</v>
+        <v>813</v>
       </c>
       <c r="J110" t="s">
-        <v>922</v>
+        <v>814</v>
       </c>
       <c r="K110" t="s">
-        <v>923</v>
+        <v>815</v>
       </c>
       <c r="L110" t="s">
-        <v>924</v>
+        <v>816</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>925</v>
+        <v>817</v>
       </c>
       <c r="O110" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -11158,54 +10372,50 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>924</v>
+        <v>816</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>37754</v>
       </c>
-      <c r="B111" t="n">
-        <v>124600</v>
-      </c>
-      <c r="C111" t="s">
-        <v>926</v>
-      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>927</v>
+        <v>818</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>928</v>
+        <v>819</v>
       </c>
       <c r="J111" t="s">
-        <v>929</v>
+        <v>820</v>
       </c>
       <c r="K111" t="s">
-        <v>930</v>
+        <v>821</v>
       </c>
       <c r="L111" t="s">
-        <v>931</v>
+        <v>822</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>932</v>
+        <v>823</v>
       </c>
       <c r="O111" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -11229,54 +10439,50 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>931</v>
+        <v>822</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>37754</v>
       </c>
-      <c r="B112" t="n">
-        <v>124601</v>
-      </c>
-      <c r="C112" t="s">
-        <v>933</v>
-      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>934</v>
+        <v>824</v>
       </c>
       <c r="G112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>935</v>
+        <v>825</v>
       </c>
       <c r="J112" t="s">
-        <v>936</v>
+        <v>826</v>
       </c>
       <c r="K112" t="s">
-        <v>937</v>
+        <v>827</v>
       </c>
       <c r="L112" t="s">
-        <v>938</v>
+        <v>828</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>939</v>
+        <v>829</v>
       </c>
       <c r="O112" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -11300,54 +10506,50 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>940</v>
+        <v>830</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>37754</v>
       </c>
-      <c r="B113" t="n">
-        <v>124602</v>
-      </c>
-      <c r="C113" t="s">
-        <v>941</v>
-      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>942</v>
+        <v>831</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>943</v>
+        <v>832</v>
       </c>
       <c r="J113" t="s">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="K113" t="s">
-        <v>945</v>
+        <v>834</v>
       </c>
       <c r="L113" t="s">
-        <v>946</v>
+        <v>835</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>947</v>
+        <v>836</v>
       </c>
       <c r="O113" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -11371,54 +10573,50 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>948</v>
+        <v>837</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>37754</v>
       </c>
-      <c r="B114" t="n">
-        <v>124603</v>
-      </c>
-      <c r="C114" t="s">
-        <v>949</v>
-      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>950</v>
+        <v>838</v>
       </c>
       <c r="G114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>951</v>
+        <v>839</v>
       </c>
       <c r="J114" t="s">
-        <v>952</v>
+        <v>840</v>
       </c>
       <c r="K114" t="s">
-        <v>953</v>
+        <v>841</v>
       </c>
       <c r="L114" t="s">
-        <v>954</v>
+        <v>842</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>955</v>
+        <v>843</v>
       </c>
       <c r="O114" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -11442,54 +10640,50 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>956</v>
+        <v>844</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>37754</v>
       </c>
-      <c r="B115" t="n">
-        <v>124604</v>
-      </c>
-      <c r="C115" t="s">
-        <v>957</v>
-      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>958</v>
+        <v>845</v>
       </c>
       <c r="G115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>959</v>
+        <v>846</v>
       </c>
       <c r="J115" t="s">
-        <v>960</v>
+        <v>847</v>
       </c>
       <c r="K115" t="s">
-        <v>961</v>
+        <v>848</v>
       </c>
       <c r="L115" t="s">
-        <v>962</v>
+        <v>849</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>963</v>
+        <v>850</v>
       </c>
       <c r="O115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P115" t="n">
         <v>3</v>
@@ -11513,45 +10707,41 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>964</v>
+        <v>851</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>37754</v>
       </c>
-      <c r="B116" t="n">
-        <v>124605</v>
-      </c>
-      <c r="C116" t="s">
-        <v>965</v>
-      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>966</v>
+        <v>852</v>
       </c>
       <c r="G116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>967</v>
+        <v>853</v>
       </c>
       <c r="J116" t="s">
-        <v>968</v>
+        <v>854</v>
       </c>
       <c r="K116" t="s">
-        <v>969</v>
+        <v>855</v>
       </c>
       <c r="L116" t="s">
-        <v>970</v>
+        <v>856</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
@@ -11570,54 +10760,50 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>971</v>
+        <v>857</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>37754</v>
       </c>
-      <c r="B117" t="n">
-        <v>124606</v>
-      </c>
-      <c r="C117" t="s">
-        <v>972</v>
-      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>973</v>
+        <v>858</v>
       </c>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>974</v>
+        <v>859</v>
       </c>
       <c r="J117" t="s">
-        <v>975</v>
+        <v>860</v>
       </c>
       <c r="K117" t="s">
-        <v>976</v>
+        <v>861</v>
       </c>
       <c r="L117" t="s">
-        <v>977</v>
+        <v>862</v>
       </c>
       <c r="M117" t="n">
         <v>3</v>
       </c>
       <c r="N117" t="s">
-        <v>978</v>
+        <v>863</v>
       </c>
       <c r="O117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P117" t="n">
         <v>4</v>
@@ -11641,54 +10827,50 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>977</v>
+        <v>862</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>37754</v>
       </c>
-      <c r="B118" t="n">
-        <v>124607</v>
-      </c>
-      <c r="C118" t="s">
-        <v>979</v>
-      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>980</v>
+        <v>864</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>981</v>
+        <v>865</v>
       </c>
       <c r="J118" t="s">
-        <v>975</v>
+        <v>860</v>
       </c>
       <c r="K118" t="s">
-        <v>982</v>
+        <v>866</v>
       </c>
       <c r="L118" t="s">
-        <v>983</v>
+        <v>867</v>
       </c>
       <c r="M118" t="n">
         <v>4</v>
       </c>
       <c r="N118" t="s">
-        <v>978</v>
+        <v>863</v>
       </c>
       <c r="O118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -11712,45 +10894,41 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>984</v>
+        <v>868</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>37754</v>
       </c>
-      <c r="B119" t="n">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>88</v>
-      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>985</v>
+        <v>869</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>986</v>
+        <v>870</v>
       </c>
       <c r="J119" t="s">
-        <v>987</v>
+        <v>871</v>
       </c>
       <c r="K119" t="s">
-        <v>988</v>
+        <v>872</v>
       </c>
       <c r="L119" t="s">
-        <v>989</v>
+        <v>873</v>
       </c>
       <c r="M119" t="n">
         <v>2</v>
@@ -11777,45 +10955,41 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>989</v>
+        <v>873</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>37754</v>
       </c>
-      <c r="B120" t="n">
-        <v>124608</v>
-      </c>
-      <c r="C120" t="s">
-        <v>990</v>
-      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>991</v>
+        <v>874</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I120" t="s">
-        <v>992</v>
+        <v>875</v>
       </c>
       <c r="J120" t="s">
-        <v>993</v>
+        <v>876</v>
       </c>
       <c r="K120" t="s">
-        <v>994</v>
+        <v>877</v>
       </c>
       <c r="L120" t="s">
-        <v>995</v>
+        <v>878</v>
       </c>
       <c r="M120" t="n">
         <v>3</v>
@@ -11842,54 +11016,50 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>996</v>
+        <v>879</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>37754</v>
       </c>
-      <c r="B121" t="n">
-        <v>124609</v>
-      </c>
-      <c r="C121" t="s">
-        <v>997</v>
-      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>998</v>
+        <v>880</v>
       </c>
       <c r="G121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I121" t="s">
-        <v>999</v>
+        <v>881</v>
       </c>
       <c r="J121" t="s">
-        <v>1000</v>
+        <v>882</v>
       </c>
       <c r="K121" t="s">
-        <v>1001</v>
+        <v>883</v>
       </c>
       <c r="L121" t="s">
-        <v>1002</v>
+        <v>884</v>
       </c>
       <c r="M121" t="n">
         <v>2</v>
       </c>
       <c r="N121" t="s">
-        <v>1003</v>
+        <v>885</v>
       </c>
       <c r="O121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P121" t="n">
         <v>4</v>
@@ -11911,45 +11081,41 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>1002</v>
+        <v>884</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>37754</v>
       </c>
-      <c r="B122" t="n">
-        <v>124610</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1004</v>
-      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>1005</v>
+        <v>886</v>
       </c>
       <c r="G122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I122" t="s">
-        <v>1006</v>
+        <v>887</v>
       </c>
       <c r="J122" t="s">
-        <v>1007</v>
+        <v>888</v>
       </c>
       <c r="K122" t="s">
-        <v>1008</v>
+        <v>889</v>
       </c>
       <c r="L122" t="s">
-        <v>1009</v>
+        <v>890</v>
       </c>
       <c r="M122" t="n">
         <v>5</v>
@@ -11968,7 +11134,7 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>1010</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
